--- a/Base_financas.xlsx
+++ b/Base_financas.xlsx
@@ -14,6 +14,9 @@
     <sheet name="Forma de Pagamento" sheetId="6" state="visible" r:id="rId6"/>
     <sheet name="Vendas" sheetId="7" state="visible" r:id="rId7"/>
     <sheet name="Investimentos" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="Metas" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="Div_CC" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="Orcamento" sheetId="11" state="visible" r:id="rId11"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="191029" fullCalcOnLoad="1"/>
@@ -22,11 +25,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="&quot;R$&quot;\ #,##0.00"/>
     <numFmt numFmtId="165" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="166" formatCode="yyyy-mm-dd h:mm:ss"/>
-    <numFmt numFmtId="167" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="166" formatCode="YYYY-MM-DD HH:MM:SS"/>
   </numFmts>
   <fonts count="3">
     <font>
@@ -74,7 +76,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -85,7 +87,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -22160,6 +22163,894 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="7" t="inlineStr">
+        <is>
+          <t>Data</t>
+        </is>
+      </c>
+      <c r="B1" s="7" t="inlineStr">
+        <is>
+          <t>Descrição</t>
+        </is>
+      </c>
+      <c r="C1" s="7" t="inlineStr">
+        <is>
+          <t>Tipo de Compra</t>
+        </is>
+      </c>
+      <c r="D1" s="7" t="inlineStr">
+        <is>
+          <t>Cartão</t>
+        </is>
+      </c>
+      <c r="E1" s="7" t="inlineStr">
+        <is>
+          <t>Quantidade de parcelas</t>
+        </is>
+      </c>
+      <c r="F1" s="7" t="inlineStr">
+        <is>
+          <t>Valor das parcelas</t>
+        </is>
+      </c>
+      <c r="G1" s="7" t="inlineStr">
+        <is>
+          <t>valor total da compra</t>
+        </is>
+      </c>
+      <c r="H1" s="7" t="inlineStr">
+        <is>
+          <t>Situação</t>
+        </is>
+      </c>
+      <c r="I1" s="7" t="inlineStr">
+        <is>
+          <t>Vencimento da Fatura</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="9" t="n">
+        <v>45306</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Compra Online - Amazon</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Parcelada</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Cartão Principal</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>3</v>
+      </c>
+      <c r="F2" t="n">
+        <v>150</v>
+      </c>
+      <c r="G2" t="n">
+        <v>450</v>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Pendente</t>
+        </is>
+      </c>
+      <c r="I2" s="9" t="n">
+        <v>45337</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="9" t="n">
+        <v>45311</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Supermercado Pão de Açúcar</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>À vista</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Cartão Principal</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F3" t="n">
+        <v>250.5</v>
+      </c>
+      <c r="G3" t="n">
+        <v>250.5</v>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Pendente</t>
+        </is>
+      </c>
+      <c r="I3" s="9" t="n">
+        <v>45337</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="9" t="n">
+        <v>45327</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Restaurante Fogo de Chão</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>À vista</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Cartão Principal</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F4" t="n">
+        <v>180.75</v>
+      </c>
+      <c r="G4" t="n">
+        <v>180.75</v>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Pendente</t>
+        </is>
+      </c>
+      <c r="I4" s="9" t="n">
+        <v>45366</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="9" t="n">
+        <v>45332</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>App de Transporte - Uber</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Recorrente</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Cartão Principal</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>1</v>
+      </c>
+      <c r="F5" t="n">
+        <v>45.9</v>
+      </c>
+      <c r="G5" t="n">
+        <v>45.9</v>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Pendente</t>
+        </is>
+      </c>
+      <c r="I5" s="9" t="n">
+        <v>45366</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="9" t="n">
+        <v>45363</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Loja de Roupas - Renner</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Parcelada</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Cartão Principal</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>2</v>
+      </c>
+      <c r="F6" t="n">
+        <v>89.90000000000001</v>
+      </c>
+      <c r="G6" t="n">
+        <v>179.8</v>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Pendente</t>
+        </is>
+      </c>
+      <c r="I6" s="9" t="n">
+        <v>45397</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="9" t="n">
+        <v>45369</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Cinema - Ingresso.com</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>À vista</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Cartão Principal</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>1</v>
+      </c>
+      <c r="F7" t="n">
+        <v>50</v>
+      </c>
+      <c r="G7" t="n">
+        <v>50</v>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Pendente</t>
+        </is>
+      </c>
+      <c r="I7" s="9" t="n">
+        <v>45397</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="9" t="n">
+        <v>45402</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Compra de Eletrônicos - FastShop</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Parcelada</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Cartão Principal</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>10</v>
+      </c>
+      <c r="F8" t="n">
+        <v>399.9</v>
+      </c>
+      <c r="G8" t="n">
+        <v>3999</v>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Pendente</t>
+        </is>
+      </c>
+      <c r="I8" s="9" t="n">
+        <v>45427</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="9" t="n">
+        <v>45407</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Padaria Pão Dourado</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>À vista</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Cartão Principal</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>1</v>
+      </c>
+      <c r="F9" t="n">
+        <v>35.2</v>
+      </c>
+      <c r="G9" t="n">
+        <v>35.2</v>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Pendente</t>
+        </is>
+      </c>
+      <c r="I9" s="9" t="n">
+        <v>45427</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="9" t="n">
+        <v>45417</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Farmácia Drogasil</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>À vista</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Cartão Principal</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>1</v>
+      </c>
+      <c r="F10" t="n">
+        <v>75.59999999999999</v>
+      </c>
+      <c r="G10" t="n">
+        <v>75.59999999999999</v>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Pendente</t>
+        </is>
+      </c>
+      <c r="I10" s="9" t="n">
+        <v>45458</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="9" t="n">
+        <v>45442</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Assinatura Netflix</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Recorrente</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Cartão Principal</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>1</v>
+      </c>
+      <c r="F11" t="n">
+        <v>39.9</v>
+      </c>
+      <c r="G11" t="n">
+        <v>39.9</v>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Pendente</t>
+        </is>
+      </c>
+      <c r="I11" s="9" t="n">
+        <v>45458</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="9" t="n">
+        <v>45444</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Assinatura Spotify</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Recorrente</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Cartão Principal</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>1</v>
+      </c>
+      <c r="F12" t="n">
+        <v>21.9</v>
+      </c>
+      <c r="G12" t="n">
+        <v>21.9</v>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Pendente</t>
+        </is>
+      </c>
+      <c r="I12" s="9" t="n">
+        <v>45488</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="9" t="n">
+        <v>45453</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Conta de Celular - Vivo</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Recorrente</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Cartão Principal</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>1</v>
+      </c>
+      <c r="F13" t="n">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="G13" t="n">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Pendente</t>
+        </is>
+      </c>
+      <c r="I13" s="9" t="n">
+        <v>45488</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="9" t="n">
+        <v>45319</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>iFood</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>À vista</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Cartão Principal</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>1</v>
+      </c>
+      <c r="F14" t="n">
+        <v>65.8</v>
+      </c>
+      <c r="G14" t="n">
+        <v>65.8</v>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Pendente</t>
+        </is>
+      </c>
+      <c r="I14" s="9" t="n">
+        <v>45337</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="9" t="n">
+        <v>45350</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>iFood</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>À vista</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Cartão Principal</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>1</v>
+      </c>
+      <c r="F15" t="n">
+        <v>42.3</v>
+      </c>
+      <c r="G15" t="n">
+        <v>42.3</v>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Pendente</t>
+        </is>
+      </c>
+      <c r="I15" s="9" t="n">
+        <v>45366</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="9" t="n">
+        <v>45379</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Mensalidade Academia</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Recorrente</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Cartão Principal</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>1</v>
+      </c>
+      <c r="F16" t="n">
+        <v>120</v>
+      </c>
+      <c r="G16" t="n">
+        <v>120</v>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Pendente</t>
+        </is>
+      </c>
+      <c r="I16" s="9" t="n">
+        <v>45397</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="9" t="n">
+        <v>45410</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Mensalidade Academia</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Recorrente</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Cartão Principal</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
+        <v>1</v>
+      </c>
+      <c r="F17" t="n">
+        <v>120</v>
+      </c>
+      <c r="G17" t="n">
+        <v>120</v>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Pendente</t>
+        </is>
+      </c>
+      <c r="I17" s="9" t="n">
+        <v>45427</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="9" t="n">
+        <v>45440</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Gasolina Posto Shell</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>À vista</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Cartão Principal</t>
+        </is>
+      </c>
+      <c r="E18" t="n">
+        <v>1</v>
+      </c>
+      <c r="F18" t="n">
+        <v>150</v>
+      </c>
+      <c r="G18" t="n">
+        <v>150</v>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Pendente</t>
+        </is>
+      </c>
+      <c r="I18" s="9" t="n">
+        <v>45458</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="9" t="n">
+        <v>45471</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Peças de Carro</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Parcelada</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Cartão Principal</t>
+        </is>
+      </c>
+      <c r="E19" t="n">
+        <v>4</v>
+      </c>
+      <c r="F19" t="n">
+        <v>250</v>
+      </c>
+      <c r="G19" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Pendente</t>
+        </is>
+      </c>
+      <c r="I19" s="9" t="n">
+        <v>45488</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Categoria</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Porcentagem</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Descrição</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Moradia</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>15</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Despesas com aluguel, condomínio, IPTU, etc.</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Alimentação</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>20</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Gastos com alimentação, mercado, restaurantes</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Saúde</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>10</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Plano de saúde, medicamentos, consultas</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Transporte</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>15</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Combustível, transporte público, manutenção</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Vestuário</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>10</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Roupas, calçados, acessórios</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Educação</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>10</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Cursos, livros, material escolar</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Lazer</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>5</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Entretenimento, viagens, hobbies</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Investimentos/Dívidas</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>15</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Aplicações financeiras e pagamento de dívidas</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
@@ -25974,7 +26865,7 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="8" t="n">
+      <c r="A2" s="9" t="n">
         <v>45659</v>
       </c>
       <c r="B2" t="inlineStr">
@@ -26000,7 +26891,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="8" t="n">
+      <c r="A3" s="9" t="n">
         <v>45659</v>
       </c>
       <c r="B3" t="inlineStr">
@@ -26026,7 +26917,7 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="8" t="n">
+      <c r="A4" s="9" t="n">
         <v>45659</v>
       </c>
       <c r="B4" t="inlineStr">
@@ -26052,7 +26943,7 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="8" t="n">
+      <c r="A5" s="9" t="n">
         <v>45660</v>
       </c>
       <c r="B5" t="inlineStr">
@@ -26078,7 +26969,7 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="8" t="n">
+      <c r="A6" s="9" t="n">
         <v>45660</v>
       </c>
       <c r="B6" t="inlineStr">
@@ -26104,7 +26995,7 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="8" t="n">
+      <c r="A7" s="9" t="n">
         <v>45663</v>
       </c>
       <c r="B7" t="inlineStr">
@@ -26130,7 +27021,7 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="8" t="n">
+      <c r="A8" s="9" t="n">
         <v>45664</v>
       </c>
       <c r="B8" t="inlineStr">
@@ -26156,7 +27047,7 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="8" t="n">
+      <c r="A9" s="9" t="n">
         <v>45666</v>
       </c>
       <c r="B9" t="inlineStr">
@@ -26182,7 +27073,7 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="8" t="n">
+      <c r="A10" s="9" t="n">
         <v>45672</v>
       </c>
       <c r="B10" t="inlineStr">
@@ -26208,7 +27099,7 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="8" t="n">
+      <c r="A11" s="9" t="n">
         <v>45677</v>
       </c>
       <c r="B11" t="inlineStr">
@@ -26234,7 +27125,7 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="8" t="n">
+      <c r="A12" s="9" t="n">
         <v>45677</v>
       </c>
       <c r="B12" t="inlineStr">
@@ -26260,7 +27151,7 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="8" t="n">
+      <c r="A13" s="9" t="n">
         <v>45681</v>
       </c>
       <c r="B13" t="inlineStr">
@@ -26286,7 +27177,7 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="8" t="n">
+      <c r="A14" s="9" t="n">
         <v>45681</v>
       </c>
       <c r="B14" t="inlineStr">
@@ -26312,7 +27203,7 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="8" t="n">
+      <c r="A15" s="9" t="n">
         <v>45684</v>
       </c>
       <c r="B15" t="inlineStr">
@@ -26338,7 +27229,7 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="8" t="n">
+      <c r="A16" s="9" t="n">
         <v>45684</v>
       </c>
       <c r="B16" t="inlineStr">
@@ -26364,7 +27255,7 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="8" t="n">
+      <c r="A17" s="9" t="n">
         <v>45687</v>
       </c>
       <c r="B17" t="inlineStr">
@@ -26390,7 +27281,7 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="8" t="n">
+      <c r="A18" s="9" t="n">
         <v>45688</v>
       </c>
       <c r="B18" t="inlineStr">
@@ -26416,7 +27307,7 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="8" t="n">
+      <c r="A19" s="9" t="n">
         <v>45688</v>
       </c>
       <c r="B19" t="inlineStr">
@@ -26442,7 +27333,7 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="8" t="n">
+      <c r="A20" s="9" t="n">
         <v>45691</v>
       </c>
       <c r="B20" t="inlineStr">
@@ -26468,7 +27359,7 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="8" t="n">
+      <c r="A21" s="9" t="n">
         <v>45691</v>
       </c>
       <c r="B21" t="inlineStr">
@@ -26494,7 +27385,7 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="8" t="n">
+      <c r="A22" s="9" t="n">
         <v>45693</v>
       </c>
       <c r="B22" t="inlineStr">
@@ -26520,7 +27411,7 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="8" t="n">
+      <c r="A23" s="9" t="n">
         <v>45693</v>
       </c>
       <c r="B23" t="inlineStr">
@@ -26546,7 +27437,7 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="8" t="n">
+      <c r="A24" s="9" t="n">
         <v>45693</v>
       </c>
       <c r="B24" t="inlineStr">
@@ -26572,7 +27463,7 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="8" t="n">
+      <c r="A25" s="9" t="n">
         <v>45695</v>
       </c>
       <c r="B25" t="inlineStr">
@@ -26598,7 +27489,7 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="8" t="n">
+      <c r="A26" s="9" t="n">
         <v>45698</v>
       </c>
       <c r="B26" t="inlineStr">
@@ -26624,7 +27515,7 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="8" t="n">
+      <c r="A27" s="9" t="n">
         <v>45698</v>
       </c>
       <c r="B27" t="inlineStr">
@@ -26650,7 +27541,7 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="8" t="n">
+      <c r="A28" s="9" t="n">
         <v>45698</v>
       </c>
       <c r="B28" t="inlineStr">
@@ -26676,7 +27567,7 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="8" t="n">
+      <c r="A29" s="9" t="n">
         <v>45698</v>
       </c>
       <c r="B29" t="inlineStr">
@@ -26702,7 +27593,7 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="8" t="n">
+      <c r="A30" s="9" t="n">
         <v>45699</v>
       </c>
       <c r="B30" t="inlineStr">
@@ -26728,7 +27619,7 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="8" t="n">
+      <c r="A31" s="9" t="n">
         <v>45705</v>
       </c>
       <c r="B31" t="inlineStr">
@@ -26754,7 +27645,7 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="8" t="n">
+      <c r="A32" s="9" t="n">
         <v>45709</v>
       </c>
       <c r="B32" t="inlineStr">
@@ -26780,7 +27671,7 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="8" t="n">
+      <c r="A33" s="9" t="n">
         <v>45709</v>
       </c>
       <c r="B33" t="inlineStr">
@@ -26806,7 +27697,7 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="8" t="n">
+      <c r="A34" s="9" t="n">
         <v>45709</v>
       </c>
       <c r="B34" t="inlineStr">
@@ -26832,7 +27723,7 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="8" t="n">
+      <c r="A35" s="9" t="n">
         <v>45712</v>
       </c>
       <c r="B35" t="inlineStr">
@@ -26858,7 +27749,7 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="8" t="n">
+      <c r="A36" s="9" t="n">
         <v>45712</v>
       </c>
       <c r="B36" t="inlineStr">
@@ -26884,7 +27775,7 @@
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="8" t="n">
+      <c r="A37" s="9" t="n">
         <v>45714</v>
       </c>
       <c r="B37" t="inlineStr">
@@ -26910,7 +27801,7 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="8" t="n">
+      <c r="A38" s="9" t="n">
         <v>45714</v>
       </c>
       <c r="B38" t="inlineStr">
@@ -26936,7 +27827,7 @@
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="8" t="n">
+      <c r="A39" s="9" t="n">
         <v>45715</v>
       </c>
       <c r="B39" t="inlineStr">
@@ -26962,7 +27853,7 @@
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="8" t="n">
+      <c r="A40" s="9" t="n">
         <v>45715</v>
       </c>
       <c r="B40" t="inlineStr">
@@ -26988,7 +27879,7 @@
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="8" t="n">
+      <c r="A41" s="9" t="n">
         <v>45723</v>
       </c>
       <c r="B41" t="inlineStr">
@@ -27014,7 +27905,7 @@
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="8" t="n">
+      <c r="A42" s="9" t="n">
         <v>45723</v>
       </c>
       <c r="B42" t="inlineStr">
@@ -27040,7 +27931,7 @@
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="8" t="n">
+      <c r="A43" s="9" t="n">
         <v>45727</v>
       </c>
       <c r="B43" t="inlineStr">
@@ -27066,7 +27957,7 @@
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="8" t="n">
+      <c r="A44" s="9" t="n">
         <v>45729</v>
       </c>
       <c r="B44" t="inlineStr">
@@ -27092,7 +27983,7 @@
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="8" t="n">
+      <c r="A45" s="9" t="n">
         <v>45730</v>
       </c>
       <c r="B45" t="inlineStr">
@@ -27118,7 +28009,7 @@
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="8" t="n">
+      <c r="A46" s="9" t="n">
         <v>45730</v>
       </c>
       <c r="B46" t="inlineStr">
@@ -27144,7 +28035,7 @@
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="8" t="n">
+      <c r="A47" s="9" t="n">
         <v>45734</v>
       </c>
       <c r="B47" t="inlineStr">
@@ -27170,7 +28061,7 @@
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="8" t="n">
+      <c r="A48" s="9" t="n">
         <v>45735</v>
       </c>
       <c r="B48" t="inlineStr">
@@ -27196,7 +28087,7 @@
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="8" t="n">
+      <c r="A49" s="9" t="n">
         <v>45736</v>
       </c>
       <c r="B49" t="inlineStr">
@@ -27222,7 +28113,7 @@
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="8" t="n">
+      <c r="A50" s="9" t="n">
         <v>45737</v>
       </c>
       <c r="B50" t="inlineStr">
@@ -27248,7 +28139,7 @@
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="8" t="n">
+      <c r="A51" s="9" t="n">
         <v>45740</v>
       </c>
       <c r="B51" t="inlineStr">
@@ -27274,7 +28165,7 @@
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="8" t="n">
+      <c r="A52" s="9" t="n">
         <v>45740</v>
       </c>
       <c r="B52" t="inlineStr">
@@ -27300,7 +28191,7 @@
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="8" t="n">
+      <c r="A53" s="9" t="n">
         <v>45740</v>
       </c>
       <c r="B53" t="inlineStr">
@@ -27326,7 +28217,7 @@
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="8" t="n">
+      <c r="A54" s="9" t="n">
         <v>45740</v>
       </c>
       <c r="B54" t="inlineStr">
@@ -27352,7 +28243,7 @@
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="8" t="n">
+      <c r="A55" s="9" t="n">
         <v>45742</v>
       </c>
       <c r="B55" t="inlineStr">
@@ -27378,7 +28269,7 @@
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="8" t="n">
+      <c r="A56" s="9" t="n">
         <v>45743</v>
       </c>
       <c r="B56" t="inlineStr">
@@ -27404,7 +28295,7 @@
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="8" t="n">
+      <c r="A57" s="9" t="n">
         <v>45743</v>
       </c>
       <c r="B57" t="inlineStr">
@@ -27430,7 +28321,7 @@
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="8" t="n">
+      <c r="A58" s="9" t="n">
         <v>45744</v>
       </c>
       <c r="B58" t="inlineStr">
@@ -27456,7 +28347,7 @@
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="8" t="n">
+      <c r="A59" s="9" t="n">
         <v>45747</v>
       </c>
       <c r="B59" t="inlineStr">
@@ -27482,7 +28373,7 @@
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="8" t="n">
+      <c r="A60" s="9" t="n">
         <v>45747</v>
       </c>
       <c r="B60" t="inlineStr">
@@ -27508,7 +28399,7 @@
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="8" t="n">
+      <c r="A61" s="9" t="n">
         <v>45748</v>
       </c>
       <c r="B61" t="inlineStr">
@@ -27534,7 +28425,7 @@
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="8" t="n">
+      <c r="A62" s="9" t="n">
         <v>45748</v>
       </c>
       <c r="B62" t="inlineStr">
@@ -27560,7 +28451,7 @@
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="8" t="n">
+      <c r="A63" s="9" t="n">
         <v>45748</v>
       </c>
       <c r="B63" t="inlineStr">
@@ -27586,7 +28477,7 @@
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="8" t="n">
+      <c r="A64" s="9" t="n">
         <v>45749</v>
       </c>
       <c r="B64" t="inlineStr">
@@ -27612,7 +28503,7 @@
       </c>
     </row>
     <row r="65">
-      <c r="A65" s="8" t="n">
+      <c r="A65" s="9" t="n">
         <v>45750</v>
       </c>
       <c r="B65" t="inlineStr">
@@ -27638,7 +28529,7 @@
       </c>
     </row>
     <row r="66">
-      <c r="A66" s="8" t="n">
+      <c r="A66" s="9" t="n">
         <v>45751</v>
       </c>
       <c r="B66" t="inlineStr">
@@ -27664,7 +28555,7 @@
       </c>
     </row>
     <row r="67">
-      <c r="A67" s="8" t="n">
+      <c r="A67" s="9" t="n">
         <v>45754</v>
       </c>
       <c r="B67" t="inlineStr">
@@ -27690,7 +28581,7 @@
       </c>
     </row>
     <row r="68">
-      <c r="A68" s="8" t="n">
+      <c r="A68" s="9" t="n">
         <v>45755</v>
       </c>
       <c r="B68" t="inlineStr">
@@ -27716,7 +28607,7 @@
       </c>
     </row>
     <row r="69">
-      <c r="A69" s="8" t="n">
+      <c r="A69" s="9" t="n">
         <v>45761</v>
       </c>
       <c r="B69" t="inlineStr">
@@ -27742,7 +28633,7 @@
       </c>
     </row>
     <row r="70">
-      <c r="A70" s="8" t="n">
+      <c r="A70" s="9" t="n">
         <v>45762</v>
       </c>
       <c r="B70" t="inlineStr">
@@ -27768,7 +28659,7 @@
       </c>
     </row>
     <row r="71">
-      <c r="A71" s="8" t="n">
+      <c r="A71" s="9" t="n">
         <v>45762</v>
       </c>
       <c r="B71" t="inlineStr">
@@ -27794,7 +28685,7 @@
       </c>
     </row>
     <row r="72">
-      <c r="A72" s="8" t="n">
+      <c r="A72" s="9" t="n">
         <v>45769</v>
       </c>
       <c r="B72" t="inlineStr">
@@ -27820,7 +28711,7 @@
       </c>
     </row>
     <row r="73">
-      <c r="A73" s="8" t="n">
+      <c r="A73" s="9" t="n">
         <v>45769</v>
       </c>
       <c r="B73" t="inlineStr">
@@ -27846,7 +28737,7 @@
       </c>
     </row>
     <row r="74">
-      <c r="A74" s="8" t="n">
+      <c r="A74" s="9" t="n">
         <v>45769</v>
       </c>
       <c r="B74" t="inlineStr">
@@ -27872,7 +28763,7 @@
       </c>
     </row>
     <row r="75">
-      <c r="A75" s="8" t="n">
+      <c r="A75" s="9" t="n">
         <v>45770</v>
       </c>
       <c r="B75" t="inlineStr">
@@ -27898,7 +28789,7 @@
       </c>
     </row>
     <row r="76">
-      <c r="A76" s="8" t="n">
+      <c r="A76" s="9" t="n">
         <v>45775</v>
       </c>
       <c r="B76" t="inlineStr">
@@ -27924,7 +28815,7 @@
       </c>
     </row>
     <row r="77">
-      <c r="A77" s="8" t="n">
+      <c r="A77" s="9" t="n">
         <v>45775</v>
       </c>
       <c r="B77" t="inlineStr">
@@ -27950,7 +28841,7 @@
       </c>
     </row>
     <row r="78">
-      <c r="A78" s="8" t="n">
+      <c r="A78" s="9" t="n">
         <v>45782</v>
       </c>
       <c r="B78" t="inlineStr">
@@ -27976,7 +28867,7 @@
       </c>
     </row>
     <row r="79">
-      <c r="A79" s="8" t="n">
+      <c r="A79" s="9" t="n">
         <v>45784</v>
       </c>
       <c r="B79" t="inlineStr">
@@ -28002,7 +28893,7 @@
       </c>
     </row>
     <row r="80">
-      <c r="A80" s="8" t="n">
+      <c r="A80" s="9" t="n">
         <v>45784</v>
       </c>
       <c r="B80" t="inlineStr">
@@ -28028,7 +28919,7 @@
       </c>
     </row>
     <row r="81">
-      <c r="A81" s="8" t="n">
+      <c r="A81" s="9" t="n">
         <v>45796</v>
       </c>
       <c r="B81" t="inlineStr">
@@ -28054,7 +28945,7 @@
       </c>
     </row>
     <row r="82">
-      <c r="A82" s="8" t="n">
+      <c r="A82" s="9" t="n">
         <v>45810</v>
       </c>
       <c r="B82" t="inlineStr">
@@ -28080,7 +28971,7 @@
       </c>
     </row>
     <row r="83">
-      <c r="A83" s="8" t="n">
+      <c r="A83" s="9" t="n">
         <v>45810</v>
       </c>
       <c r="B83" t="inlineStr">
@@ -28106,7 +28997,7 @@
       </c>
     </row>
     <row r="84">
-      <c r="A84" s="8" t="n">
+      <c r="A84" s="9" t="n">
         <v>45810</v>
       </c>
       <c r="B84" t="inlineStr">
@@ -28132,7 +29023,7 @@
       </c>
     </row>
     <row r="85">
-      <c r="A85" s="8" t="n">
+      <c r="A85" s="9" t="n">
         <v>45813</v>
       </c>
       <c r="B85" t="inlineStr">
@@ -28158,7 +29049,7 @@
       </c>
     </row>
     <row r="86">
-      <c r="A86" s="8" t="n">
+      <c r="A86" s="9" t="n">
         <v>45815</v>
       </c>
       <c r="B86" t="inlineStr">
@@ -28184,7 +29075,7 @@
       </c>
     </row>
     <row r="87">
-      <c r="A87" s="8" t="n">
+      <c r="A87" s="9" t="n">
         <v>45815</v>
       </c>
       <c r="B87" t="inlineStr">
@@ -28210,7 +29101,7 @@
       </c>
     </row>
     <row r="88">
-      <c r="A88" s="8" t="n">
+      <c r="A88" s="9" t="n">
         <v>45818</v>
       </c>
       <c r="B88" t="inlineStr">
@@ -28236,7 +29127,7 @@
       </c>
     </row>
     <row r="89">
-      <c r="A89" s="8" t="n">
+      <c r="A89" s="9" t="n">
         <v>45824</v>
       </c>
       <c r="B89" t="inlineStr">
@@ -28262,7 +29153,7 @@
       </c>
     </row>
     <row r="90">
-      <c r="A90" s="8" t="n">
+      <c r="A90" s="9" t="n">
         <v>45825</v>
       </c>
       <c r="B90" t="inlineStr">
@@ -28288,7 +29179,7 @@
       </c>
     </row>
     <row r="91">
-      <c r="A91" s="8" t="n">
+      <c r="A91" s="9" t="n">
         <v>45825</v>
       </c>
       <c r="B91" t="inlineStr">
@@ -29116,4 +30007,134 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="7" t="inlineStr">
+        <is>
+          <t>ANO</t>
+        </is>
+      </c>
+      <c r="B1" s="7" t="inlineStr">
+        <is>
+          <t>META_TOTAL</t>
+        </is>
+      </c>
+      <c r="C1" s="7" t="inlineStr">
+        <is>
+          <t>META_MENSAL</t>
+        </is>
+      </c>
+      <c r="D1" s="7" t="inlineStr">
+        <is>
+          <t>OBJETIVO</t>
+        </is>
+      </c>
+      <c r="E1" s="7" t="inlineStr">
+        <is>
+          <t>DESCRICAO</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B2" t="n">
+        <v>25000</v>
+      </c>
+      <c r="C2" t="n">
+        <v>2083.33</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Aposentadoria</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Meta de aportes para 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2025</v>
+      </c>
+      <c r="B3" t="n">
+        <v>30000</v>
+      </c>
+      <c r="C3" t="n">
+        <v>2500</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Aposentadoria</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Meta de aportes para 2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B4" t="n">
+        <v>12000</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Reserva de Emergência</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Meta para reserva de emergência 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>2025</v>
+      </c>
+      <c r="B5" t="n">
+        <v>15000</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1250</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Reserva de Emergência</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Meta para reserva de emergência 2025</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/Base_financas.xlsx
+++ b/Base_financas.xlsx
@@ -439,7 +439,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H596"/>
+  <dimension ref="A1:H598"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21875,7 +21875,7 @@
     </row>
     <row r="596">
       <c r="A596" s="2" t="n">
-        <v>45829</v>
+        <v>45826</v>
       </c>
       <c r="B596" t="inlineStr">
         <is>
@@ -21887,25 +21887,85 @@
           <t>Padaria</t>
         </is>
       </c>
-      <c r="D596" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
+      <c r="D596" t="inlineStr"/>
       <c r="E596" t="inlineStr">
         <is>
           <t>CC-Banco Bradesco</t>
         </is>
       </c>
-      <c r="F596" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
+      <c r="F596" t="inlineStr"/>
       <c r="G596" t="n">
         <v>-12</v>
       </c>
       <c r="H596" t="inlineStr"/>
+    </row>
+    <row r="597">
+      <c r="A597" s="2" t="n">
+        <v>45826</v>
+      </c>
+      <c r="B597" t="inlineStr">
+        <is>
+          <t>Alimentação</t>
+        </is>
+      </c>
+      <c r="C597" t="inlineStr">
+        <is>
+          <t>Lanchonete</t>
+        </is>
+      </c>
+      <c r="D597" t="inlineStr">
+        <is>
+          <t>Luiz Antonio Ribeiro De Araújo</t>
+        </is>
+      </c>
+      <c r="E597" t="inlineStr">
+        <is>
+          <t>CC-Banco Bradesco</t>
+        </is>
+      </c>
+      <c r="F597" t="inlineStr"/>
+      <c r="G597" t="n">
+        <v>-15</v>
+      </c>
+      <c r="H597" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="598">
+      <c r="A598" s="2" t="n">
+        <v>45826</v>
+      </c>
+      <c r="B598" t="inlineStr">
+        <is>
+          <t>Alimentação</t>
+        </is>
+      </c>
+      <c r="C598" t="inlineStr">
+        <is>
+          <t>Ovos</t>
+        </is>
+      </c>
+      <c r="D598" t="inlineStr">
+        <is>
+          <t>Rosa Maria Mapurunga</t>
+        </is>
+      </c>
+      <c r="E598" t="inlineStr">
+        <is>
+          <t>CC-Banco Bradesco</t>
+        </is>
+      </c>
+      <c r="F598" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G598" t="n">
+        <v>-20</v>
+      </c>
+      <c r="H598" t="n">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Base_financas.xlsx
+++ b/Base_financas.xlsx
@@ -26,9 +26,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
-    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -68,12 +67,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -490,7 +490,7 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="3" t="n">
         <v>45659</v>
       </c>
       <c r="B2" t="inlineStr">
@@ -526,7 +526,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="n">
+      <c r="A3" s="3" t="n">
         <v>45659</v>
       </c>
       <c r="B3" t="inlineStr">
@@ -562,7 +562,7 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="n">
+      <c r="A4" s="3" t="n">
         <v>45659</v>
       </c>
       <c r="B4" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="n">
+      <c r="A5" s="3" t="n">
         <v>45659</v>
       </c>
       <c r="B5" t="inlineStr">
@@ -634,7 +634,7 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="2" t="n">
+      <c r="A6" s="3" t="n">
         <v>45659</v>
       </c>
       <c r="B6" t="inlineStr">
@@ -670,7 +670,7 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="2" t="n">
+      <c r="A7" s="3" t="n">
         <v>45659</v>
       </c>
       <c r="B7" t="inlineStr">
@@ -706,7 +706,7 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="2" t="n">
+      <c r="A8" s="3" t="n">
         <v>45659</v>
       </c>
       <c r="B8" t="inlineStr">
@@ -742,7 +742,7 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="2" t="n">
+      <c r="A9" s="3" t="n">
         <v>45659</v>
       </c>
       <c r="B9" t="inlineStr">
@@ -778,7 +778,7 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="2" t="n">
+      <c r="A10" s="3" t="n">
         <v>45659</v>
       </c>
       <c r="B10" t="inlineStr">
@@ -814,7 +814,7 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="2" t="n">
+      <c r="A11" s="3" t="n">
         <v>45659</v>
       </c>
       <c r="B11" t="inlineStr">
@@ -850,7 +850,7 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="2" t="n">
+      <c r="A12" s="3" t="n">
         <v>45659</v>
       </c>
       <c r="B12" t="inlineStr">
@@ -886,7 +886,7 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="2" t="n">
+      <c r="A13" s="3" t="n">
         <v>45660</v>
       </c>
       <c r="B13" t="inlineStr">
@@ -922,7 +922,7 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="2" t="n">
+      <c r="A14" s="3" t="n">
         <v>45660</v>
       </c>
       <c r="B14" t="inlineStr">
@@ -958,7 +958,7 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="2" t="n">
+      <c r="A15" s="3" t="n">
         <v>45660</v>
       </c>
       <c r="B15" t="inlineStr">
@@ -994,7 +994,7 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="2" t="n">
+      <c r="A16" s="3" t="n">
         <v>45660</v>
       </c>
       <c r="B16" t="inlineStr">
@@ -1030,7 +1030,7 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="2" t="n">
+      <c r="A17" s="3" t="n">
         <v>45660</v>
       </c>
       <c r="B17" t="inlineStr">
@@ -1066,7 +1066,7 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="2" t="n">
+      <c r="A18" s="3" t="n">
         <v>45663</v>
       </c>
       <c r="B18" t="inlineStr">
@@ -1102,7 +1102,7 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="2" t="n">
+      <c r="A19" s="3" t="n">
         <v>45663</v>
       </c>
       <c r="B19" t="inlineStr">
@@ -1138,7 +1138,7 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="2" t="n">
+      <c r="A20" s="3" t="n">
         <v>45663</v>
       </c>
       <c r="B20" t="inlineStr">
@@ -1174,7 +1174,7 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="2" t="n">
+      <c r="A21" s="3" t="n">
         <v>45663</v>
       </c>
       <c r="B21" t="inlineStr">
@@ -1210,7 +1210,7 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="2" t="n">
+      <c r="A22" s="3" t="n">
         <v>45663</v>
       </c>
       <c r="B22" t="inlineStr">
@@ -1246,7 +1246,7 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="2" t="n">
+      <c r="A23" s="3" t="n">
         <v>45663</v>
       </c>
       <c r="B23" t="inlineStr">
@@ -1282,7 +1282,7 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="2" t="n">
+      <c r="A24" s="3" t="n">
         <v>45663</v>
       </c>
       <c r="B24" t="inlineStr">
@@ -1318,7 +1318,7 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="2" t="n">
+      <c r="A25" s="3" t="n">
         <v>45663</v>
       </c>
       <c r="B25" t="inlineStr">
@@ -1354,7 +1354,7 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="2" t="n">
+      <c r="A26" s="3" t="n">
         <v>45663</v>
       </c>
       <c r="B26" t="inlineStr">
@@ -1390,7 +1390,7 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="2" t="n">
+      <c r="A27" s="3" t="n">
         <v>45663</v>
       </c>
       <c r="B27" t="inlineStr">
@@ -1426,7 +1426,7 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="2" t="n">
+      <c r="A28" s="3" t="n">
         <v>45663</v>
       </c>
       <c r="B28" t="inlineStr">
@@ -1462,7 +1462,7 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="2" t="n">
+      <c r="A29" s="3" t="n">
         <v>45663</v>
       </c>
       <c r="B29" t="inlineStr">
@@ -1498,7 +1498,7 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="2" t="n">
+      <c r="A30" s="3" t="n">
         <v>45663</v>
       </c>
       <c r="B30" t="inlineStr">
@@ -1534,7 +1534,7 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="2" t="n">
+      <c r="A31" s="3" t="n">
         <v>45663</v>
       </c>
       <c r="B31" t="inlineStr">
@@ -1570,7 +1570,7 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="2" t="n">
+      <c r="A32" s="3" t="n">
         <v>45663</v>
       </c>
       <c r="B32" t="inlineStr">
@@ -1606,7 +1606,7 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="2" t="n">
+      <c r="A33" s="3" t="n">
         <v>45663</v>
       </c>
       <c r="B33" t="inlineStr">
@@ -1642,7 +1642,7 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="2" t="n">
+      <c r="A34" s="3" t="n">
         <v>45664</v>
       </c>
       <c r="B34" t="inlineStr">
@@ -1678,7 +1678,7 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="2" t="n">
+      <c r="A35" s="3" t="n">
         <v>45664</v>
       </c>
       <c r="B35" t="inlineStr">
@@ -1714,7 +1714,7 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="2" t="n">
+      <c r="A36" s="3" t="n">
         <v>45664</v>
       </c>
       <c r="B36" t="inlineStr">
@@ -1750,7 +1750,7 @@
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="2" t="n">
+      <c r="A37" s="3" t="n">
         <v>45666</v>
       </c>
       <c r="B37" t="inlineStr">
@@ -1786,7 +1786,7 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="2" t="n">
+      <c r="A38" s="3" t="n">
         <v>45666</v>
       </c>
       <c r="B38" t="inlineStr">
@@ -1822,7 +1822,7 @@
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="2" t="n">
+      <c r="A39" s="3" t="n">
         <v>45666</v>
       </c>
       <c r="B39" t="inlineStr">
@@ -1858,7 +1858,7 @@
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="2" t="n">
+      <c r="A40" s="3" t="n">
         <v>45666</v>
       </c>
       <c r="B40" t="inlineStr">
@@ -1894,7 +1894,7 @@
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="2" t="n">
+      <c r="A41" s="3" t="n">
         <v>45667</v>
       </c>
       <c r="B41" t="inlineStr">
@@ -1930,7 +1930,7 @@
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="2" t="n">
+      <c r="A42" s="3" t="n">
         <v>45667</v>
       </c>
       <c r="B42" t="inlineStr">
@@ -1966,7 +1966,7 @@
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="2" t="n">
+      <c r="A43" s="3" t="n">
         <v>45670</v>
       </c>
       <c r="B43" t="inlineStr">
@@ -2002,7 +2002,7 @@
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="2" t="n">
+      <c r="A44" s="3" t="n">
         <v>45670</v>
       </c>
       <c r="B44" t="inlineStr">
@@ -2038,7 +2038,7 @@
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="2" t="n">
+      <c r="A45" s="3" t="n">
         <v>45670</v>
       </c>
       <c r="B45" t="inlineStr">
@@ -2074,7 +2074,7 @@
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="2" t="n">
+      <c r="A46" s="3" t="n">
         <v>45670</v>
       </c>
       <c r="B46" t="inlineStr">
@@ -2110,7 +2110,7 @@
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="2" t="n">
+      <c r="A47" s="3" t="n">
         <v>45670</v>
       </c>
       <c r="B47" t="inlineStr">
@@ -2146,7 +2146,7 @@
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="2" t="n">
+      <c r="A48" s="3" t="n">
         <v>45670</v>
       </c>
       <c r="B48" t="inlineStr">
@@ -2182,7 +2182,7 @@
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="2" t="n">
+      <c r="A49" s="3" t="n">
         <v>45670</v>
       </c>
       <c r="B49" t="inlineStr">
@@ -2218,7 +2218,7 @@
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="2" t="n">
+      <c r="A50" s="3" t="n">
         <v>45670</v>
       </c>
       <c r="B50" t="inlineStr">
@@ -2254,7 +2254,7 @@
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="2" t="n">
+      <c r="A51" s="3" t="n">
         <v>45670</v>
       </c>
       <c r="B51" t="inlineStr">
@@ -2290,7 +2290,7 @@
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="2" t="n">
+      <c r="A52" s="3" t="n">
         <v>45670</v>
       </c>
       <c r="B52" t="inlineStr">
@@ -2326,7 +2326,7 @@
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="2" t="n">
+      <c r="A53" s="3" t="n">
         <v>45670</v>
       </c>
       <c r="B53" t="inlineStr">
@@ -2362,7 +2362,7 @@
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="2" t="n">
+      <c r="A54" s="3" t="n">
         <v>45670</v>
       </c>
       <c r="B54" t="inlineStr">
@@ -2398,7 +2398,7 @@
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="2" t="n">
+      <c r="A55" s="3" t="n">
         <v>45670</v>
       </c>
       <c r="B55" t="inlineStr">
@@ -2434,7 +2434,7 @@
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="2" t="n">
+      <c r="A56" s="3" t="n">
         <v>45670</v>
       </c>
       <c r="B56" t="inlineStr">
@@ -2470,7 +2470,7 @@
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="2" t="n">
+      <c r="A57" s="3" t="n">
         <v>45670</v>
       </c>
       <c r="B57" t="inlineStr">
@@ -2506,7 +2506,7 @@
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="2" t="n">
+      <c r="A58" s="3" t="n">
         <v>45670</v>
       </c>
       <c r="B58" t="inlineStr">
@@ -2542,7 +2542,7 @@
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="2" t="n">
+      <c r="A59" s="3" t="n">
         <v>45670</v>
       </c>
       <c r="B59" t="inlineStr">
@@ -2578,7 +2578,7 @@
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="2" t="n">
+      <c r="A60" s="3" t="n">
         <v>45671</v>
       </c>
       <c r="B60" t="inlineStr">
@@ -2614,7 +2614,7 @@
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="2" t="n">
+      <c r="A61" s="3" t="n">
         <v>45671</v>
       </c>
       <c r="B61" t="inlineStr">
@@ -2650,7 +2650,7 @@
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="2" t="n">
+      <c r="A62" s="3" t="n">
         <v>45671</v>
       </c>
       <c r="B62" t="inlineStr">
@@ -2686,7 +2686,7 @@
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="2" t="n">
+      <c r="A63" s="3" t="n">
         <v>45671</v>
       </c>
       <c r="B63" t="inlineStr">
@@ -2722,7 +2722,7 @@
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="2" t="n">
+      <c r="A64" s="3" t="n">
         <v>45671</v>
       </c>
       <c r="B64" t="inlineStr">
@@ -2758,7 +2758,7 @@
       </c>
     </row>
     <row r="65">
-      <c r="A65" s="2" t="n">
+      <c r="A65" s="3" t="n">
         <v>45671</v>
       </c>
       <c r="B65" t="inlineStr">
@@ -2794,7 +2794,7 @@
       </c>
     </row>
     <row r="66">
-      <c r="A66" s="2" t="n">
+      <c r="A66" s="3" t="n">
         <v>45671</v>
       </c>
       <c r="B66" t="inlineStr">
@@ -2830,7 +2830,7 @@
       </c>
     </row>
     <row r="67">
-      <c r="A67" s="2" t="n">
+      <c r="A67" s="3" t="n">
         <v>45671</v>
       </c>
       <c r="B67" t="inlineStr">
@@ -2866,7 +2866,7 @@
       </c>
     </row>
     <row r="68">
-      <c r="A68" s="2" t="n">
+      <c r="A68" s="3" t="n">
         <v>45671</v>
       </c>
       <c r="B68" t="inlineStr">
@@ -2902,7 +2902,7 @@
       </c>
     </row>
     <row r="69">
-      <c r="A69" s="2" t="n">
+      <c r="A69" s="3" t="n">
         <v>45671</v>
       </c>
       <c r="B69" t="inlineStr">
@@ -2938,7 +2938,7 @@
       </c>
     </row>
     <row r="70">
-      <c r="A70" s="2" t="n">
+      <c r="A70" s="3" t="n">
         <v>45671</v>
       </c>
       <c r="B70" t="inlineStr">
@@ -2974,7 +2974,7 @@
       </c>
     </row>
     <row r="71">
-      <c r="A71" s="2" t="n">
+      <c r="A71" s="3" t="n">
         <v>45671</v>
       </c>
       <c r="B71" t="inlineStr">
@@ -3010,7 +3010,7 @@
       </c>
     </row>
     <row r="72">
-      <c r="A72" s="2" t="n">
+      <c r="A72" s="3" t="n">
         <v>45673</v>
       </c>
       <c r="B72" t="inlineStr">
@@ -3046,7 +3046,7 @@
       </c>
     </row>
     <row r="73">
-      <c r="A73" s="2" t="n">
+      <c r="A73" s="3" t="n">
         <v>45673</v>
       </c>
       <c r="B73" t="inlineStr">
@@ -3082,7 +3082,7 @@
       </c>
     </row>
     <row r="74">
-      <c r="A74" s="2" t="n">
+      <c r="A74" s="3" t="n">
         <v>45674</v>
       </c>
       <c r="B74" t="inlineStr">
@@ -3118,7 +3118,7 @@
       </c>
     </row>
     <row r="75">
-      <c r="A75" s="2" t="n">
+      <c r="A75" s="3" t="n">
         <v>45674</v>
       </c>
       <c r="B75" t="inlineStr">
@@ -3154,7 +3154,7 @@
       </c>
     </row>
     <row r="76">
-      <c r="A76" s="2" t="n">
+      <c r="A76" s="3" t="n">
         <v>45674</v>
       </c>
       <c r="B76" t="inlineStr">
@@ -3190,7 +3190,7 @@
       </c>
     </row>
     <row r="77">
-      <c r="A77" s="2" t="n">
+      <c r="A77" s="3" t="n">
         <v>45674</v>
       </c>
       <c r="B77" t="inlineStr">
@@ -3226,7 +3226,7 @@
       </c>
     </row>
     <row r="78">
-      <c r="A78" s="2" t="n">
+      <c r="A78" s="3" t="n">
         <v>45674</v>
       </c>
       <c r="B78" t="inlineStr">
@@ -3262,7 +3262,7 @@
       </c>
     </row>
     <row r="79">
-      <c r="A79" s="2" t="n">
+      <c r="A79" s="3" t="n">
         <v>45674</v>
       </c>
       <c r="B79" t="inlineStr">
@@ -3298,7 +3298,7 @@
       </c>
     </row>
     <row r="80">
-      <c r="A80" s="2" t="n">
+      <c r="A80" s="3" t="n">
         <v>45677</v>
       </c>
       <c r="B80" t="inlineStr">
@@ -3334,7 +3334,7 @@
       </c>
     </row>
     <row r="81">
-      <c r="A81" s="2" t="n">
+      <c r="A81" s="3" t="n">
         <v>45677</v>
       </c>
       <c r="B81" t="inlineStr">
@@ -3370,7 +3370,7 @@
       </c>
     </row>
     <row r="82">
-      <c r="A82" s="2" t="n">
+      <c r="A82" s="3" t="n">
         <v>45677</v>
       </c>
       <c r="B82" t="inlineStr">
@@ -3406,7 +3406,7 @@
       </c>
     </row>
     <row r="83">
-      <c r="A83" s="2" t="n">
+      <c r="A83" s="3" t="n">
         <v>45677</v>
       </c>
       <c r="B83" t="inlineStr">
@@ -3442,7 +3442,7 @@
       </c>
     </row>
     <row r="84">
-      <c r="A84" s="2" t="n">
+      <c r="A84" s="3" t="n">
         <v>45677</v>
       </c>
       <c r="B84" t="inlineStr">
@@ -3478,7 +3478,7 @@
       </c>
     </row>
     <row r="85">
-      <c r="A85" s="2" t="n">
+      <c r="A85" s="3" t="n">
         <v>45677</v>
       </c>
       <c r="B85" t="inlineStr">
@@ -3514,7 +3514,7 @@
       </c>
     </row>
     <row r="86">
-      <c r="A86" s="2" t="n">
+      <c r="A86" s="3" t="n">
         <v>45677</v>
       </c>
       <c r="B86" t="inlineStr">
@@ -3550,7 +3550,7 @@
       </c>
     </row>
     <row r="87">
-      <c r="A87" s="2" t="n">
+      <c r="A87" s="3" t="n">
         <v>45677</v>
       </c>
       <c r="B87" t="inlineStr">
@@ -3586,7 +3586,7 @@
       </c>
     </row>
     <row r="88">
-      <c r="A88" s="2" t="n">
+      <c r="A88" s="3" t="n">
         <v>45677</v>
       </c>
       <c r="B88" t="inlineStr">
@@ -3622,7 +3622,7 @@
       </c>
     </row>
     <row r="89">
-      <c r="A89" s="2" t="n">
+      <c r="A89" s="3" t="n">
         <v>45677</v>
       </c>
       <c r="B89" t="inlineStr">
@@ -3658,7 +3658,7 @@
       </c>
     </row>
     <row r="90">
-      <c r="A90" s="2" t="n">
+      <c r="A90" s="3" t="n">
         <v>45677</v>
       </c>
       <c r="B90" t="inlineStr">
@@ -3694,7 +3694,7 @@
       </c>
     </row>
     <row r="91">
-      <c r="A91" s="2" t="n">
+      <c r="A91" s="3" t="n">
         <v>45677</v>
       </c>
       <c r="B91" t="inlineStr">
@@ -3730,7 +3730,7 @@
       </c>
     </row>
     <row r="92">
-      <c r="A92" s="2" t="n">
+      <c r="A92" s="3" t="n">
         <v>45677</v>
       </c>
       <c r="B92" t="inlineStr">
@@ -3766,7 +3766,7 @@
       </c>
     </row>
     <row r="93">
-      <c r="A93" s="2" t="n">
+      <c r="A93" s="3" t="n">
         <v>45677</v>
       </c>
       <c r="B93" t="inlineStr">
@@ -3802,7 +3802,7 @@
       </c>
     </row>
     <row r="94">
-      <c r="A94" s="2" t="n">
+      <c r="A94" s="3" t="n">
         <v>45677</v>
       </c>
       <c r="B94" t="inlineStr">
@@ -3838,7 +3838,7 @@
       </c>
     </row>
     <row r="95">
-      <c r="A95" s="2" t="n">
+      <c r="A95" s="3" t="n">
         <v>45678</v>
       </c>
       <c r="B95" t="inlineStr">
@@ -3874,7 +3874,7 @@
       </c>
     </row>
     <row r="96">
-      <c r="A96" s="2" t="n">
+      <c r="A96" s="3" t="n">
         <v>45678</v>
       </c>
       <c r="B96" t="inlineStr">
@@ -3910,7 +3910,7 @@
       </c>
     </row>
     <row r="97">
-      <c r="A97" s="2" t="n">
+      <c r="A97" s="3" t="n">
         <v>45678</v>
       </c>
       <c r="B97" t="inlineStr">
@@ -3946,7 +3946,7 @@
       </c>
     </row>
     <row r="98">
-      <c r="A98" s="2" t="n">
+      <c r="A98" s="3" t="n">
         <v>45679</v>
       </c>
       <c r="B98" t="inlineStr">
@@ -3982,7 +3982,7 @@
       </c>
     </row>
     <row r="99">
-      <c r="A99" s="2" t="n">
+      <c r="A99" s="3" t="n">
         <v>45679</v>
       </c>
       <c r="B99" t="inlineStr">
@@ -4018,7 +4018,7 @@
       </c>
     </row>
     <row r="100">
-      <c r="A100" s="2" t="n">
+      <c r="A100" s="3" t="n">
         <v>45680</v>
       </c>
       <c r="B100" t="inlineStr">
@@ -4054,7 +4054,7 @@
       </c>
     </row>
     <row r="101">
-      <c r="A101" s="2" t="n">
+      <c r="A101" s="3" t="n">
         <v>45680</v>
       </c>
       <c r="B101" t="inlineStr">
@@ -4090,7 +4090,7 @@
       </c>
     </row>
     <row r="102">
-      <c r="A102" s="2" t="n">
+      <c r="A102" s="3" t="n">
         <v>45680</v>
       </c>
       <c r="B102" t="inlineStr">
@@ -4126,7 +4126,7 @@
       </c>
     </row>
     <row r="103">
-      <c r="A103" s="2" t="n">
+      <c r="A103" s="3" t="n">
         <v>45681</v>
       </c>
       <c r="B103" t="inlineStr">
@@ -4162,7 +4162,7 @@
       </c>
     </row>
     <row r="104">
-      <c r="A104" s="2" t="n">
+      <c r="A104" s="3" t="n">
         <v>45681</v>
       </c>
       <c r="B104" t="inlineStr">
@@ -4198,7 +4198,7 @@
       </c>
     </row>
     <row r="105">
-      <c r="A105" s="2" t="n">
+      <c r="A105" s="3" t="n">
         <v>45684</v>
       </c>
       <c r="B105" t="inlineStr">
@@ -4234,7 +4234,7 @@
       </c>
     </row>
     <row r="106">
-      <c r="A106" s="2" t="n">
+      <c r="A106" s="3" t="n">
         <v>45684</v>
       </c>
       <c r="B106" t="inlineStr">
@@ -4270,7 +4270,7 @@
       </c>
     </row>
     <row r="107">
-      <c r="A107" s="2" t="n">
+      <c r="A107" s="3" t="n">
         <v>45684</v>
       </c>
       <c r="B107" t="inlineStr">
@@ -4306,7 +4306,7 @@
       </c>
     </row>
     <row r="108">
-      <c r="A108" s="2" t="n">
+      <c r="A108" s="3" t="n">
         <v>45684</v>
       </c>
       <c r="B108" t="inlineStr">
@@ -4342,7 +4342,7 @@
       </c>
     </row>
     <row r="109">
-      <c r="A109" s="2" t="n">
+      <c r="A109" s="3" t="n">
         <v>45684</v>
       </c>
       <c r="B109" t="inlineStr">
@@ -4378,7 +4378,7 @@
       </c>
     </row>
     <row r="110">
-      <c r="A110" s="2" t="n">
+      <c r="A110" s="3" t="n">
         <v>45684</v>
       </c>
       <c r="B110" t="inlineStr">
@@ -4414,7 +4414,7 @@
       </c>
     </row>
     <row r="111">
-      <c r="A111" s="2" t="n">
+      <c r="A111" s="3" t="n">
         <v>45684</v>
       </c>
       <c r="B111" t="inlineStr">
@@ -4450,7 +4450,7 @@
       </c>
     </row>
     <row r="112">
-      <c r="A112" s="2" t="n">
+      <c r="A112" s="3" t="n">
         <v>45684</v>
       </c>
       <c r="B112" t="inlineStr">
@@ -4486,7 +4486,7 @@
       </c>
     </row>
     <row r="113">
-      <c r="A113" s="2" t="n">
+      <c r="A113" s="3" t="n">
         <v>45684</v>
       </c>
       <c r="B113" t="inlineStr">
@@ -4522,7 +4522,7 @@
       </c>
     </row>
     <row r="114">
-      <c r="A114" s="2" t="n">
+      <c r="A114" s="3" t="n">
         <v>45684</v>
       </c>
       <c r="B114" t="inlineStr">
@@ -4558,7 +4558,7 @@
       </c>
     </row>
     <row r="115">
-      <c r="A115" s="2" t="n">
+      <c r="A115" s="3" t="n">
         <v>45684</v>
       </c>
       <c r="B115" t="inlineStr">
@@ -4594,7 +4594,7 @@
       </c>
     </row>
     <row r="116">
-      <c r="A116" s="2" t="n">
+      <c r="A116" s="3" t="n">
         <v>45684</v>
       </c>
       <c r="B116" t="inlineStr">
@@ -4630,7 +4630,7 @@
       </c>
     </row>
     <row r="117">
-      <c r="A117" s="2" t="n">
+      <c r="A117" s="3" t="n">
         <v>45684</v>
       </c>
       <c r="B117" t="inlineStr">
@@ -4666,7 +4666,7 @@
       </c>
     </row>
     <row r="118">
-      <c r="A118" s="2" t="n">
+      <c r="A118" s="3" t="n">
         <v>45684</v>
       </c>
       <c r="B118" t="inlineStr">
@@ -4702,7 +4702,7 @@
       </c>
     </row>
     <row r="119">
-      <c r="A119" s="2" t="n">
+      <c r="A119" s="3" t="n">
         <v>45684</v>
       </c>
       <c r="B119" t="inlineStr">
@@ -4738,7 +4738,7 @@
       </c>
     </row>
     <row r="120">
-      <c r="A120" s="2" t="n">
+      <c r="A120" s="3" t="n">
         <v>45684</v>
       </c>
       <c r="B120" t="inlineStr">
@@ -4774,7 +4774,7 @@
       </c>
     </row>
     <row r="121">
-      <c r="A121" s="2" t="n">
+      <c r="A121" s="3" t="n">
         <v>45685</v>
       </c>
       <c r="B121" t="inlineStr">
@@ -4810,7 +4810,7 @@
       </c>
     </row>
     <row r="122">
-      <c r="A122" s="2" t="n">
+      <c r="A122" s="3" t="n">
         <v>45686</v>
       </c>
       <c r="B122" t="inlineStr">
@@ -4846,7 +4846,7 @@
       </c>
     </row>
     <row r="123">
-      <c r="A123" s="2" t="n">
+      <c r="A123" s="3" t="n">
         <v>45686</v>
       </c>
       <c r="B123" t="inlineStr">
@@ -4882,7 +4882,7 @@
       </c>
     </row>
     <row r="124">
-      <c r="A124" s="2" t="n">
+      <c r="A124" s="3" t="n">
         <v>45687</v>
       </c>
       <c r="B124" t="inlineStr">
@@ -4918,7 +4918,7 @@
       </c>
     </row>
     <row r="125">
-      <c r="A125" s="2" t="n">
+      <c r="A125" s="3" t="n">
         <v>45687</v>
       </c>
       <c r="B125" t="inlineStr">
@@ -4954,7 +4954,7 @@
       </c>
     </row>
     <row r="126">
-      <c r="A126" s="2" t="n">
+      <c r="A126" s="3" t="n">
         <v>45687</v>
       </c>
       <c r="B126" t="inlineStr">
@@ -4990,7 +4990,7 @@
       </c>
     </row>
     <row r="127">
-      <c r="A127" s="2" t="n">
+      <c r="A127" s="3" t="n">
         <v>45688</v>
       </c>
       <c r="B127" t="inlineStr">
@@ -5026,7 +5026,7 @@
       </c>
     </row>
     <row r="128">
-      <c r="A128" s="2" t="n">
+      <c r="A128" s="3" t="n">
         <v>45691</v>
       </c>
       <c r="B128" t="inlineStr">
@@ -5062,7 +5062,7 @@
       </c>
     </row>
     <row r="129">
-      <c r="A129" s="2" t="n">
+      <c r="A129" s="3" t="n">
         <v>45691</v>
       </c>
       <c r="B129" t="inlineStr">
@@ -5098,7 +5098,7 @@
       </c>
     </row>
     <row r="130">
-      <c r="A130" s="2" t="n">
+      <c r="A130" s="3" t="n">
         <v>45691</v>
       </c>
       <c r="B130" t="inlineStr">
@@ -5134,7 +5134,7 @@
       </c>
     </row>
     <row r="131">
-      <c r="A131" s="2" t="n">
+      <c r="A131" s="3" t="n">
         <v>45691</v>
       </c>
       <c r="B131" t="inlineStr">
@@ -5170,7 +5170,7 @@
       </c>
     </row>
     <row r="132">
-      <c r="A132" s="2" t="n">
+      <c r="A132" s="3" t="n">
         <v>45691</v>
       </c>
       <c r="B132" t="inlineStr">
@@ -5206,7 +5206,7 @@
       </c>
     </row>
     <row r="133">
-      <c r="A133" s="2" t="n">
+      <c r="A133" s="3" t="n">
         <v>45691</v>
       </c>
       <c r="B133" t="inlineStr">
@@ -5242,7 +5242,7 @@
       </c>
     </row>
     <row r="134">
-      <c r="A134" s="2" t="n">
+      <c r="A134" s="3" t="n">
         <v>45691</v>
       </c>
       <c r="B134" t="inlineStr">
@@ -5278,7 +5278,7 @@
       </c>
     </row>
     <row r="135">
-      <c r="A135" s="2" t="n">
+      <c r="A135" s="3" t="n">
         <v>45691</v>
       </c>
       <c r="B135" t="inlineStr">
@@ -5314,7 +5314,7 @@
       </c>
     </row>
     <row r="136">
-      <c r="A136" s="2" t="n">
+      <c r="A136" s="3" t="n">
         <v>45691</v>
       </c>
       <c r="B136" t="inlineStr">
@@ -5350,7 +5350,7 @@
       </c>
     </row>
     <row r="137">
-      <c r="A137" s="2" t="n">
+      <c r="A137" s="3" t="n">
         <v>45691</v>
       </c>
       <c r="B137" t="inlineStr">
@@ -5386,7 +5386,7 @@
       </c>
     </row>
     <row r="138">
-      <c r="A138" s="2" t="n">
+      <c r="A138" s="3" t="n">
         <v>45691</v>
       </c>
       <c r="B138" t="inlineStr">
@@ -5422,7 +5422,7 @@
       </c>
     </row>
     <row r="139">
-      <c r="A139" s="2" t="n">
+      <c r="A139" s="3" t="n">
         <v>45691</v>
       </c>
       <c r="B139" t="inlineStr">
@@ -5458,7 +5458,7 @@
       </c>
     </row>
     <row r="140">
-      <c r="A140" s="2" t="n">
+      <c r="A140" s="3" t="n">
         <v>45691</v>
       </c>
       <c r="B140" t="inlineStr">
@@ -5494,7 +5494,7 @@
       </c>
     </row>
     <row r="141">
-      <c r="A141" s="2" t="n">
+      <c r="A141" s="3" t="n">
         <v>45691</v>
       </c>
       <c r="B141" t="inlineStr">
@@ -5530,7 +5530,7 @@
       </c>
     </row>
     <row r="142">
-      <c r="A142" s="2" t="n">
+      <c r="A142" s="3" t="n">
         <v>45691</v>
       </c>
       <c r="B142" t="inlineStr">
@@ -5566,7 +5566,7 @@
       </c>
     </row>
     <row r="143">
-      <c r="A143" s="2" t="n">
+      <c r="A143" s="3" t="n">
         <v>45691</v>
       </c>
       <c r="B143" t="inlineStr">
@@ -5602,7 +5602,7 @@
       </c>
     </row>
     <row r="144">
-      <c r="A144" s="2" t="n">
+      <c r="A144" s="3" t="n">
         <v>45691</v>
       </c>
       <c r="B144" t="inlineStr">
@@ -5638,7 +5638,7 @@
       </c>
     </row>
     <row r="145">
-      <c r="A145" s="2" t="n">
+      <c r="A145" s="3" t="n">
         <v>45691</v>
       </c>
       <c r="B145" t="inlineStr">
@@ -5674,7 +5674,7 @@
       </c>
     </row>
     <row r="146">
-      <c r="A146" s="2" t="n">
+      <c r="A146" s="3" t="n">
         <v>45691</v>
       </c>
       <c r="B146" t="inlineStr">
@@ -5710,7 +5710,7 @@
       </c>
     </row>
     <row r="147">
-      <c r="A147" s="2" t="n">
+      <c r="A147" s="3" t="n">
         <v>45691</v>
       </c>
       <c r="B147" t="inlineStr">
@@ -5746,7 +5746,7 @@
       </c>
     </row>
     <row r="148">
-      <c r="A148" s="2" t="n">
+      <c r="A148" s="3" t="n">
         <v>45692</v>
       </c>
       <c r="B148" t="inlineStr">
@@ -5782,7 +5782,7 @@
       </c>
     </row>
     <row r="149">
-      <c r="A149" s="2" t="n">
+      <c r="A149" s="3" t="n">
         <v>45692</v>
       </c>
       <c r="B149" t="inlineStr">
@@ -5818,7 +5818,7 @@
       </c>
     </row>
     <row r="150">
-      <c r="A150" s="2" t="n">
+      <c r="A150" s="3" t="n">
         <v>45692</v>
       </c>
       <c r="B150" t="inlineStr">
@@ -5854,7 +5854,7 @@
       </c>
     </row>
     <row r="151">
-      <c r="A151" s="2" t="n">
+      <c r="A151" s="3" t="n">
         <v>45693</v>
       </c>
       <c r="B151" t="inlineStr">
@@ -5890,7 +5890,7 @@
       </c>
     </row>
     <row r="152">
-      <c r="A152" s="2" t="n">
+      <c r="A152" s="3" t="n">
         <v>45693</v>
       </c>
       <c r="B152" t="inlineStr">
@@ -5926,7 +5926,7 @@
       </c>
     </row>
     <row r="153">
-      <c r="A153" s="2" t="n">
+      <c r="A153" s="3" t="n">
         <v>45693</v>
       </c>
       <c r="B153" t="inlineStr">
@@ -5962,7 +5962,7 @@
       </c>
     </row>
     <row r="154">
-      <c r="A154" s="2" t="n">
+      <c r="A154" s="3" t="n">
         <v>45693</v>
       </c>
       <c r="B154" t="inlineStr">
@@ -5998,7 +5998,7 @@
       </c>
     </row>
     <row r="155">
-      <c r="A155" s="2" t="n">
+      <c r="A155" s="3" t="n">
         <v>45693</v>
       </c>
       <c r="B155" t="inlineStr">
@@ -6034,7 +6034,7 @@
       </c>
     </row>
     <row r="156">
-      <c r="A156" s="2" t="n">
+      <c r="A156" s="3" t="n">
         <v>45693</v>
       </c>
       <c r="B156" t="inlineStr">
@@ -6070,7 +6070,7 @@
       </c>
     </row>
     <row r="157">
-      <c r="A157" s="2" t="n">
+      <c r="A157" s="3" t="n">
         <v>45693</v>
       </c>
       <c r="B157" t="inlineStr">
@@ -6106,7 +6106,7 @@
       </c>
     </row>
     <row r="158">
-      <c r="A158" s="2" t="n">
+      <c r="A158" s="3" t="n">
         <v>45693</v>
       </c>
       <c r="B158" t="inlineStr">
@@ -6142,7 +6142,7 @@
       </c>
     </row>
     <row r="159">
-      <c r="A159" s="2" t="n">
+      <c r="A159" s="3" t="n">
         <v>45693</v>
       </c>
       <c r="B159" t="inlineStr">
@@ -6178,7 +6178,7 @@
       </c>
     </row>
     <row r="160">
-      <c r="A160" s="2" t="n">
+      <c r="A160" s="3" t="n">
         <v>45693</v>
       </c>
       <c r="B160" t="inlineStr">
@@ -6214,7 +6214,7 @@
       </c>
     </row>
     <row r="161">
-      <c r="A161" s="2" t="n">
+      <c r="A161" s="3" t="n">
         <v>45694</v>
       </c>
       <c r="B161" t="inlineStr">
@@ -6250,7 +6250,7 @@
       </c>
     </row>
     <row r="162">
-      <c r="A162" s="2" t="n">
+      <c r="A162" s="3" t="n">
         <v>45694</v>
       </c>
       <c r="B162" t="inlineStr">
@@ -6286,7 +6286,7 @@
       </c>
     </row>
     <row r="163">
-      <c r="A163" s="2" t="n">
+      <c r="A163" s="3" t="n">
         <v>45694</v>
       </c>
       <c r="B163" t="inlineStr">
@@ -6322,7 +6322,7 @@
       </c>
     </row>
     <row r="164">
-      <c r="A164" s="2" t="n">
+      <c r="A164" s="3" t="n">
         <v>45694</v>
       </c>
       <c r="B164" t="inlineStr">
@@ -6358,7 +6358,7 @@
       </c>
     </row>
     <row r="165">
-      <c r="A165" s="2" t="n">
+      <c r="A165" s="3" t="n">
         <v>45694</v>
       </c>
       <c r="B165" t="inlineStr">
@@ -6394,7 +6394,7 @@
       </c>
     </row>
     <row r="166">
-      <c r="A166" s="2" t="n">
+      <c r="A166" s="3" t="n">
         <v>45694</v>
       </c>
       <c r="B166" t="inlineStr">
@@ -6430,7 +6430,7 @@
       </c>
     </row>
     <row r="167">
-      <c r="A167" s="2" t="n">
+      <c r="A167" s="3" t="n">
         <v>45694</v>
       </c>
       <c r="B167" t="inlineStr">
@@ -6466,7 +6466,7 @@
       </c>
     </row>
     <row r="168">
-      <c r="A168" s="2" t="n">
+      <c r="A168" s="3" t="n">
         <v>45694</v>
       </c>
       <c r="B168" t="inlineStr">
@@ -6502,7 +6502,7 @@
       </c>
     </row>
     <row r="169">
-      <c r="A169" s="2" t="n">
+      <c r="A169" s="3" t="n">
         <v>45698</v>
       </c>
       <c r="B169" t="inlineStr">
@@ -6538,7 +6538,7 @@
       </c>
     </row>
     <row r="170">
-      <c r="A170" s="2" t="n">
+      <c r="A170" s="3" t="n">
         <v>45698</v>
       </c>
       <c r="B170" t="inlineStr">
@@ -6574,7 +6574,7 @@
       </c>
     </row>
     <row r="171">
-      <c r="A171" s="2" t="n">
+      <c r="A171" s="3" t="n">
         <v>45698</v>
       </c>
       <c r="B171" t="inlineStr">
@@ -6610,7 +6610,7 @@
       </c>
     </row>
     <row r="172">
-      <c r="A172" s="2" t="n">
+      <c r="A172" s="3" t="n">
         <v>45698</v>
       </c>
       <c r="B172" t="inlineStr">
@@ -6646,7 +6646,7 @@
       </c>
     </row>
     <row r="173">
-      <c r="A173" s="2" t="n">
+      <c r="A173" s="3" t="n">
         <v>45698</v>
       </c>
       <c r="B173" t="inlineStr">
@@ -6682,7 +6682,7 @@
       </c>
     </row>
     <row r="174">
-      <c r="A174" s="2" t="n">
+      <c r="A174" s="3" t="n">
         <v>45698</v>
       </c>
       <c r="B174" t="inlineStr">
@@ -6718,7 +6718,7 @@
       </c>
     </row>
     <row r="175">
-      <c r="A175" s="2" t="n">
+      <c r="A175" s="3" t="n">
         <v>45698</v>
       </c>
       <c r="B175" t="inlineStr">
@@ -6754,7 +6754,7 @@
       </c>
     </row>
     <row r="176">
-      <c r="A176" s="2" t="n">
+      <c r="A176" s="3" t="n">
         <v>45698</v>
       </c>
       <c r="B176" t="inlineStr">
@@ -6790,7 +6790,7 @@
       </c>
     </row>
     <row r="177">
-      <c r="A177" s="2" t="n">
+      <c r="A177" s="3" t="n">
         <v>45698</v>
       </c>
       <c r="B177" t="inlineStr">
@@ -6826,7 +6826,7 @@
       </c>
     </row>
     <row r="178">
-      <c r="A178" s="2" t="n">
+      <c r="A178" s="3" t="n">
         <v>45699</v>
       </c>
       <c r="B178" t="inlineStr">
@@ -6862,7 +6862,7 @@
       </c>
     </row>
     <row r="179">
-      <c r="A179" s="2" t="n">
+      <c r="A179" s="3" t="n">
         <v>45699</v>
       </c>
       <c r="B179" t="inlineStr">
@@ -6898,7 +6898,7 @@
       </c>
     </row>
     <row r="180">
-      <c r="A180" s="2" t="n">
+      <c r="A180" s="3" t="n">
         <v>45699</v>
       </c>
       <c r="B180" t="inlineStr">
@@ -6934,7 +6934,7 @@
       </c>
     </row>
     <row r="181">
-      <c r="A181" s="2" t="n">
+      <c r="A181" s="3" t="n">
         <v>45700</v>
       </c>
       <c r="B181" t="inlineStr">
@@ -6970,7 +6970,7 @@
       </c>
     </row>
     <row r="182">
-      <c r="A182" s="2" t="n">
+      <c r="A182" s="3" t="n">
         <v>45701</v>
       </c>
       <c r="B182" t="inlineStr">
@@ -7006,7 +7006,7 @@
       </c>
     </row>
     <row r="183">
-      <c r="A183" s="2" t="n">
+      <c r="A183" s="3" t="n">
         <v>45701</v>
       </c>
       <c r="B183" t="inlineStr">
@@ -7042,7 +7042,7 @@
       </c>
     </row>
     <row r="184">
-      <c r="A184" s="2" t="n">
+      <c r="A184" s="3" t="n">
         <v>45701</v>
       </c>
       <c r="B184" t="inlineStr">
@@ -7078,7 +7078,7 @@
       </c>
     </row>
     <row r="185">
-      <c r="A185" s="2" t="n">
+      <c r="A185" s="3" t="n">
         <v>45702</v>
       </c>
       <c r="B185" t="inlineStr">
@@ -7114,7 +7114,7 @@
       </c>
     </row>
     <row r="186">
-      <c r="A186" s="2" t="n">
+      <c r="A186" s="3" t="n">
         <v>45702</v>
       </c>
       <c r="B186" t="inlineStr">
@@ -7150,7 +7150,7 @@
       </c>
     </row>
     <row r="187">
-      <c r="A187" s="2" t="n">
+      <c r="A187" s="3" t="n">
         <v>45705</v>
       </c>
       <c r="B187" t="inlineStr">
@@ -7186,7 +7186,7 @@
       </c>
     </row>
     <row r="188">
-      <c r="A188" s="2" t="n">
+      <c r="A188" s="3" t="n">
         <v>45705</v>
       </c>
       <c r="B188" t="inlineStr">
@@ -7222,7 +7222,7 @@
       </c>
     </row>
     <row r="189">
-      <c r="A189" s="2" t="n">
+      <c r="A189" s="3" t="n">
         <v>45705</v>
       </c>
       <c r="B189" t="inlineStr">
@@ -7258,7 +7258,7 @@
       </c>
     </row>
     <row r="190">
-      <c r="A190" s="2" t="n">
+      <c r="A190" s="3" t="n">
         <v>45705</v>
       </c>
       <c r="B190" t="inlineStr">
@@ -7294,7 +7294,7 @@
       </c>
     </row>
     <row r="191">
-      <c r="A191" s="2" t="n">
+      <c r="A191" s="3" t="n">
         <v>45705</v>
       </c>
       <c r="B191" t="inlineStr">
@@ -7330,7 +7330,7 @@
       </c>
     </row>
     <row r="192">
-      <c r="A192" s="2" t="n">
+      <c r="A192" s="3" t="n">
         <v>45705</v>
       </c>
       <c r="B192" t="inlineStr">
@@ -7366,7 +7366,7 @@
       </c>
     </row>
     <row r="193">
-      <c r="A193" s="2" t="n">
+      <c r="A193" s="3" t="n">
         <v>45705</v>
       </c>
       <c r="B193" t="inlineStr">
@@ -7402,7 +7402,7 @@
       </c>
     </row>
     <row r="194">
-      <c r="A194" s="2" t="n">
+      <c r="A194" s="3" t="n">
         <v>45705</v>
       </c>
       <c r="B194" t="inlineStr">
@@ -7438,7 +7438,7 @@
       </c>
     </row>
     <row r="195">
-      <c r="A195" s="2" t="n">
+      <c r="A195" s="3" t="n">
         <v>45706</v>
       </c>
       <c r="B195" t="inlineStr">
@@ -7474,7 +7474,7 @@
       </c>
     </row>
     <row r="196">
-      <c r="A196" s="2" t="n">
+      <c r="A196" s="3" t="n">
         <v>45707</v>
       </c>
       <c r="B196" t="inlineStr">
@@ -7510,7 +7510,7 @@
       </c>
     </row>
     <row r="197">
-      <c r="A197" s="2" t="n">
+      <c r="A197" s="3" t="n">
         <v>45707</v>
       </c>
       <c r="B197" t="inlineStr">
@@ -7546,7 +7546,7 @@
       </c>
     </row>
     <row r="198">
-      <c r="A198" s="2" t="n">
+      <c r="A198" s="3" t="n">
         <v>45708</v>
       </c>
       <c r="B198" t="inlineStr">
@@ -7582,7 +7582,7 @@
       </c>
     </row>
     <row r="199">
-      <c r="A199" s="2" t="n">
+      <c r="A199" s="3" t="n">
         <v>45708</v>
       </c>
       <c r="B199" t="inlineStr">
@@ -7618,7 +7618,7 @@
       </c>
     </row>
     <row r="200">
-      <c r="A200" s="2" t="n">
+      <c r="A200" s="3" t="n">
         <v>45709</v>
       </c>
       <c r="B200" t="inlineStr">
@@ -7654,7 +7654,7 @@
       </c>
     </row>
     <row r="201">
-      <c r="A201" s="2" t="n">
+      <c r="A201" s="3" t="n">
         <v>45712</v>
       </c>
       <c r="B201" t="inlineStr">
@@ -7690,7 +7690,7 @@
       </c>
     </row>
     <row r="202">
-      <c r="A202" s="2" t="n">
+      <c r="A202" s="3" t="n">
         <v>45712</v>
       </c>
       <c r="B202" t="inlineStr">
@@ -7726,7 +7726,7 @@
       </c>
     </row>
     <row r="203">
-      <c r="A203" s="2" t="n">
+      <c r="A203" s="3" t="n">
         <v>45714</v>
       </c>
       <c r="B203" t="inlineStr">
@@ -7762,7 +7762,7 @@
       </c>
     </row>
     <row r="204">
-      <c r="A204" s="2" t="n">
+      <c r="A204" s="3" t="n">
         <v>45714</v>
       </c>
       <c r="B204" t="inlineStr">
@@ -7798,7 +7798,7 @@
       </c>
     </row>
     <row r="205">
-      <c r="A205" s="2" t="n">
+      <c r="A205" s="3" t="n">
         <v>45715</v>
       </c>
       <c r="B205" t="inlineStr">
@@ -7834,7 +7834,7 @@
       </c>
     </row>
     <row r="206">
-      <c r="A206" s="2" t="n">
+      <c r="A206" s="3" t="n">
         <v>45715</v>
       </c>
       <c r="B206" t="inlineStr">
@@ -7870,7 +7870,7 @@
       </c>
     </row>
     <row r="207">
-      <c r="A207" s="2" t="n">
+      <c r="A207" s="3" t="n">
         <v>45716</v>
       </c>
       <c r="B207" t="inlineStr">
@@ -7906,7 +7906,7 @@
       </c>
     </row>
     <row r="208">
-      <c r="A208" s="2" t="n">
+      <c r="A208" s="3" t="n">
         <v>45721</v>
       </c>
       <c r="B208" t="inlineStr">
@@ -7942,7 +7942,7 @@
       </c>
     </row>
     <row r="209">
-      <c r="A209" s="2" t="n">
+      <c r="A209" s="3" t="n">
         <v>45721</v>
       </c>
       <c r="B209" t="inlineStr">
@@ -7978,7 +7978,7 @@
       </c>
     </row>
     <row r="210">
-      <c r="A210" s="2" t="n">
+      <c r="A210" s="3" t="n">
         <v>45721</v>
       </c>
       <c r="B210" t="inlineStr">
@@ -8014,7 +8014,7 @@
       </c>
     </row>
     <row r="211">
-      <c r="A211" s="2" t="n">
+      <c r="A211" s="3" t="n">
         <v>45721</v>
       </c>
       <c r="B211" t="inlineStr">
@@ -8050,7 +8050,7 @@
       </c>
     </row>
     <row r="212">
-      <c r="A212" s="2" t="n">
+      <c r="A212" s="3" t="n">
         <v>45721</v>
       </c>
       <c r="B212" t="inlineStr">
@@ -8086,7 +8086,7 @@
       </c>
     </row>
     <row r="213">
-      <c r="A213" s="2" t="n">
+      <c r="A213" s="3" t="n">
         <v>45721</v>
       </c>
       <c r="B213" t="inlineStr">
@@ -8122,7 +8122,7 @@
       </c>
     </row>
     <row r="214">
-      <c r="A214" s="2" t="n">
+      <c r="A214" s="3" t="n">
         <v>45721</v>
       </c>
       <c r="B214" t="inlineStr">
@@ -8158,7 +8158,7 @@
       </c>
     </row>
     <row r="215">
-      <c r="A215" s="2" t="n">
+      <c r="A215" s="3" t="n">
         <v>45721</v>
       </c>
       <c r="B215" t="inlineStr">
@@ -8194,7 +8194,7 @@
       </c>
     </row>
     <row r="216">
-      <c r="A216" s="2" t="n">
+      <c r="A216" s="3" t="n">
         <v>45721</v>
       </c>
       <c r="B216" t="inlineStr">
@@ -8230,7 +8230,7 @@
       </c>
     </row>
     <row r="217">
-      <c r="A217" s="2" t="n">
+      <c r="A217" s="3" t="n">
         <v>45721</v>
       </c>
       <c r="B217" t="inlineStr">
@@ -8266,7 +8266,7 @@
       </c>
     </row>
     <row r="218">
-      <c r="A218" s="2" t="n">
+      <c r="A218" s="3" t="n">
         <v>45721</v>
       </c>
       <c r="B218" t="inlineStr">
@@ -8302,7 +8302,7 @@
       </c>
     </row>
     <row r="219">
-      <c r="A219" s="2" t="n">
+      <c r="A219" s="3" t="n">
         <v>45721</v>
       </c>
       <c r="B219" t="inlineStr">
@@ -8338,7 +8338,7 @@
       </c>
     </row>
     <row r="220">
-      <c r="A220" s="2" t="n">
+      <c r="A220" s="3" t="n">
         <v>45721</v>
       </c>
       <c r="B220" t="inlineStr">
@@ -8374,7 +8374,7 @@
       </c>
     </row>
     <row r="221">
-      <c r="A221" s="2" t="n">
+      <c r="A221" s="3" t="n">
         <v>45721</v>
       </c>
       <c r="B221" t="inlineStr">
@@ -8410,7 +8410,7 @@
       </c>
     </row>
     <row r="222">
-      <c r="A222" s="2" t="n">
+      <c r="A222" s="3" t="n">
         <v>45721</v>
       </c>
       <c r="B222" t="inlineStr">
@@ -8446,7 +8446,7 @@
       </c>
     </row>
     <row r="223">
-      <c r="A223" s="2" t="n">
+      <c r="A223" s="3" t="n">
         <v>45721</v>
       </c>
       <c r="B223" t="inlineStr">
@@ -8482,7 +8482,7 @@
       </c>
     </row>
     <row r="224">
-      <c r="A224" s="2" t="n">
+      <c r="A224" s="3" t="n">
         <v>45721</v>
       </c>
       <c r="B224" t="inlineStr">
@@ -8518,7 +8518,7 @@
       </c>
     </row>
     <row r="225">
-      <c r="A225" s="2" t="n">
+      <c r="A225" s="3" t="n">
         <v>45721</v>
       </c>
       <c r="B225" t="inlineStr">
@@ -8554,7 +8554,7 @@
       </c>
     </row>
     <row r="226">
-      <c r="A226" s="2" t="n">
+      <c r="A226" s="3" t="n">
         <v>45721</v>
       </c>
       <c r="B226" t="inlineStr">
@@ -8590,7 +8590,7 @@
       </c>
     </row>
     <row r="227">
-      <c r="A227" s="2" t="n">
+      <c r="A227" s="3" t="n">
         <v>45721</v>
       </c>
       <c r="B227" t="inlineStr">
@@ -8626,7 +8626,7 @@
       </c>
     </row>
     <row r="228">
-      <c r="A228" s="2" t="n">
+      <c r="A228" s="3" t="n">
         <v>45721</v>
       </c>
       <c r="B228" t="inlineStr">
@@ -8662,7 +8662,7 @@
       </c>
     </row>
     <row r="229">
-      <c r="A229" s="2" t="n">
+      <c r="A229" s="3" t="n">
         <v>45721</v>
       </c>
       <c r="B229" t="inlineStr">
@@ -8698,7 +8698,7 @@
       </c>
     </row>
     <row r="230">
-      <c r="A230" s="2" t="n">
+      <c r="A230" s="3" t="n">
         <v>45721</v>
       </c>
       <c r="B230" t="inlineStr">
@@ -8734,7 +8734,7 @@
       </c>
     </row>
     <row r="231">
-      <c r="A231" s="2" t="n">
+      <c r="A231" s="3" t="n">
         <v>45721</v>
       </c>
       <c r="B231" t="inlineStr">
@@ -8770,7 +8770,7 @@
       </c>
     </row>
     <row r="232">
-      <c r="A232" s="2" t="n">
+      <c r="A232" s="3" t="n">
         <v>45721</v>
       </c>
       <c r="B232" t="inlineStr">
@@ -8806,7 +8806,7 @@
       </c>
     </row>
     <row r="233">
-      <c r="A233" s="2" t="n">
+      <c r="A233" s="3" t="n">
         <v>45723</v>
       </c>
       <c r="B233" t="inlineStr">
@@ -8842,7 +8842,7 @@
       </c>
     </row>
     <row r="234">
-      <c r="A234" s="2" t="n">
+      <c r="A234" s="3" t="n">
         <v>45723</v>
       </c>
       <c r="B234" t="inlineStr">
@@ -8878,7 +8878,7 @@
       </c>
     </row>
     <row r="235">
-      <c r="A235" s="2" t="n">
+      <c r="A235" s="3" t="n">
         <v>45726</v>
       </c>
       <c r="B235" t="inlineStr">
@@ -8914,7 +8914,7 @@
       </c>
     </row>
     <row r="236">
-      <c r="A236" s="2" t="n">
+      <c r="A236" s="3" t="n">
         <v>45726</v>
       </c>
       <c r="B236" t="inlineStr">
@@ -8950,7 +8950,7 @@
       </c>
     </row>
     <row r="237">
-      <c r="A237" s="2" t="n">
+      <c r="A237" s="3" t="n">
         <v>45726</v>
       </c>
       <c r="B237" t="inlineStr">
@@ -8986,7 +8986,7 @@
       </c>
     </row>
     <row r="238">
-      <c r="A238" s="2" t="n">
+      <c r="A238" s="3" t="n">
         <v>45726</v>
       </c>
       <c r="B238" t="inlineStr">
@@ -9022,7 +9022,7 @@
       </c>
     </row>
     <row r="239">
-      <c r="A239" s="2" t="n">
+      <c r="A239" s="3" t="n">
         <v>45726</v>
       </c>
       <c r="B239" t="inlineStr">
@@ -9058,7 +9058,7 @@
       </c>
     </row>
     <row r="240">
-      <c r="A240" s="2" t="n">
+      <c r="A240" s="3" t="n">
         <v>45726</v>
       </c>
       <c r="B240" t="inlineStr">
@@ -9094,7 +9094,7 @@
       </c>
     </row>
     <row r="241">
-      <c r="A241" s="2" t="n">
+      <c r="A241" s="3" t="n">
         <v>45726</v>
       </c>
       <c r="B241" t="inlineStr">
@@ -9130,7 +9130,7 @@
       </c>
     </row>
     <row r="242">
-      <c r="A242" s="2" t="n">
+      <c r="A242" s="3" t="n">
         <v>45726</v>
       </c>
       <c r="B242" t="inlineStr">
@@ -9166,7 +9166,7 @@
       </c>
     </row>
     <row r="243">
-      <c r="A243" s="2" t="n">
+      <c r="A243" s="3" t="n">
         <v>45726</v>
       </c>
       <c r="B243" t="inlineStr">
@@ -9202,7 +9202,7 @@
       </c>
     </row>
     <row r="244">
-      <c r="A244" s="2" t="n">
+      <c r="A244" s="3" t="n">
         <v>45726</v>
       </c>
       <c r="B244" t="inlineStr">
@@ -9238,7 +9238,7 @@
       </c>
     </row>
     <row r="245">
-      <c r="A245" s="2" t="n">
+      <c r="A245" s="3" t="n">
         <v>45726</v>
       </c>
       <c r="B245" t="inlineStr">
@@ -9274,7 +9274,7 @@
       </c>
     </row>
     <row r="246">
-      <c r="A246" s="2" t="n">
+      <c r="A246" s="3" t="n">
         <v>45726</v>
       </c>
       <c r="B246" t="inlineStr">
@@ -9310,7 +9310,7 @@
       </c>
     </row>
     <row r="247">
-      <c r="A247" s="2" t="n">
+      <c r="A247" s="3" t="n">
         <v>45726</v>
       </c>
       <c r="B247" t="inlineStr">
@@ -9346,7 +9346,7 @@
       </c>
     </row>
     <row r="248">
-      <c r="A248" s="2" t="n">
+      <c r="A248" s="3" t="n">
         <v>45729</v>
       </c>
       <c r="B248" t="inlineStr">
@@ -9382,7 +9382,7 @@
       </c>
     </row>
     <row r="249">
-      <c r="A249" s="2" t="n">
+      <c r="A249" s="3" t="n">
         <v>45729</v>
       </c>
       <c r="B249" t="inlineStr">
@@ -9418,7 +9418,7 @@
       </c>
     </row>
     <row r="250">
-      <c r="A250" s="2" t="n">
+      <c r="A250" s="3" t="n">
         <v>45730</v>
       </c>
       <c r="B250" t="inlineStr">
@@ -9454,7 +9454,7 @@
       </c>
     </row>
     <row r="251">
-      <c r="A251" s="2" t="n">
+      <c r="A251" s="3" t="n">
         <v>45733</v>
       </c>
       <c r="B251" t="inlineStr">
@@ -9490,7 +9490,7 @@
       </c>
     </row>
     <row r="252">
-      <c r="A252" s="2" t="n">
+      <c r="A252" s="3" t="n">
         <v>45733</v>
       </c>
       <c r="B252" t="inlineStr">
@@ -9526,7 +9526,7 @@
       </c>
     </row>
     <row r="253">
-      <c r="A253" s="2" t="n">
+      <c r="A253" s="3" t="n">
         <v>45733</v>
       </c>
       <c r="B253" t="inlineStr">
@@ -9562,7 +9562,7 @@
       </c>
     </row>
     <row r="254">
-      <c r="A254" s="2" t="n">
+      <c r="A254" s="3" t="n">
         <v>45733</v>
       </c>
       <c r="B254" t="inlineStr">
@@ -9598,7 +9598,7 @@
       </c>
     </row>
     <row r="255">
-      <c r="A255" s="2" t="n">
+      <c r="A255" s="3" t="n">
         <v>45733</v>
       </c>
       <c r="B255" t="inlineStr">
@@ -9634,7 +9634,7 @@
       </c>
     </row>
     <row r="256">
-      <c r="A256" s="2" t="n">
+      <c r="A256" s="3" t="n">
         <v>45733</v>
       </c>
       <c r="B256" t="inlineStr">
@@ -9670,7 +9670,7 @@
       </c>
     </row>
     <row r="257">
-      <c r="A257" s="2" t="n">
+      <c r="A257" s="3" t="n">
         <v>45733</v>
       </c>
       <c r="B257" t="inlineStr">
@@ -9706,7 +9706,7 @@
       </c>
     </row>
     <row r="258">
-      <c r="A258" s="2" t="n">
+      <c r="A258" s="3" t="n">
         <v>45733</v>
       </c>
       <c r="B258" t="inlineStr">
@@ -9742,7 +9742,7 @@
       </c>
     </row>
     <row r="259">
-      <c r="A259" s="2" t="n">
+      <c r="A259" s="3" t="n">
         <v>45733</v>
       </c>
       <c r="B259" t="inlineStr">
@@ -9778,7 +9778,7 @@
       </c>
     </row>
     <row r="260">
-      <c r="A260" s="2" t="n">
+      <c r="A260" s="3" t="n">
         <v>45733</v>
       </c>
       <c r="B260" t="inlineStr">
@@ -9814,7 +9814,7 @@
       </c>
     </row>
     <row r="261">
-      <c r="A261" s="2" t="n">
+      <c r="A261" s="3" t="n">
         <v>45733</v>
       </c>
       <c r="B261" t="inlineStr">
@@ -9850,7 +9850,7 @@
       </c>
     </row>
     <row r="262">
-      <c r="A262" s="2" t="n">
+      <c r="A262" s="3" t="n">
         <v>45733</v>
       </c>
       <c r="B262" t="inlineStr">
@@ -9886,7 +9886,7 @@
       </c>
     </row>
     <row r="263">
-      <c r="A263" s="2" t="n">
+      <c r="A263" s="3" t="n">
         <v>45733</v>
       </c>
       <c r="B263" t="inlineStr">
@@ -9922,7 +9922,7 @@
       </c>
     </row>
     <row r="264">
-      <c r="A264" s="2" t="n">
+      <c r="A264" s="3" t="n">
         <v>45733</v>
       </c>
       <c r="B264" t="inlineStr">
@@ -9958,7 +9958,7 @@
       </c>
     </row>
     <row r="265">
-      <c r="A265" s="2" t="n">
+      <c r="A265" s="3" t="n">
         <v>45734</v>
       </c>
       <c r="B265" t="inlineStr">
@@ -9994,7 +9994,7 @@
       </c>
     </row>
     <row r="266">
-      <c r="A266" s="2" t="n">
+      <c r="A266" s="3" t="n">
         <v>45734</v>
       </c>
       <c r="B266" t="inlineStr">
@@ -10030,7 +10030,7 @@
       </c>
     </row>
     <row r="267">
-      <c r="A267" s="2" t="n">
+      <c r="A267" s="3" t="n">
         <v>45734</v>
       </c>
       <c r="B267" t="inlineStr">
@@ -10066,7 +10066,7 @@
       </c>
     </row>
     <row r="268">
-      <c r="A268" s="2" t="n">
+      <c r="A268" s="3" t="n">
         <v>45734</v>
       </c>
       <c r="B268" t="inlineStr">
@@ -10102,7 +10102,7 @@
       </c>
     </row>
     <row r="269">
-      <c r="A269" s="2" t="n">
+      <c r="A269" s="3" t="n">
         <v>45735</v>
       </c>
       <c r="B269" t="inlineStr">
@@ -10138,7 +10138,7 @@
       </c>
     </row>
     <row r="270">
-      <c r="A270" s="2" t="n">
+      <c r="A270" s="3" t="n">
         <v>45735</v>
       </c>
       <c r="B270" t="inlineStr">
@@ -10174,7 +10174,7 @@
       </c>
     </row>
     <row r="271">
-      <c r="A271" s="2" t="n">
+      <c r="A271" s="3" t="n">
         <v>45735</v>
       </c>
       <c r="B271" t="inlineStr">
@@ -10210,7 +10210,7 @@
       </c>
     </row>
     <row r="272">
-      <c r="A272" s="2" t="n">
+      <c r="A272" s="3" t="n">
         <v>45735</v>
       </c>
       <c r="B272" t="inlineStr">
@@ -10246,7 +10246,7 @@
       </c>
     </row>
     <row r="273">
-      <c r="A273" s="2" t="n">
+      <c r="A273" s="3" t="n">
         <v>45735</v>
       </c>
       <c r="B273" t="inlineStr">
@@ -10282,7 +10282,7 @@
       </c>
     </row>
     <row r="274">
-      <c r="A274" s="2" t="n">
+      <c r="A274" s="3" t="n">
         <v>45735</v>
       </c>
       <c r="B274" t="inlineStr">
@@ -10318,7 +10318,7 @@
       </c>
     </row>
     <row r="275">
-      <c r="A275" s="2" t="n">
+      <c r="A275" s="3" t="n">
         <v>45736</v>
       </c>
       <c r="B275" t="inlineStr">
@@ -10354,7 +10354,7 @@
       </c>
     </row>
     <row r="276">
-      <c r="A276" s="2" t="n">
+      <c r="A276" s="3" t="n">
         <v>45736</v>
       </c>
       <c r="B276" t="inlineStr">
@@ -10390,7 +10390,7 @@
       </c>
     </row>
     <row r="277">
-      <c r="A277" s="2" t="n">
+      <c r="A277" s="3" t="n">
         <v>45736</v>
       </c>
       <c r="B277" t="inlineStr">
@@ -10426,7 +10426,7 @@
       </c>
     </row>
     <row r="278">
-      <c r="A278" s="2" t="n">
+      <c r="A278" s="3" t="n">
         <v>45740</v>
       </c>
       <c r="B278" t="inlineStr">
@@ -10462,7 +10462,7 @@
       </c>
     </row>
     <row r="279">
-      <c r="A279" s="2" t="n">
+      <c r="A279" s="3" t="n">
         <v>45740</v>
       </c>
       <c r="B279" t="inlineStr">
@@ -10498,7 +10498,7 @@
       </c>
     </row>
     <row r="280">
-      <c r="A280" s="2" t="n">
+      <c r="A280" s="3" t="n">
         <v>45740</v>
       </c>
       <c r="B280" t="inlineStr">
@@ -10534,7 +10534,7 @@
       </c>
     </row>
     <row r="281">
-      <c r="A281" s="2" t="n">
+      <c r="A281" s="3" t="n">
         <v>45740</v>
       </c>
       <c r="B281" t="inlineStr">
@@ -10570,7 +10570,7 @@
       </c>
     </row>
     <row r="282">
-      <c r="A282" s="2" t="n">
+      <c r="A282" s="3" t="n">
         <v>45740</v>
       </c>
       <c r="B282" t="inlineStr">
@@ -10606,7 +10606,7 @@
       </c>
     </row>
     <row r="283">
-      <c r="A283" s="2" t="n">
+      <c r="A283" s="3" t="n">
         <v>45740</v>
       </c>
       <c r="B283" t="inlineStr">
@@ -10642,7 +10642,7 @@
       </c>
     </row>
     <row r="284">
-      <c r="A284" s="2" t="n">
+      <c r="A284" s="3" t="n">
         <v>45740</v>
       </c>
       <c r="B284" t="inlineStr">
@@ -10678,7 +10678,7 @@
       </c>
     </row>
     <row r="285">
-      <c r="A285" s="2" t="n">
+      <c r="A285" s="3" t="n">
         <v>45740</v>
       </c>
       <c r="B285" t="inlineStr">
@@ -10714,7 +10714,7 @@
       </c>
     </row>
     <row r="286">
-      <c r="A286" s="2" t="n">
+      <c r="A286" s="3" t="n">
         <v>45740</v>
       </c>
       <c r="B286" t="inlineStr">
@@ -10750,7 +10750,7 @@
       </c>
     </row>
     <row r="287">
-      <c r="A287" s="2" t="n">
+      <c r="A287" s="3" t="n">
         <v>45740</v>
       </c>
       <c r="B287" t="inlineStr">
@@ -10786,7 +10786,7 @@
       </c>
     </row>
     <row r="288">
-      <c r="A288" s="2" t="n">
+      <c r="A288" s="3" t="n">
         <v>45740</v>
       </c>
       <c r="B288" t="inlineStr">
@@ -10822,7 +10822,7 @@
       </c>
     </row>
     <row r="289">
-      <c r="A289" s="2" t="n">
+      <c r="A289" s="3" t="n">
         <v>45740</v>
       </c>
       <c r="B289" t="inlineStr">
@@ -10858,7 +10858,7 @@
       </c>
     </row>
     <row r="290">
-      <c r="A290" s="2" t="n">
+      <c r="A290" s="3" t="n">
         <v>45740</v>
       </c>
       <c r="B290" t="inlineStr">
@@ -10894,7 +10894,7 @@
       </c>
     </row>
     <row r="291">
-      <c r="A291" s="2" t="n">
+      <c r="A291" s="3" t="n">
         <v>45740</v>
       </c>
       <c r="B291" t="inlineStr">
@@ -10930,7 +10930,7 @@
       </c>
     </row>
     <row r="292">
-      <c r="A292" s="2" t="n">
+      <c r="A292" s="3" t="n">
         <v>45740</v>
       </c>
       <c r="B292" t="inlineStr">
@@ -10966,7 +10966,7 @@
       </c>
     </row>
     <row r="293">
-      <c r="A293" s="2" t="n">
+      <c r="A293" s="3" t="n">
         <v>45741</v>
       </c>
       <c r="B293" t="inlineStr">
@@ -11002,7 +11002,7 @@
       </c>
     </row>
     <row r="294">
-      <c r="A294" s="2" t="n">
+      <c r="A294" s="3" t="n">
         <v>45742</v>
       </c>
       <c r="B294" t="inlineStr">
@@ -11038,7 +11038,7 @@
       </c>
     </row>
     <row r="295">
-      <c r="A295" s="2" t="n">
+      <c r="A295" s="3" t="n">
         <v>45742</v>
       </c>
       <c r="B295" t="inlineStr">
@@ -11074,7 +11074,7 @@
       </c>
     </row>
     <row r="296">
-      <c r="A296" s="2" t="n">
+      <c r="A296" s="3" t="n">
         <v>45742</v>
       </c>
       <c r="B296" t="inlineStr">
@@ -11110,7 +11110,7 @@
       </c>
     </row>
     <row r="297">
-      <c r="A297" s="2" t="n">
+      <c r="A297" s="3" t="n">
         <v>45742</v>
       </c>
       <c r="B297" t="inlineStr">
@@ -11146,7 +11146,7 @@
       </c>
     </row>
     <row r="298">
-      <c r="A298" s="2" t="n">
+      <c r="A298" s="3" t="n">
         <v>45742</v>
       </c>
       <c r="B298" t="inlineStr">
@@ -11182,7 +11182,7 @@
       </c>
     </row>
     <row r="299">
-      <c r="A299" s="2" t="n">
+      <c r="A299" s="3" t="n">
         <v>45743</v>
       </c>
       <c r="B299" t="inlineStr">
@@ -11218,7 +11218,7 @@
       </c>
     </row>
     <row r="300">
-      <c r="A300" s="2" t="n">
+      <c r="A300" s="3" t="n">
         <v>45744</v>
       </c>
       <c r="B300" t="inlineStr">
@@ -11254,7 +11254,7 @@
       </c>
     </row>
     <row r="301">
-      <c r="A301" s="2" t="n">
+      <c r="A301" s="3" t="n">
         <v>45744</v>
       </c>
       <c r="B301" t="inlineStr">
@@ -11290,7 +11290,7 @@
       </c>
     </row>
     <row r="302">
-      <c r="A302" s="2" t="n">
+      <c r="A302" s="3" t="n">
         <v>45744</v>
       </c>
       <c r="B302" t="inlineStr">
@@ -11326,7 +11326,7 @@
       </c>
     </row>
     <row r="303">
-      <c r="A303" s="2" t="n">
+      <c r="A303" s="3" t="n">
         <v>45744</v>
       </c>
       <c r="B303" t="inlineStr">
@@ -11362,7 +11362,7 @@
       </c>
     </row>
     <row r="304">
-      <c r="A304" s="2" t="n">
+      <c r="A304" s="3" t="n">
         <v>45744</v>
       </c>
       <c r="B304" t="inlineStr">
@@ -11398,7 +11398,7 @@
       </c>
     </row>
     <row r="305">
-      <c r="A305" s="2" t="n">
+      <c r="A305" s="3" t="n">
         <v>45747</v>
       </c>
       <c r="B305" t="inlineStr">
@@ -11434,7 +11434,7 @@
       </c>
     </row>
     <row r="306">
-      <c r="A306" s="2" t="n">
+      <c r="A306" s="3" t="n">
         <v>45747</v>
       </c>
       <c r="B306" t="inlineStr">
@@ -11470,7 +11470,7 @@
       </c>
     </row>
     <row r="307">
-      <c r="A307" s="2" t="n">
+      <c r="A307" s="3" t="n">
         <v>45747</v>
       </c>
       <c r="B307" t="inlineStr">
@@ -11506,7 +11506,7 @@
       </c>
     </row>
     <row r="308">
-      <c r="A308" s="2" t="n">
+      <c r="A308" s="3" t="n">
         <v>45747</v>
       </c>
       <c r="B308" t="inlineStr">
@@ -11542,7 +11542,7 @@
       </c>
     </row>
     <row r="309">
-      <c r="A309" s="2" t="n">
+      <c r="A309" s="3" t="n">
         <v>45747</v>
       </c>
       <c r="B309" t="inlineStr">
@@ -11578,7 +11578,7 @@
       </c>
     </row>
     <row r="310">
-      <c r="A310" s="2" t="n">
+      <c r="A310" s="3" t="n">
         <v>45747</v>
       </c>
       <c r="B310" t="inlineStr">
@@ -11614,7 +11614,7 @@
       </c>
     </row>
     <row r="311">
-      <c r="A311" s="2" t="n">
+      <c r="A311" s="3" t="n">
         <v>45747</v>
       </c>
       <c r="B311" t="inlineStr">
@@ -11650,7 +11650,7 @@
       </c>
     </row>
     <row r="312">
-      <c r="A312" s="2" t="n">
+      <c r="A312" s="3" t="n">
         <v>45747</v>
       </c>
       <c r="B312" t="inlineStr">
@@ -11686,7 +11686,7 @@
       </c>
     </row>
     <row r="313">
-      <c r="A313" s="2" t="n">
+      <c r="A313" s="3" t="n">
         <v>45748</v>
       </c>
       <c r="B313" t="inlineStr">
@@ -11722,7 +11722,7 @@
       </c>
     </row>
     <row r="314">
-      <c r="A314" s="2" t="n">
+      <c r="A314" s="3" t="n">
         <v>45748</v>
       </c>
       <c r="B314" t="inlineStr">
@@ -11758,7 +11758,7 @@
       </c>
     </row>
     <row r="315">
-      <c r="A315" s="2" t="n">
+      <c r="A315" s="3" t="n">
         <v>45749</v>
       </c>
       <c r="B315" t="inlineStr">
@@ -11794,7 +11794,7 @@
       </c>
     </row>
     <row r="316">
-      <c r="A316" s="2" t="n">
+      <c r="A316" s="3" t="n">
         <v>45749</v>
       </c>
       <c r="B316" t="inlineStr">
@@ -11830,7 +11830,7 @@
       </c>
     </row>
     <row r="317">
-      <c r="A317" s="2" t="n">
+      <c r="A317" s="3" t="n">
         <v>45749</v>
       </c>
       <c r="B317" t="inlineStr">
@@ -11866,7 +11866,7 @@
       </c>
     </row>
     <row r="318">
-      <c r="A318" s="2" t="n">
+      <c r="A318" s="3" t="n">
         <v>45749</v>
       </c>
       <c r="B318" t="inlineStr">
@@ -11902,7 +11902,7 @@
       </c>
     </row>
     <row r="319">
-      <c r="A319" s="2" t="n">
+      <c r="A319" s="3" t="n">
         <v>45749</v>
       </c>
       <c r="B319" t="inlineStr">
@@ -11938,7 +11938,7 @@
       </c>
     </row>
     <row r="320">
-      <c r="A320" s="2" t="n">
+      <c r="A320" s="3" t="n">
         <v>45749</v>
       </c>
       <c r="B320" t="inlineStr">
@@ -11974,7 +11974,7 @@
       </c>
     </row>
     <row r="321">
-      <c r="A321" s="2" t="n">
+      <c r="A321" s="3" t="n">
         <v>45749</v>
       </c>
       <c r="B321" t="inlineStr">
@@ -12010,7 +12010,7 @@
       </c>
     </row>
     <row r="322">
-      <c r="A322" s="2" t="n">
+      <c r="A322" s="3" t="n">
         <v>45750</v>
       </c>
       <c r="B322" t="inlineStr">
@@ -12046,7 +12046,7 @@
       </c>
     </row>
     <row r="323">
-      <c r="A323" s="2" t="n">
+      <c r="A323" s="3" t="n">
         <v>45751</v>
       </c>
       <c r="B323" t="inlineStr">
@@ -12082,7 +12082,7 @@
       </c>
     </row>
     <row r="324">
-      <c r="A324" s="2" t="n">
+      <c r="A324" s="3" t="n">
         <v>45751</v>
       </c>
       <c r="B324" t="inlineStr">
@@ -12118,7 +12118,7 @@
       </c>
     </row>
     <row r="325">
-      <c r="A325" s="2" t="n">
+      <c r="A325" s="3" t="n">
         <v>45751</v>
       </c>
       <c r="B325" t="inlineStr">
@@ -12154,7 +12154,7 @@
       </c>
     </row>
     <row r="326">
-      <c r="A326" s="2" t="n">
+      <c r="A326" s="3" t="n">
         <v>45751</v>
       </c>
       <c r="B326" t="inlineStr">
@@ -12190,7 +12190,7 @@
       </c>
     </row>
     <row r="327">
-      <c r="A327" s="2" t="n">
+      <c r="A327" s="3" t="n">
         <v>45751</v>
       </c>
       <c r="B327" t="inlineStr">
@@ -12226,7 +12226,7 @@
       </c>
     </row>
     <row r="328">
-      <c r="A328" s="2" t="n">
+      <c r="A328" s="3" t="n">
         <v>45751</v>
       </c>
       <c r="B328" t="inlineStr">
@@ -12262,7 +12262,7 @@
       </c>
     </row>
     <row r="329">
-      <c r="A329" s="2" t="n">
+      <c r="A329" s="3" t="n">
         <v>45751</v>
       </c>
       <c r="B329" t="inlineStr">
@@ -12298,7 +12298,7 @@
       </c>
     </row>
     <row r="330">
-      <c r="A330" s="2" t="n">
+      <c r="A330" s="3" t="n">
         <v>45751</v>
       </c>
       <c r="B330" t="inlineStr">
@@ -12334,7 +12334,7 @@
       </c>
     </row>
     <row r="331">
-      <c r="A331" s="2" t="n">
+      <c r="A331" s="3" t="n">
         <v>45754</v>
       </c>
       <c r="B331" t="inlineStr">
@@ -12370,7 +12370,7 @@
       </c>
     </row>
     <row r="332">
-      <c r="A332" s="2" t="n">
+      <c r="A332" s="3" t="n">
         <v>45754</v>
       </c>
       <c r="B332" t="inlineStr">
@@ -12406,7 +12406,7 @@
       </c>
     </row>
     <row r="333">
-      <c r="A333" s="2" t="n">
+      <c r="A333" s="3" t="n">
         <v>45754</v>
       </c>
       <c r="B333" t="inlineStr">
@@ -12442,7 +12442,7 @@
       </c>
     </row>
     <row r="334">
-      <c r="A334" s="2" t="n">
+      <c r="A334" s="3" t="n">
         <v>45754</v>
       </c>
       <c r="B334" t="inlineStr">
@@ -12478,7 +12478,7 @@
       </c>
     </row>
     <row r="335">
-      <c r="A335" s="2" t="n">
+      <c r="A335" s="3" t="n">
         <v>45754</v>
       </c>
       <c r="B335" t="inlineStr">
@@ -12514,7 +12514,7 @@
       </c>
     </row>
     <row r="336">
-      <c r="A336" s="2" t="n">
+      <c r="A336" s="3" t="n">
         <v>45754</v>
       </c>
       <c r="B336" t="inlineStr">
@@ -12550,7 +12550,7 @@
       </c>
     </row>
     <row r="337">
-      <c r="A337" s="2" t="n">
+      <c r="A337" s="3" t="n">
         <v>45754</v>
       </c>
       <c r="B337" t="inlineStr">
@@ -12586,7 +12586,7 @@
       </c>
     </row>
     <row r="338">
-      <c r="A338" s="2" t="n">
+      <c r="A338" s="3" t="n">
         <v>45754</v>
       </c>
       <c r="B338" t="inlineStr">
@@ -12622,7 +12622,7 @@
       </c>
     </row>
     <row r="339">
-      <c r="A339" s="2" t="n">
+      <c r="A339" s="3" t="n">
         <v>45754</v>
       </c>
       <c r="B339" t="inlineStr">
@@ -12658,7 +12658,7 @@
       </c>
     </row>
     <row r="340">
-      <c r="A340" s="2" t="n">
+      <c r="A340" s="3" t="n">
         <v>45754</v>
       </c>
       <c r="B340" t="inlineStr">
@@ -12694,7 +12694,7 @@
       </c>
     </row>
     <row r="341">
-      <c r="A341" s="2" t="n">
+      <c r="A341" s="3" t="n">
         <v>45754</v>
       </c>
       <c r="B341" t="inlineStr">
@@ -12730,7 +12730,7 @@
       </c>
     </row>
     <row r="342">
-      <c r="A342" s="2" t="n">
+      <c r="A342" s="3" t="n">
         <v>45754</v>
       </c>
       <c r="B342" t="inlineStr">
@@ -12766,7 +12766,7 @@
       </c>
     </row>
     <row r="343">
-      <c r="A343" s="2" t="n">
+      <c r="A343" s="3" t="n">
         <v>45754</v>
       </c>
       <c r="B343" t="inlineStr">
@@ -12802,7 +12802,7 @@
       </c>
     </row>
     <row r="344">
-      <c r="A344" s="2" t="n">
+      <c r="A344" s="3" t="n">
         <v>45754</v>
       </c>
       <c r="B344" t="inlineStr">
@@ -12838,7 +12838,7 @@
       </c>
     </row>
     <row r="345">
-      <c r="A345" s="2" t="n">
+      <c r="A345" s="3" t="n">
         <v>45754</v>
       </c>
       <c r="B345" t="inlineStr">
@@ -12874,7 +12874,7 @@
       </c>
     </row>
     <row r="346">
-      <c r="A346" s="2" t="n">
+      <c r="A346" s="3" t="n">
         <v>45754</v>
       </c>
       <c r="B346" t="inlineStr">
@@ -12910,7 +12910,7 @@
       </c>
     </row>
     <row r="347">
-      <c r="A347" s="2" t="n">
+      <c r="A347" s="3" t="n">
         <v>45755</v>
       </c>
       <c r="B347" t="inlineStr">
@@ -12946,7 +12946,7 @@
       </c>
     </row>
     <row r="348">
-      <c r="A348" s="2" t="n">
+      <c r="A348" s="3" t="n">
         <v>45755</v>
       </c>
       <c r="B348" t="inlineStr">
@@ -12982,7 +12982,7 @@
       </c>
     </row>
     <row r="349">
-      <c r="A349" s="2" t="n">
+      <c r="A349" s="3" t="n">
         <v>45755</v>
       </c>
       <c r="B349" t="inlineStr">
@@ -13018,7 +13018,7 @@
       </c>
     </row>
     <row r="350">
-      <c r="A350" s="2" t="n">
+      <c r="A350" s="3" t="n">
         <v>45755</v>
       </c>
       <c r="B350" t="inlineStr">
@@ -13054,7 +13054,7 @@
       </c>
     </row>
     <row r="351">
-      <c r="A351" s="2" t="n">
+      <c r="A351" s="3" t="n">
         <v>45755</v>
       </c>
       <c r="B351" t="inlineStr">
@@ -13090,7 +13090,7 @@
       </c>
     </row>
     <row r="352">
-      <c r="A352" s="2" t="n">
+      <c r="A352" s="3" t="n">
         <v>45756</v>
       </c>
       <c r="B352" t="inlineStr">
@@ -13126,7 +13126,7 @@
       </c>
     </row>
     <row r="353">
-      <c r="A353" s="2" t="n">
+      <c r="A353" s="3" t="n">
         <v>45756</v>
       </c>
       <c r="B353" t="inlineStr">
@@ -13162,7 +13162,7 @@
       </c>
     </row>
     <row r="354">
-      <c r="A354" s="2" t="n">
+      <c r="A354" s="3" t="n">
         <v>45756</v>
       </c>
       <c r="B354" t="inlineStr">
@@ -13198,7 +13198,7 @@
       </c>
     </row>
     <row r="355">
-      <c r="A355" s="2" t="n">
+      <c r="A355" s="3" t="n">
         <v>45757</v>
       </c>
       <c r="B355" t="inlineStr">
@@ -13234,7 +13234,7 @@
       </c>
     </row>
     <row r="356">
-      <c r="A356" s="2" t="n">
+      <c r="A356" s="3" t="n">
         <v>45757</v>
       </c>
       <c r="B356" t="inlineStr">
@@ -13270,7 +13270,7 @@
       </c>
     </row>
     <row r="357">
-      <c r="A357" s="2" t="n">
+      <c r="A357" s="3" t="n">
         <v>45757</v>
       </c>
       <c r="B357" t="inlineStr">
@@ -13306,7 +13306,7 @@
       </c>
     </row>
     <row r="358">
-      <c r="A358" s="2" t="n">
+      <c r="A358" s="3" t="n">
         <v>45757</v>
       </c>
       <c r="B358" t="inlineStr">
@@ -13342,7 +13342,7 @@
       </c>
     </row>
     <row r="359">
-      <c r="A359" s="2" t="n">
+      <c r="A359" s="3" t="n">
         <v>45757</v>
       </c>
       <c r="B359" t="inlineStr">
@@ -13378,7 +13378,7 @@
       </c>
     </row>
     <row r="360">
-      <c r="A360" s="2" t="n">
+      <c r="A360" s="3" t="n">
         <v>45758</v>
       </c>
       <c r="B360" t="inlineStr">
@@ -13414,7 +13414,7 @@
       </c>
     </row>
     <row r="361">
-      <c r="A361" s="2" t="n">
+      <c r="A361" s="3" t="n">
         <v>45758</v>
       </c>
       <c r="B361" t="inlineStr">
@@ -13450,7 +13450,7 @@
       </c>
     </row>
     <row r="362">
-      <c r="A362" s="2" t="n">
+      <c r="A362" s="3" t="n">
         <v>45761</v>
       </c>
       <c r="B362" t="inlineStr">
@@ -13486,7 +13486,7 @@
       </c>
     </row>
     <row r="363">
-      <c r="A363" s="2" t="n">
+      <c r="A363" s="3" t="n">
         <v>45761</v>
       </c>
       <c r="B363" t="inlineStr">
@@ -13522,7 +13522,7 @@
       </c>
     </row>
     <row r="364">
-      <c r="A364" s="2" t="n">
+      <c r="A364" s="3" t="n">
         <v>45761</v>
       </c>
       <c r="B364" t="inlineStr">
@@ -13558,7 +13558,7 @@
       </c>
     </row>
     <row r="365">
-      <c r="A365" s="2" t="n">
+      <c r="A365" s="3" t="n">
         <v>45761</v>
       </c>
       <c r="B365" t="inlineStr">
@@ -13594,7 +13594,7 @@
       </c>
     </row>
     <row r="366">
-      <c r="A366" s="2" t="n">
+      <c r="A366" s="3" t="n">
         <v>45761</v>
       </c>
       <c r="B366" t="inlineStr">
@@ -13630,7 +13630,7 @@
       </c>
     </row>
     <row r="367">
-      <c r="A367" s="2" t="n">
+      <c r="A367" s="3" t="n">
         <v>45761</v>
       </c>
       <c r="B367" t="inlineStr">
@@ -13666,7 +13666,7 @@
       </c>
     </row>
     <row r="368">
-      <c r="A368" s="2" t="n">
+      <c r="A368" s="3" t="n">
         <v>45762</v>
       </c>
       <c r="B368" t="inlineStr">
@@ -13702,7 +13702,7 @@
       </c>
     </row>
     <row r="369">
-      <c r="A369" s="2" t="n">
+      <c r="A369" s="3" t="n">
         <v>45763</v>
       </c>
       <c r="B369" t="inlineStr">
@@ -13738,7 +13738,7 @@
       </c>
     </row>
     <row r="370">
-      <c r="A370" s="2" t="n">
+      <c r="A370" s="3" t="n">
         <v>45763</v>
       </c>
       <c r="B370" t="inlineStr">
@@ -13774,7 +13774,7 @@
       </c>
     </row>
     <row r="371">
-      <c r="A371" s="2" t="n">
+      <c r="A371" s="3" t="n">
         <v>45763</v>
       </c>
       <c r="B371" t="inlineStr">
@@ -13810,7 +13810,7 @@
       </c>
     </row>
     <row r="372">
-      <c r="A372" s="2" t="n">
+      <c r="A372" s="3" t="n">
         <v>45763</v>
       </c>
       <c r="B372" t="inlineStr">
@@ -13846,7 +13846,7 @@
       </c>
     </row>
     <row r="373">
-      <c r="A373" s="2" t="n">
+      <c r="A373" s="3" t="n">
         <v>45764</v>
       </c>
       <c r="B373" t="inlineStr">
@@ -13882,7 +13882,7 @@
       </c>
     </row>
     <row r="374">
-      <c r="A374" s="2" t="n">
+      <c r="A374" s="3" t="n">
         <v>45764</v>
       </c>
       <c r="B374" t="inlineStr">
@@ -13918,7 +13918,7 @@
       </c>
     </row>
     <row r="375">
-      <c r="A375" s="2" t="n">
+      <c r="A375" s="3" t="n">
         <v>45769</v>
       </c>
       <c r="B375" t="inlineStr">
@@ -13954,7 +13954,7 @@
       </c>
     </row>
     <row r="376">
-      <c r="A376" s="2" t="n">
+      <c r="A376" s="3" t="n">
         <v>45769</v>
       </c>
       <c r="B376" t="inlineStr">
@@ -13990,7 +13990,7 @@
       </c>
     </row>
     <row r="377">
-      <c r="A377" s="2" t="n">
+      <c r="A377" s="3" t="n">
         <v>45769</v>
       </c>
       <c r="B377" t="inlineStr">
@@ -14026,7 +14026,7 @@
       </c>
     </row>
     <row r="378">
-      <c r="A378" s="2" t="n">
+      <c r="A378" s="3" t="n">
         <v>45769</v>
       </c>
       <c r="B378" t="inlineStr">
@@ -14062,7 +14062,7 @@
       </c>
     </row>
     <row r="379">
-      <c r="A379" s="2" t="n">
+      <c r="A379" s="3" t="n">
         <v>45769</v>
       </c>
       <c r="B379" t="inlineStr">
@@ -14098,7 +14098,7 @@
       </c>
     </row>
     <row r="380">
-      <c r="A380" s="2" t="n">
+      <c r="A380" s="3" t="n">
         <v>45769</v>
       </c>
       <c r="B380" t="inlineStr">
@@ -14134,7 +14134,7 @@
       </c>
     </row>
     <row r="381">
-      <c r="A381" s="2" t="n">
+      <c r="A381" s="3" t="n">
         <v>45769</v>
       </c>
       <c r="B381" t="inlineStr">
@@ -14170,7 +14170,7 @@
       </c>
     </row>
     <row r="382">
-      <c r="A382" s="2" t="n">
+      <c r="A382" s="3" t="n">
         <v>45769</v>
       </c>
       <c r="B382" t="inlineStr">
@@ -14206,7 +14206,7 @@
       </c>
     </row>
     <row r="383">
-      <c r="A383" s="2" t="n">
+      <c r="A383" s="3" t="n">
         <v>45769</v>
       </c>
       <c r="B383" t="inlineStr">
@@ -14242,7 +14242,7 @@
       </c>
     </row>
     <row r="384">
-      <c r="A384" s="2" t="n">
+      <c r="A384" s="3" t="n">
         <v>45769</v>
       </c>
       <c r="B384" t="inlineStr">
@@ -14278,7 +14278,7 @@
       </c>
     </row>
     <row r="385">
-      <c r="A385" s="2" t="n">
+      <c r="A385" s="3" t="n">
         <v>45769</v>
       </c>
       <c r="B385" t="inlineStr">
@@ -14314,7 +14314,7 @@
       </c>
     </row>
     <row r="386">
-      <c r="A386" s="2" t="n">
+      <c r="A386" s="3" t="n">
         <v>45769</v>
       </c>
       <c r="B386" t="inlineStr">
@@ -14350,7 +14350,7 @@
       </c>
     </row>
     <row r="387">
-      <c r="A387" s="2" t="n">
+      <c r="A387" s="3" t="n">
         <v>45769</v>
       </c>
       <c r="B387" t="inlineStr">
@@ -14386,7 +14386,7 @@
       </c>
     </row>
     <row r="388">
-      <c r="A388" s="2" t="n">
+      <c r="A388" s="3" t="n">
         <v>45770</v>
       </c>
       <c r="B388" t="inlineStr">
@@ -14422,7 +14422,7 @@
       </c>
     </row>
     <row r="389">
-      <c r="A389" s="2" t="n">
+      <c r="A389" s="3" t="n">
         <v>45770</v>
       </c>
       <c r="B389" t="inlineStr">
@@ -14458,7 +14458,7 @@
       </c>
     </row>
     <row r="390">
-      <c r="A390" s="2" t="n">
+      <c r="A390" s="3" t="n">
         <v>45770</v>
       </c>
       <c r="B390" t="inlineStr">
@@ -14494,7 +14494,7 @@
       </c>
     </row>
     <row r="391">
-      <c r="A391" s="2" t="n">
+      <c r="A391" s="3" t="n">
         <v>45770</v>
       </c>
       <c r="B391" t="inlineStr">
@@ -14530,7 +14530,7 @@
       </c>
     </row>
     <row r="392">
-      <c r="A392" s="2" t="n">
+      <c r="A392" s="3" t="n">
         <v>45771</v>
       </c>
       <c r="B392" t="inlineStr">
@@ -14566,7 +14566,7 @@
       </c>
     </row>
     <row r="393">
-      <c r="A393" s="2" t="n">
+      <c r="A393" s="3" t="n">
         <v>45771</v>
       </c>
       <c r="B393" t="inlineStr">
@@ -14602,7 +14602,7 @@
       </c>
     </row>
     <row r="394">
-      <c r="A394" s="2" t="n">
+      <c r="A394" s="3" t="n">
         <v>45771</v>
       </c>
       <c r="B394" t="inlineStr">
@@ -14638,7 +14638,7 @@
       </c>
     </row>
     <row r="395">
-      <c r="A395" s="2" t="n">
+      <c r="A395" s="3" t="n">
         <v>45772</v>
       </c>
       <c r="B395" t="inlineStr">
@@ -14674,7 +14674,7 @@
       </c>
     </row>
     <row r="396">
-      <c r="A396" s="2" t="n">
+      <c r="A396" s="3" t="n">
         <v>45772</v>
       </c>
       <c r="B396" t="inlineStr">
@@ -14710,7 +14710,7 @@
       </c>
     </row>
     <row r="397">
-      <c r="A397" s="2" t="n">
+      <c r="A397" s="3" t="n">
         <v>45772</v>
       </c>
       <c r="B397" t="inlineStr">
@@ -14746,7 +14746,7 @@
       </c>
     </row>
     <row r="398">
-      <c r="A398" s="2" t="n">
+      <c r="A398" s="3" t="n">
         <v>45772</v>
       </c>
       <c r="B398" t="inlineStr">
@@ -14782,7 +14782,7 @@
       </c>
     </row>
     <row r="399">
-      <c r="A399" s="2" t="n">
+      <c r="A399" s="3" t="n">
         <v>45775</v>
       </c>
       <c r="B399" t="inlineStr">
@@ -14818,7 +14818,7 @@
       </c>
     </row>
     <row r="400">
-      <c r="A400" s="2" t="n">
+      <c r="A400" s="3" t="n">
         <v>45775</v>
       </c>
       <c r="B400" t="inlineStr">
@@ -14854,7 +14854,7 @@
       </c>
     </row>
     <row r="401">
-      <c r="A401" s="2" t="n">
+      <c r="A401" s="3" t="n">
         <v>45775</v>
       </c>
       <c r="B401" t="inlineStr">
@@ -14890,7 +14890,7 @@
       </c>
     </row>
     <row r="402">
-      <c r="A402" s="2" t="n">
+      <c r="A402" s="3" t="n">
         <v>45775</v>
       </c>
       <c r="B402" t="inlineStr">
@@ -14926,7 +14926,7 @@
       </c>
     </row>
     <row r="403">
-      <c r="A403" s="2" t="n">
+      <c r="A403" s="3" t="n">
         <v>45775</v>
       </c>
       <c r="B403" t="inlineStr">
@@ -14962,7 +14962,7 @@
       </c>
     </row>
     <row r="404">
-      <c r="A404" s="2" t="n">
+      <c r="A404" s="3" t="n">
         <v>45775</v>
       </c>
       <c r="B404" t="inlineStr">
@@ -14998,7 +14998,7 @@
       </c>
     </row>
     <row r="405">
-      <c r="A405" s="2" t="n">
+      <c r="A405" s="3" t="n">
         <v>45775</v>
       </c>
       <c r="B405" t="inlineStr">
@@ -15034,7 +15034,7 @@
       </c>
     </row>
     <row r="406">
-      <c r="A406" s="2" t="n">
+      <c r="A406" s="3" t="n">
         <v>45775</v>
       </c>
       <c r="B406" t="inlineStr">
@@ -15070,7 +15070,7 @@
       </c>
     </row>
     <row r="407">
-      <c r="A407" s="2" t="n">
+      <c r="A407" s="3" t="n">
         <v>45775</v>
       </c>
       <c r="B407" t="inlineStr">
@@ -15106,7 +15106,7 @@
       </c>
     </row>
     <row r="408">
-      <c r="A408" s="2" t="n">
+      <c r="A408" s="3" t="n">
         <v>45775</v>
       </c>
       <c r="B408" t="inlineStr">
@@ -15142,7 +15142,7 @@
       </c>
     </row>
     <row r="409">
-      <c r="A409" s="2" t="n">
+      <c r="A409" s="3" t="n">
         <v>45775</v>
       </c>
       <c r="B409" t="inlineStr">
@@ -15178,7 +15178,7 @@
       </c>
     </row>
     <row r="410">
-      <c r="A410" s="2" t="n">
+      <c r="A410" s="3" t="n">
         <v>45775</v>
       </c>
       <c r="B410" t="inlineStr">
@@ -15214,7 +15214,7 @@
       </c>
     </row>
     <row r="411">
-      <c r="A411" s="2" t="n">
+      <c r="A411" s="3" t="n">
         <v>45776</v>
       </c>
       <c r="B411" t="inlineStr">
@@ -15250,7 +15250,7 @@
       </c>
     </row>
     <row r="412">
-      <c r="A412" s="2" t="n">
+      <c r="A412" s="3" t="n">
         <v>45776</v>
       </c>
       <c r="B412" t="inlineStr">
@@ -15286,7 +15286,7 @@
       </c>
     </row>
     <row r="413">
-      <c r="A413" s="2" t="n">
+      <c r="A413" s="3" t="n">
         <v>45776</v>
       </c>
       <c r="B413" t="inlineStr">
@@ -15322,7 +15322,7 @@
       </c>
     </row>
     <row r="414">
-      <c r="A414" s="2" t="n">
+      <c r="A414" s="3" t="n">
         <v>45776</v>
       </c>
       <c r="B414" t="inlineStr">
@@ -15358,7 +15358,7 @@
       </c>
     </row>
     <row r="415">
-      <c r="A415" s="2" t="n">
+      <c r="A415" s="3" t="n">
         <v>45777</v>
       </c>
       <c r="B415" t="inlineStr">
@@ -15394,7 +15394,7 @@
       </c>
     </row>
     <row r="416">
-      <c r="A416" s="2" t="n">
+      <c r="A416" s="3" t="n">
         <v>45777</v>
       </c>
       <c r="B416" t="inlineStr">
@@ -15430,7 +15430,7 @@
       </c>
     </row>
     <row r="417">
-      <c r="A417" s="2" t="n">
+      <c r="A417" s="3" t="n">
         <v>45777</v>
       </c>
       <c r="B417" t="inlineStr">
@@ -15466,7 +15466,7 @@
       </c>
     </row>
     <row r="418">
-      <c r="A418" s="2" t="n">
+      <c r="A418" s="3" t="n">
         <v>45777</v>
       </c>
       <c r="B418" t="inlineStr">
@@ -15502,7 +15502,7 @@
       </c>
     </row>
     <row r="419">
-      <c r="A419" s="2" t="n">
+      <c r="A419" s="3" t="n">
         <v>45778</v>
       </c>
       <c r="B419" t="inlineStr">
@@ -15538,7 +15538,7 @@
       </c>
     </row>
     <row r="420">
-      <c r="A420" s="2" t="n">
+      <c r="A420" s="3" t="n">
         <v>45779</v>
       </c>
       <c r="B420" t="inlineStr">
@@ -15574,7 +15574,7 @@
       </c>
     </row>
     <row r="421">
-      <c r="A421" s="2" t="n">
+      <c r="A421" s="3" t="n">
         <v>45779</v>
       </c>
       <c r="B421" t="inlineStr">
@@ -15610,7 +15610,7 @@
       </c>
     </row>
     <row r="422">
-      <c r="A422" s="2" t="n">
+      <c r="A422" s="3" t="n">
         <v>45779</v>
       </c>
       <c r="B422" t="inlineStr">
@@ -15646,7 +15646,7 @@
       </c>
     </row>
     <row r="423">
-      <c r="A423" s="2" t="n">
+      <c r="A423" s="3" t="n">
         <v>45779</v>
       </c>
       <c r="B423" t="inlineStr">
@@ -15682,7 +15682,7 @@
       </c>
     </row>
     <row r="424">
-      <c r="A424" s="2" t="n">
+      <c r="A424" s="3" t="n">
         <v>45779</v>
       </c>
       <c r="B424" t="inlineStr">
@@ -15718,7 +15718,7 @@
       </c>
     </row>
     <row r="425">
-      <c r="A425" s="2" t="n">
+      <c r="A425" s="3" t="n">
         <v>45779</v>
       </c>
       <c r="B425" t="inlineStr">
@@ -15754,7 +15754,7 @@
       </c>
     </row>
     <row r="426">
-      <c r="A426" s="2" t="n">
+      <c r="A426" s="3" t="n">
         <v>45779</v>
       </c>
       <c r="B426" t="inlineStr">
@@ -15790,7 +15790,7 @@
       </c>
     </row>
     <row r="427">
-      <c r="A427" s="2" t="n">
+      <c r="A427" s="3" t="n">
         <v>45779</v>
       </c>
       <c r="B427" t="inlineStr">
@@ -15826,7 +15826,7 @@
       </c>
     </row>
     <row r="428">
-      <c r="A428" s="2" t="n">
+      <c r="A428" s="3" t="n">
         <v>45779</v>
       </c>
       <c r="B428" t="inlineStr">
@@ -15862,7 +15862,7 @@
       </c>
     </row>
     <row r="429">
-      <c r="A429" s="2" t="n">
+      <c r="A429" s="3" t="n">
         <v>45779</v>
       </c>
       <c r="B429" t="inlineStr">
@@ -15898,7 +15898,7 @@
       </c>
     </row>
     <row r="430">
-      <c r="A430" s="2" t="n">
+      <c r="A430" s="3" t="n">
         <v>45779</v>
       </c>
       <c r="B430" t="inlineStr">
@@ -15934,7 +15934,7 @@
       </c>
     </row>
     <row r="431">
-      <c r="A431" s="2" t="n">
+      <c r="A431" s="3" t="n">
         <v>45779</v>
       </c>
       <c r="B431" t="inlineStr">
@@ -15970,7 +15970,7 @@
       </c>
     </row>
     <row r="432">
-      <c r="A432" s="2" t="n">
+      <c r="A432" s="3" t="n">
         <v>45779</v>
       </c>
       <c r="B432" t="inlineStr">
@@ -16006,7 +16006,7 @@
       </c>
     </row>
     <row r="433">
-      <c r="A433" s="2" t="n">
+      <c r="A433" s="3" t="n">
         <v>45779</v>
       </c>
       <c r="B433" t="inlineStr">
@@ -16042,7 +16042,7 @@
       </c>
     </row>
     <row r="434">
-      <c r="A434" s="2" t="n">
+      <c r="A434" s="3" t="n">
         <v>45779</v>
       </c>
       <c r="B434" t="inlineStr">
@@ -16078,7 +16078,7 @@
       </c>
     </row>
     <row r="435">
-      <c r="A435" s="2" t="n">
+      <c r="A435" s="3" t="n">
         <v>45779</v>
       </c>
       <c r="B435" t="inlineStr">
@@ -16114,7 +16114,7 @@
       </c>
     </row>
     <row r="436">
-      <c r="A436" s="2" t="n">
+      <c r="A436" s="3" t="n">
         <v>45782</v>
       </c>
       <c r="B436" t="inlineStr">
@@ -16150,7 +16150,7 @@
       </c>
     </row>
     <row r="437">
-      <c r="A437" s="2" t="n">
+      <c r="A437" s="3" t="n">
         <v>45782</v>
       </c>
       <c r="B437" t="inlineStr">
@@ -16186,7 +16186,7 @@
       </c>
     </row>
     <row r="438">
-      <c r="A438" s="2" t="n">
+      <c r="A438" s="3" t="n">
         <v>45782</v>
       </c>
       <c r="B438" t="inlineStr">
@@ -16222,7 +16222,7 @@
       </c>
     </row>
     <row r="439">
-      <c r="A439" s="2" t="n">
+      <c r="A439" s="3" t="n">
         <v>45782</v>
       </c>
       <c r="B439" t="inlineStr">
@@ -16258,7 +16258,7 @@
       </c>
     </row>
     <row r="440">
-      <c r="A440" s="2" t="n">
+      <c r="A440" s="3" t="n">
         <v>45782</v>
       </c>
       <c r="B440" t="inlineStr">
@@ -16294,7 +16294,7 @@
       </c>
     </row>
     <row r="441">
-      <c r="A441" s="2" t="n">
+      <c r="A441" s="3" t="n">
         <v>45782</v>
       </c>
       <c r="B441" t="inlineStr">
@@ -16330,7 +16330,7 @@
       </c>
     </row>
     <row r="442">
-      <c r="A442" s="2" t="n">
+      <c r="A442" s="3" t="n">
         <v>45782</v>
       </c>
       <c r="B442" t="inlineStr">
@@ -16366,7 +16366,7 @@
       </c>
     </row>
     <row r="443">
-      <c r="A443" s="2" t="n">
+      <c r="A443" s="3" t="n">
         <v>45782</v>
       </c>
       <c r="B443" t="inlineStr">
@@ -16402,7 +16402,7 @@
       </c>
     </row>
     <row r="444">
-      <c r="A444" s="2" t="n">
+      <c r="A444" s="3" t="n">
         <v>45782</v>
       </c>
       <c r="B444" t="inlineStr">
@@ -16438,7 +16438,7 @@
       </c>
     </row>
     <row r="445">
-      <c r="A445" s="2" t="n">
+      <c r="A445" s="3" t="n">
         <v>45782</v>
       </c>
       <c r="B445" t="inlineStr">
@@ -16474,7 +16474,7 @@
       </c>
     </row>
     <row r="446">
-      <c r="A446" s="2" t="n">
+      <c r="A446" s="3" t="n">
         <v>45782</v>
       </c>
       <c r="B446" t="inlineStr">
@@ -16510,7 +16510,7 @@
       </c>
     </row>
     <row r="447">
-      <c r="A447" s="2" t="n">
+      <c r="A447" s="3" t="n">
         <v>45782</v>
       </c>
       <c r="B447" t="inlineStr">
@@ -16546,7 +16546,7 @@
       </c>
     </row>
     <row r="448">
-      <c r="A448" s="2" t="n">
+      <c r="A448" s="3" t="n">
         <v>45782</v>
       </c>
       <c r="B448" t="inlineStr">
@@ -16582,7 +16582,7 @@
       </c>
     </row>
     <row r="449">
-      <c r="A449" s="2" t="n">
+      <c r="A449" s="3" t="n">
         <v>45782</v>
       </c>
       <c r="B449" t="inlineStr">
@@ -16618,7 +16618,7 @@
       </c>
     </row>
     <row r="450">
-      <c r="A450" s="2" t="n">
+      <c r="A450" s="3" t="n">
         <v>45782</v>
       </c>
       <c r="B450" t="inlineStr">
@@ -16654,7 +16654,7 @@
       </c>
     </row>
     <row r="451">
-      <c r="A451" s="2" t="n">
+      <c r="A451" s="3" t="n">
         <v>45782</v>
       </c>
       <c r="B451" t="inlineStr">
@@ -16690,7 +16690,7 @@
       </c>
     </row>
     <row r="452">
-      <c r="A452" s="2" t="n">
+      <c r="A452" s="3" t="n">
         <v>45782</v>
       </c>
       <c r="B452" t="inlineStr">
@@ -16726,7 +16726,7 @@
       </c>
     </row>
     <row r="453">
-      <c r="A453" s="2" t="n">
+      <c r="A453" s="3" t="n">
         <v>45783</v>
       </c>
       <c r="B453" t="inlineStr">
@@ -16762,7 +16762,7 @@
       </c>
     </row>
     <row r="454">
-      <c r="A454" s="2" t="n">
+      <c r="A454" s="3" t="n">
         <v>45784</v>
       </c>
       <c r="B454" t="inlineStr">
@@ -16798,7 +16798,7 @@
       </c>
     </row>
     <row r="455">
-      <c r="A455" s="2" t="n">
+      <c r="A455" s="3" t="n">
         <v>45784</v>
       </c>
       <c r="B455" t="inlineStr">
@@ -16834,7 +16834,7 @@
       </c>
     </row>
     <row r="456">
-      <c r="A456" s="2" t="n">
+      <c r="A456" s="3" t="n">
         <v>45784</v>
       </c>
       <c r="B456" t="inlineStr">
@@ -16870,7 +16870,7 @@
       </c>
     </row>
     <row r="457">
-      <c r="A457" s="2" t="n">
+      <c r="A457" s="3" t="n">
         <v>45784</v>
       </c>
       <c r="B457" t="inlineStr">
@@ -16906,7 +16906,7 @@
       </c>
     </row>
     <row r="458">
-      <c r="A458" s="2" t="n">
+      <c r="A458" s="3" t="n">
         <v>45784</v>
       </c>
       <c r="B458" t="inlineStr">
@@ -16942,7 +16942,7 @@
       </c>
     </row>
     <row r="459">
-      <c r="A459" s="2" t="n">
+      <c r="A459" s="3" t="n">
         <v>45785</v>
       </c>
       <c r="B459" t="inlineStr">
@@ -16978,7 +16978,7 @@
       </c>
     </row>
     <row r="460">
-      <c r="A460" s="2" t="n">
+      <c r="A460" s="3" t="n">
         <v>45785</v>
       </c>
       <c r="B460" t="inlineStr">
@@ -17014,7 +17014,7 @@
       </c>
     </row>
     <row r="461">
-      <c r="A461" s="2" t="n">
+      <c r="A461" s="3" t="n">
         <v>45785</v>
       </c>
       <c r="B461" t="inlineStr">
@@ -17050,7 +17050,7 @@
       </c>
     </row>
     <row r="462">
-      <c r="A462" s="2" t="n">
+      <c r="A462" s="3" t="n">
         <v>45785</v>
       </c>
       <c r="B462" t="inlineStr">
@@ -17086,7 +17086,7 @@
       </c>
     </row>
     <row r="463">
-      <c r="A463" s="2" t="n">
+      <c r="A463" s="3" t="n">
         <v>45785</v>
       </c>
       <c r="B463" t="inlineStr">
@@ -17122,7 +17122,7 @@
       </c>
     </row>
     <row r="464">
-      <c r="A464" s="2" t="n">
+      <c r="A464" s="3" t="n">
         <v>45785</v>
       </c>
       <c r="B464" t="inlineStr">
@@ -17158,7 +17158,7 @@
       </c>
     </row>
     <row r="465">
-      <c r="A465" s="2" t="n">
+      <c r="A465" s="3" t="n">
         <v>45786</v>
       </c>
       <c r="B465" t="inlineStr">
@@ -17194,7 +17194,7 @@
       </c>
     </row>
     <row r="466">
-      <c r="A466" s="2" t="n">
+      <c r="A466" s="3" t="n">
         <v>45786</v>
       </c>
       <c r="B466" t="inlineStr">
@@ -17230,7 +17230,7 @@
       </c>
     </row>
     <row r="467">
-      <c r="A467" s="2" t="n">
+      <c r="A467" s="3" t="n">
         <v>45786</v>
       </c>
       <c r="B467" t="inlineStr">
@@ -17266,7 +17266,7 @@
       </c>
     </row>
     <row r="468">
-      <c r="A468" s="2" t="n">
+      <c r="A468" s="3" t="n">
         <v>45789</v>
       </c>
       <c r="B468" t="inlineStr">
@@ -17302,7 +17302,7 @@
       </c>
     </row>
     <row r="469">
-      <c r="A469" s="2" t="n">
+      <c r="A469" s="3" t="n">
         <v>45789</v>
       </c>
       <c r="B469" t="inlineStr">
@@ -17338,7 +17338,7 @@
       </c>
     </row>
     <row r="470">
-      <c r="A470" s="2" t="n">
+      <c r="A470" s="3" t="n">
         <v>45789</v>
       </c>
       <c r="B470" t="inlineStr">
@@ -17374,7 +17374,7 @@
       </c>
     </row>
     <row r="471">
-      <c r="A471" s="2" t="n">
+      <c r="A471" s="3" t="n">
         <v>45789</v>
       </c>
       <c r="B471" t="inlineStr">
@@ -17410,7 +17410,7 @@
       </c>
     </row>
     <row r="472">
-      <c r="A472" s="2" t="n">
+      <c r="A472" s="3" t="n">
         <v>45789</v>
       </c>
       <c r="B472" t="inlineStr">
@@ -17446,7 +17446,7 @@
       </c>
     </row>
     <row r="473">
-      <c r="A473" s="2" t="n">
+      <c r="A473" s="3" t="n">
         <v>45789</v>
       </c>
       <c r="B473" t="inlineStr">
@@ -17482,7 +17482,7 @@
       </c>
     </row>
     <row r="474">
-      <c r="A474" s="2" t="n">
+      <c r="A474" s="3" t="n">
         <v>45789</v>
       </c>
       <c r="B474" t="inlineStr">
@@ -17518,7 +17518,7 @@
       </c>
     </row>
     <row r="475">
-      <c r="A475" s="2" t="n">
+      <c r="A475" s="3" t="n">
         <v>45789</v>
       </c>
       <c r="B475" t="inlineStr">
@@ -17554,7 +17554,7 @@
       </c>
     </row>
     <row r="476">
-      <c r="A476" s="2" t="n">
+      <c r="A476" s="3" t="n">
         <v>45791</v>
       </c>
       <c r="B476" t="inlineStr">
@@ -17590,7 +17590,7 @@
       </c>
     </row>
     <row r="477">
-      <c r="A477" s="2" t="n">
+      <c r="A477" s="3" t="n">
         <v>45791</v>
       </c>
       <c r="B477" t="inlineStr">
@@ -17626,7 +17626,7 @@
       </c>
     </row>
     <row r="478">
-      <c r="A478" s="2" t="n">
+      <c r="A478" s="3" t="n">
         <v>45791</v>
       </c>
       <c r="B478" t="inlineStr">
@@ -17662,7 +17662,7 @@
       </c>
     </row>
     <row r="479">
-      <c r="A479" s="2" t="n">
+      <c r="A479" s="3" t="n">
         <v>45792</v>
       </c>
       <c r="B479" t="inlineStr">
@@ -17698,7 +17698,7 @@
       </c>
     </row>
     <row r="480">
-      <c r="A480" s="2" t="n">
+      <c r="A480" s="3" t="n">
         <v>45792</v>
       </c>
       <c r="B480" t="inlineStr">
@@ -17734,7 +17734,7 @@
       </c>
     </row>
     <row r="481">
-      <c r="A481" s="2" t="n">
+      <c r="A481" s="3" t="n">
         <v>45792</v>
       </c>
       <c r="B481" t="inlineStr">
@@ -17770,7 +17770,7 @@
       </c>
     </row>
     <row r="482">
-      <c r="A482" s="2" t="n">
+      <c r="A482" s="3" t="n">
         <v>45793</v>
       </c>
       <c r="B482" t="inlineStr">
@@ -17806,7 +17806,7 @@
       </c>
     </row>
     <row r="483">
-      <c r="A483" s="2" t="n">
+      <c r="A483" s="3" t="n">
         <v>45793</v>
       </c>
       <c r="B483" t="inlineStr">
@@ -17842,7 +17842,7 @@
       </c>
     </row>
     <row r="484">
-      <c r="A484" s="2" t="n">
+      <c r="A484" s="3" t="n">
         <v>45794</v>
       </c>
       <c r="B484" t="inlineStr">
@@ -17878,7 +17878,7 @@
       </c>
     </row>
     <row r="485">
-      <c r="A485" s="2" t="n">
+      <c r="A485" s="3" t="n">
         <v>45796</v>
       </c>
       <c r="B485" t="inlineStr">
@@ -17914,7 +17914,7 @@
       </c>
     </row>
     <row r="486">
-      <c r="A486" s="2" t="n">
+      <c r="A486" s="3" t="n">
         <v>45798</v>
       </c>
       <c r="B486" t="inlineStr">
@@ -17950,7 +17950,7 @@
       </c>
     </row>
     <row r="487">
-      <c r="A487" s="2" t="n">
+      <c r="A487" s="3" t="n">
         <v>45798</v>
       </c>
       <c r="B487" t="inlineStr">
@@ -17986,7 +17986,7 @@
       </c>
     </row>
     <row r="488">
-      <c r="A488" s="2" t="n">
+      <c r="A488" s="3" t="n">
         <v>45798</v>
       </c>
       <c r="B488" t="inlineStr">
@@ -18022,7 +18022,7 @@
       </c>
     </row>
     <row r="489">
-      <c r="A489" s="2" t="n">
+      <c r="A489" s="3" t="n">
         <v>45799</v>
       </c>
       <c r="B489" t="inlineStr">
@@ -18058,7 +18058,7 @@
       </c>
     </row>
     <row r="490">
-      <c r="A490" s="2" t="n">
+      <c r="A490" s="3" t="n">
         <v>45799</v>
       </c>
       <c r="B490" t="inlineStr">
@@ -18094,7 +18094,7 @@
       </c>
     </row>
     <row r="491">
-      <c r="A491" s="2" t="n">
+      <c r="A491" s="3" t="n">
         <v>45799</v>
       </c>
       <c r="B491" t="inlineStr">
@@ -18130,7 +18130,7 @@
       </c>
     </row>
     <row r="492">
-      <c r="A492" s="2" t="n">
+      <c r="A492" s="3" t="n">
         <v>45799</v>
       </c>
       <c r="B492" t="inlineStr">
@@ -18166,7 +18166,7 @@
       </c>
     </row>
     <row r="493">
-      <c r="A493" s="2" t="n">
+      <c r="A493" s="3" t="n">
         <v>45800</v>
       </c>
       <c r="B493" t="inlineStr">
@@ -18202,7 +18202,7 @@
       </c>
     </row>
     <row r="494">
-      <c r="A494" s="2" t="n">
+      <c r="A494" s="3" t="n">
         <v>45801</v>
       </c>
       <c r="B494" t="inlineStr">
@@ -18238,7 +18238,7 @@
       </c>
     </row>
     <row r="495">
-      <c r="A495" s="2" t="n">
+      <c r="A495" s="3" t="n">
         <v>45801</v>
       </c>
       <c r="B495" t="inlineStr">
@@ -18274,7 +18274,7 @@
       </c>
     </row>
     <row r="496">
-      <c r="A496" s="2" t="n">
+      <c r="A496" s="3" t="n">
         <v>45801</v>
       </c>
       <c r="B496" t="inlineStr">
@@ -18310,7 +18310,7 @@
       </c>
     </row>
     <row r="497">
-      <c r="A497" s="2" t="n">
+      <c r="A497" s="3" t="n">
         <v>45801</v>
       </c>
       <c r="B497" t="inlineStr">
@@ -18346,7 +18346,7 @@
       </c>
     </row>
     <row r="498">
-      <c r="A498" s="2" t="n">
+      <c r="A498" s="3" t="n">
         <v>45802</v>
       </c>
       <c r="B498" t="inlineStr">
@@ -18382,7 +18382,7 @@
       </c>
     </row>
     <row r="499">
-      <c r="A499" s="2" t="n">
+      <c r="A499" s="3" t="n">
         <v>45802</v>
       </c>
       <c r="B499" t="inlineStr">
@@ -18418,7 +18418,7 @@
       </c>
     </row>
     <row r="500">
-      <c r="A500" s="2" t="n">
+      <c r="A500" s="3" t="n">
         <v>45802</v>
       </c>
       <c r="B500" t="inlineStr">
@@ -18454,7 +18454,7 @@
       </c>
     </row>
     <row r="501">
-      <c r="A501" s="2" t="n">
+      <c r="A501" s="3" t="n">
         <v>45802</v>
       </c>
       <c r="B501" t="inlineStr">
@@ -18490,7 +18490,7 @@
       </c>
     </row>
     <row r="502">
-      <c r="A502" s="2" t="n">
+      <c r="A502" s="3" t="n">
         <v>45802</v>
       </c>
       <c r="B502" t="inlineStr">
@@ -18526,7 +18526,7 @@
       </c>
     </row>
     <row r="503">
-      <c r="A503" s="2" t="n">
+      <c r="A503" s="3" t="n">
         <v>45802</v>
       </c>
       <c r="B503" t="inlineStr">
@@ -18562,7 +18562,7 @@
       </c>
     </row>
     <row r="504">
-      <c r="A504" s="2" t="n">
+      <c r="A504" s="3" t="n">
         <v>45802</v>
       </c>
       <c r="B504" t="inlineStr">
@@ -18598,7 +18598,7 @@
       </c>
     </row>
     <row r="505">
-      <c r="A505" s="2" t="n">
+      <c r="A505" s="3" t="n">
         <v>45803</v>
       </c>
       <c r="B505" t="inlineStr">
@@ -18634,7 +18634,7 @@
       </c>
     </row>
     <row r="506">
-      <c r="A506" s="2" t="n">
+      <c r="A506" s="3" t="n">
         <v>45803</v>
       </c>
       <c r="B506" t="inlineStr">
@@ -18670,7 +18670,7 @@
       </c>
     </row>
     <row r="507">
-      <c r="A507" s="2" t="n">
+      <c r="A507" s="3" t="n">
         <v>45803</v>
       </c>
       <c r="B507" t="inlineStr">
@@ -18706,7 +18706,7 @@
       </c>
     </row>
     <row r="508">
-      <c r="A508" s="2" t="n">
+      <c r="A508" s="3" t="n">
         <v>45803</v>
       </c>
       <c r="B508" t="inlineStr">
@@ -18742,7 +18742,7 @@
       </c>
     </row>
     <row r="509">
-      <c r="A509" s="2" t="n">
+      <c r="A509" s="3" t="n">
         <v>45803</v>
       </c>
       <c r="B509" t="inlineStr">
@@ -18778,7 +18778,7 @@
       </c>
     </row>
     <row r="510">
-      <c r="A510" s="2" t="n">
+      <c r="A510" s="3" t="n">
         <v>45803</v>
       </c>
       <c r="B510" t="inlineStr">
@@ -18814,7 +18814,7 @@
       </c>
     </row>
     <row r="511">
-      <c r="A511" s="2" t="n">
+      <c r="A511" s="3" t="n">
         <v>45804</v>
       </c>
       <c r="B511" t="inlineStr">
@@ -18850,7 +18850,7 @@
       </c>
     </row>
     <row r="512">
-      <c r="A512" s="2" t="n">
+      <c r="A512" s="3" t="n">
         <v>45804</v>
       </c>
       <c r="B512" t="inlineStr">
@@ -18886,7 +18886,7 @@
       </c>
     </row>
     <row r="513">
-      <c r="A513" s="2" t="n">
+      <c r="A513" s="3" t="n">
         <v>45805</v>
       </c>
       <c r="B513" t="inlineStr">
@@ -18922,7 +18922,7 @@
       </c>
     </row>
     <row r="514">
-      <c r="A514" s="2" t="n">
+      <c r="A514" s="3" t="n">
         <v>45805</v>
       </c>
       <c r="B514" t="inlineStr">
@@ -18958,7 +18958,7 @@
       </c>
     </row>
     <row r="515">
-      <c r="A515" s="2" t="n">
+      <c r="A515" s="3" t="n">
         <v>45805</v>
       </c>
       <c r="B515" t="inlineStr">
@@ -18994,7 +18994,7 @@
       </c>
     </row>
     <row r="516">
-      <c r="A516" s="2" t="n">
+      <c r="A516" s="3" t="n">
         <v>45805</v>
       </c>
       <c r="B516" t="inlineStr">
@@ -19030,7 +19030,7 @@
       </c>
     </row>
     <row r="517">
-      <c r="A517" s="2" t="n">
+      <c r="A517" s="3" t="n">
         <v>45807</v>
       </c>
       <c r="B517" t="inlineStr">
@@ -19066,7 +19066,7 @@
       </c>
     </row>
     <row r="518">
-      <c r="A518" s="2" t="n">
+      <c r="A518" s="3" t="n">
         <v>45807</v>
       </c>
       <c r="B518" t="inlineStr">
@@ -19102,7 +19102,7 @@
       </c>
     </row>
     <row r="519">
-      <c r="A519" s="2" t="n">
+      <c r="A519" s="3" t="n">
         <v>45807</v>
       </c>
       <c r="B519" t="inlineStr">
@@ -19138,7 +19138,7 @@
       </c>
     </row>
     <row r="520">
-      <c r="A520" s="2" t="n">
+      <c r="A520" s="3" t="n">
         <v>45810</v>
       </c>
       <c r="B520" t="inlineStr">
@@ -19174,7 +19174,7 @@
       </c>
     </row>
     <row r="521">
-      <c r="A521" s="2" t="n">
+      <c r="A521" s="3" t="n">
         <v>45810</v>
       </c>
       <c r="B521" t="inlineStr">
@@ -19210,7 +19210,7 @@
       </c>
     </row>
     <row r="522">
-      <c r="A522" s="2" t="n">
+      <c r="A522" s="3" t="n">
         <v>45810</v>
       </c>
       <c r="B522" t="inlineStr">
@@ -19246,7 +19246,7 @@
       </c>
     </row>
     <row r="523">
-      <c r="A523" s="2" t="n">
+      <c r="A523" s="3" t="n">
         <v>45810</v>
       </c>
       <c r="B523" t="inlineStr">
@@ -19282,7 +19282,7 @@
       </c>
     </row>
     <row r="524">
-      <c r="A524" s="2" t="n">
+      <c r="A524" s="3" t="n">
         <v>45810</v>
       </c>
       <c r="B524" t="inlineStr">
@@ -19318,7 +19318,7 @@
       </c>
     </row>
     <row r="525">
-      <c r="A525" s="2" t="n">
+      <c r="A525" s="3" t="n">
         <v>45810</v>
       </c>
       <c r="B525" t="inlineStr">
@@ -19354,7 +19354,7 @@
       </c>
     </row>
     <row r="526">
-      <c r="A526" s="2" t="n">
+      <c r="A526" s="3" t="n">
         <v>45810</v>
       </c>
       <c r="B526" t="inlineStr">
@@ -19390,7 +19390,7 @@
       </c>
     </row>
     <row r="527">
-      <c r="A527" s="2" t="n">
+      <c r="A527" s="3" t="n">
         <v>45810</v>
       </c>
       <c r="B527" t="inlineStr">
@@ -19426,7 +19426,7 @@
       </c>
     </row>
     <row r="528">
-      <c r="A528" s="2" t="n">
+      <c r="A528" s="3" t="n">
         <v>45810</v>
       </c>
       <c r="B528" t="inlineStr">
@@ -19462,7 +19462,7 @@
       </c>
     </row>
     <row r="529">
-      <c r="A529" s="2" t="n">
+      <c r="A529" s="3" t="n">
         <v>45810</v>
       </c>
       <c r="B529" t="inlineStr">
@@ -19498,7 +19498,7 @@
       </c>
     </row>
     <row r="530">
-      <c r="A530" s="2" t="n">
+      <c r="A530" s="3" t="n">
         <v>45810</v>
       </c>
       <c r="B530" t="inlineStr">
@@ -19534,7 +19534,7 @@
       </c>
     </row>
     <row r="531">
-      <c r="A531" s="2" t="n">
+      <c r="A531" s="3" t="n">
         <v>45810</v>
       </c>
       <c r="B531" t="inlineStr">
@@ -19570,7 +19570,7 @@
       </c>
     </row>
     <row r="532">
-      <c r="A532" s="2" t="n">
+      <c r="A532" s="3" t="n">
         <v>45810</v>
       </c>
       <c r="B532" t="inlineStr">
@@ -19606,7 +19606,7 @@
       </c>
     </row>
     <row r="533">
-      <c r="A533" s="2" t="n">
+      <c r="A533" s="3" t="n">
         <v>45810</v>
       </c>
       <c r="B533" t="inlineStr">
@@ -19642,7 +19642,7 @@
       </c>
     </row>
     <row r="534">
-      <c r="A534" s="2" t="n">
+      <c r="A534" s="3" t="n">
         <v>45810</v>
       </c>
       <c r="B534" t="inlineStr">
@@ -19678,7 +19678,7 @@
       </c>
     </row>
     <row r="535">
-      <c r="A535" s="2" t="n">
+      <c r="A535" s="3" t="n">
         <v>45810</v>
       </c>
       <c r="B535" t="inlineStr">
@@ -19714,7 +19714,7 @@
       </c>
     </row>
     <row r="536">
-      <c r="A536" s="2" t="n">
+      <c r="A536" s="3" t="n">
         <v>45810</v>
       </c>
       <c r="B536" t="inlineStr">
@@ -19750,7 +19750,7 @@
       </c>
     </row>
     <row r="537">
-      <c r="A537" s="2" t="n">
+      <c r="A537" s="3" t="n">
         <v>45810</v>
       </c>
       <c r="B537" t="inlineStr">
@@ -19786,7 +19786,7 @@
       </c>
     </row>
     <row r="538">
-      <c r="A538" s="2" t="n">
+      <c r="A538" s="3" t="n">
         <v>45810</v>
       </c>
       <c r="B538" t="inlineStr">
@@ -19822,7 +19822,7 @@
       </c>
     </row>
     <row r="539">
-      <c r="A539" s="2" t="n">
+      <c r="A539" s="3" t="n">
         <v>45810</v>
       </c>
       <c r="B539" t="inlineStr">
@@ -19858,7 +19858,7 @@
       </c>
     </row>
     <row r="540">
-      <c r="A540" s="2" t="n">
+      <c r="A540" s="3" t="n">
         <v>45810</v>
       </c>
       <c r="B540" t="inlineStr">
@@ -19894,7 +19894,7 @@
       </c>
     </row>
     <row r="541">
-      <c r="A541" s="2" t="n">
+      <c r="A541" s="3" t="n">
         <v>45810</v>
       </c>
       <c r="B541" t="inlineStr">
@@ -19930,7 +19930,7 @@
       </c>
     </row>
     <row r="542">
-      <c r="A542" s="2" t="n">
+      <c r="A542" s="3" t="n">
         <v>45810</v>
       </c>
       <c r="B542" t="inlineStr">
@@ -19966,7 +19966,7 @@
       </c>
     </row>
     <row r="543">
-      <c r="A543" s="2" t="n">
+      <c r="A543" s="3" t="n">
         <v>45810</v>
       </c>
       <c r="B543" t="inlineStr">
@@ -20002,7 +20002,7 @@
       </c>
     </row>
     <row r="544">
-      <c r="A544" s="2" t="n">
+      <c r="A544" s="3" t="n">
         <v>45810</v>
       </c>
       <c r="B544" t="inlineStr">
@@ -20038,7 +20038,7 @@
       </c>
     </row>
     <row r="545">
-      <c r="A545" s="2" t="n">
+      <c r="A545" s="3" t="n">
         <v>45811</v>
       </c>
       <c r="B545" t="inlineStr">
@@ -20074,7 +20074,7 @@
       </c>
     </row>
     <row r="546">
-      <c r="A546" s="2" t="n">
+      <c r="A546" s="3" t="n">
         <v>45811</v>
       </c>
       <c r="B546" t="inlineStr">
@@ -20110,7 +20110,7 @@
       </c>
     </row>
     <row r="547">
-      <c r="A547" s="2" t="n">
+      <c r="A547" s="3" t="n">
         <v>45811</v>
       </c>
       <c r="B547" t="inlineStr">
@@ -20146,7 +20146,7 @@
       </c>
     </row>
     <row r="548">
-      <c r="A548" s="2" t="n">
+      <c r="A548" s="3" t="n">
         <v>45811</v>
       </c>
       <c r="B548" t="inlineStr">
@@ -20182,7 +20182,7 @@
       </c>
     </row>
     <row r="549">
-      <c r="A549" s="2" t="n">
+      <c r="A549" s="3" t="n">
         <v>45812</v>
       </c>
       <c r="B549" t="inlineStr">
@@ -20218,7 +20218,7 @@
       </c>
     </row>
     <row r="550">
-      <c r="A550" s="2" t="n">
+      <c r="A550" s="3" t="n">
         <v>45812</v>
       </c>
       <c r="B550" t="inlineStr">
@@ -20254,7 +20254,7 @@
       </c>
     </row>
     <row r="551">
-      <c r="A551" s="2" t="n">
+      <c r="A551" s="3" t="n">
         <v>45812</v>
       </c>
       <c r="B551" t="inlineStr">
@@ -20290,7 +20290,7 @@
       </c>
     </row>
     <row r="552">
-      <c r="A552" s="2" t="n">
+      <c r="A552" s="3" t="n">
         <v>45812</v>
       </c>
       <c r="B552" t="inlineStr">
@@ -20326,7 +20326,7 @@
       </c>
     </row>
     <row r="553">
-      <c r="A553" s="2" t="n">
+      <c r="A553" s="3" t="n">
         <v>45812</v>
       </c>
       <c r="B553" t="inlineStr">
@@ -20362,7 +20362,7 @@
       </c>
     </row>
     <row r="554">
-      <c r="A554" s="2" t="n">
+      <c r="A554" s="3" t="n">
         <v>45812</v>
       </c>
       <c r="B554" t="inlineStr">
@@ -20398,7 +20398,7 @@
       </c>
     </row>
     <row r="555">
-      <c r="A555" s="2" t="n">
+      <c r="A555" s="3" t="n">
         <v>45813</v>
       </c>
       <c r="B555" t="inlineStr">
@@ -20434,7 +20434,7 @@
       </c>
     </row>
     <row r="556">
-      <c r="A556" s="2" t="n">
+      <c r="A556" s="3" t="n">
         <v>45815</v>
       </c>
       <c r="B556" t="inlineStr">
@@ -20470,7 +20470,7 @@
       </c>
     </row>
     <row r="557">
-      <c r="A557" s="2" t="n">
+      <c r="A557" s="3" t="n">
         <v>45815</v>
       </c>
       <c r="B557" t="inlineStr">
@@ -20506,7 +20506,7 @@
       </c>
     </row>
     <row r="558">
-      <c r="A558" s="2" t="n">
+      <c r="A558" s="3" t="n">
         <v>45815</v>
       </c>
       <c r="B558" t="inlineStr">
@@ -20542,7 +20542,7 @@
       </c>
     </row>
     <row r="559">
-      <c r="A559" s="2" t="n">
+      <c r="A559" s="3" t="n">
         <v>45815</v>
       </c>
       <c r="B559" t="inlineStr">
@@ -20578,7 +20578,7 @@
       </c>
     </row>
     <row r="560">
-      <c r="A560" s="2" t="n">
+      <c r="A560" s="3" t="n">
         <v>45816</v>
       </c>
       <c r="B560" t="inlineStr">
@@ -20614,7 +20614,7 @@
       </c>
     </row>
     <row r="561">
-      <c r="A561" s="2" t="n">
+      <c r="A561" s="3" t="n">
         <v>45816</v>
       </c>
       <c r="B561" t="inlineStr">
@@ -20650,7 +20650,7 @@
       </c>
     </row>
     <row r="562">
-      <c r="A562" s="2" t="n">
+      <c r="A562" s="3" t="n">
         <v>45816</v>
       </c>
       <c r="B562" t="inlineStr">
@@ -20686,7 +20686,7 @@
       </c>
     </row>
     <row r="563">
-      <c r="A563" s="2" t="n">
+      <c r="A563" s="3" t="n">
         <v>45817</v>
       </c>
       <c r="B563" t="inlineStr">
@@ -20722,7 +20722,7 @@
       </c>
     </row>
     <row r="564">
-      <c r="A564" s="2" t="n">
+      <c r="A564" s="3" t="n">
         <v>45817</v>
       </c>
       <c r="B564" t="inlineStr">
@@ -20758,7 +20758,7 @@
       </c>
     </row>
     <row r="565">
-      <c r="A565" s="2" t="n">
+      <c r="A565" s="3" t="n">
         <v>45818</v>
       </c>
       <c r="B565" t="inlineStr">
@@ -20794,7 +20794,7 @@
       </c>
     </row>
     <row r="566">
-      <c r="A566" s="2" t="n">
+      <c r="A566" s="3" t="n">
         <v>45820</v>
       </c>
       <c r="B566" t="inlineStr">
@@ -20830,7 +20830,7 @@
       </c>
     </row>
     <row r="567">
-      <c r="A567" s="2" t="n">
+      <c r="A567" s="3" t="n">
         <v>45820</v>
       </c>
       <c r="B567" t="inlineStr">
@@ -20866,7 +20866,7 @@
       </c>
     </row>
     <row r="568">
-      <c r="A568" s="2" t="n">
+      <c r="A568" s="3" t="n">
         <v>45820</v>
       </c>
       <c r="B568" t="inlineStr">
@@ -20902,7 +20902,7 @@
       </c>
     </row>
     <row r="569">
-      <c r="A569" s="2" t="n">
+      <c r="A569" s="3" t="n">
         <v>45820</v>
       </c>
       <c r="B569" t="inlineStr">
@@ -20938,7 +20938,7 @@
       </c>
     </row>
     <row r="570">
-      <c r="A570" s="2" t="n">
+      <c r="A570" s="3" t="n">
         <v>45820</v>
       </c>
       <c r="B570" t="inlineStr">
@@ -20974,7 +20974,7 @@
       </c>
     </row>
     <row r="571">
-      <c r="A571" s="2" t="n">
+      <c r="A571" s="3" t="n">
         <v>45820</v>
       </c>
       <c r="B571" t="inlineStr">
@@ -21010,7 +21010,7 @@
       </c>
     </row>
     <row r="572">
-      <c r="A572" s="2" t="n">
+      <c r="A572" s="3" t="n">
         <v>45820</v>
       </c>
       <c r="B572" t="inlineStr">
@@ -21046,7 +21046,7 @@
       </c>
     </row>
     <row r="573">
-      <c r="A573" s="2" t="n">
+      <c r="A573" s="3" t="n">
         <v>45820</v>
       </c>
       <c r="B573" t="inlineStr">
@@ -21082,7 +21082,7 @@
       </c>
     </row>
     <row r="574">
-      <c r="A574" s="2" t="n">
+      <c r="A574" s="3" t="n">
         <v>45820</v>
       </c>
       <c r="B574" t="inlineStr">
@@ -21118,7 +21118,7 @@
       </c>
     </row>
     <row r="575">
-      <c r="A575" s="2" t="n">
+      <c r="A575" s="3" t="n">
         <v>45820</v>
       </c>
       <c r="B575" t="inlineStr">
@@ -21154,7 +21154,7 @@
       </c>
     </row>
     <row r="576">
-      <c r="A576" s="2" t="n">
+      <c r="A576" s="3" t="n">
         <v>45821</v>
       </c>
       <c r="B576" t="inlineStr">
@@ -21190,7 +21190,7 @@
       </c>
     </row>
     <row r="577">
-      <c r="A577" s="2" t="n">
+      <c r="A577" s="3" t="n">
         <v>45822</v>
       </c>
       <c r="B577" t="inlineStr">
@@ -21226,7 +21226,7 @@
       </c>
     </row>
     <row r="578">
-      <c r="A578" s="2" t="n">
+      <c r="A578" s="3" t="n">
         <v>45822</v>
       </c>
       <c r="B578" t="inlineStr">
@@ -21262,7 +21262,7 @@
       </c>
     </row>
     <row r="579">
-      <c r="A579" s="2" t="n">
+      <c r="A579" s="3" t="n">
         <v>45823</v>
       </c>
       <c r="B579" t="inlineStr">
@@ -21298,7 +21298,7 @@
       </c>
     </row>
     <row r="580">
-      <c r="A580" s="2" t="n">
+      <c r="A580" s="3" t="n">
         <v>45823</v>
       </c>
       <c r="B580" t="inlineStr">
@@ -21334,7 +21334,7 @@
       </c>
     </row>
     <row r="581">
-      <c r="A581" s="2" t="n">
+      <c r="A581" s="3" t="n">
         <v>45830</v>
       </c>
       <c r="B581" t="inlineStr">
@@ -21370,7 +21370,7 @@
       </c>
     </row>
     <row r="582">
-      <c r="A582" s="2" t="n">
+      <c r="A582" s="3" t="n">
         <v>45830</v>
       </c>
       <c r="B582" t="inlineStr">
@@ -21406,7 +21406,7 @@
       </c>
     </row>
     <row r="583">
-      <c r="A583" s="2" t="n">
+      <c r="A583" s="3" t="n">
         <v>45833</v>
       </c>
       <c r="B583" t="inlineStr">
@@ -21442,7 +21442,7 @@
       </c>
     </row>
     <row r="584">
-      <c r="A584" s="2" t="n">
+      <c r="A584" s="3" t="n">
         <v>45833</v>
       </c>
       <c r="B584" t="inlineStr">
@@ -21478,7 +21478,7 @@
       </c>
     </row>
     <row r="585">
-      <c r="A585" s="2" t="n">
+      <c r="A585" s="3" t="n">
         <v>45838</v>
       </c>
       <c r="B585" t="inlineStr">
@@ -21514,7 +21514,7 @@
       </c>
     </row>
     <row r="586">
-      <c r="A586" s="2" t="n">
+      <c r="A586" s="3" t="n">
         <v>45821</v>
       </c>
       <c r="B586" t="inlineStr">
@@ -21550,7 +21550,7 @@
       </c>
     </row>
     <row r="587">
-      <c r="A587" s="2" t="n">
+      <c r="A587" s="3" t="n">
         <v>45824</v>
       </c>
       <c r="B587" t="inlineStr">
@@ -21586,7 +21586,7 @@
       </c>
     </row>
     <row r="588">
-      <c r="A588" s="2" t="n">
+      <c r="A588" s="3" t="n">
         <v>45824</v>
       </c>
       <c r="B588" t="inlineStr">
@@ -21622,7 +21622,7 @@
       </c>
     </row>
     <row r="589">
-      <c r="A589" s="2" t="n">
+      <c r="A589" s="3" t="n">
         <v>45824</v>
       </c>
       <c r="B589" t="inlineStr">
@@ -21658,7 +21658,7 @@
       </c>
     </row>
     <row r="590">
-      <c r="A590" s="2" t="n">
+      <c r="A590" s="3" t="n">
         <v>45824</v>
       </c>
       <c r="B590" t="inlineStr">
@@ -21694,7 +21694,7 @@
       </c>
     </row>
     <row r="591">
-      <c r="A591" s="2" t="n">
+      <c r="A591" s="3" t="n">
         <v>45824</v>
       </c>
       <c r="B591" t="inlineStr">
@@ -21730,7 +21730,7 @@
       </c>
     </row>
     <row r="592">
-      <c r="A592" s="2" t="n">
+      <c r="A592" s="3" t="n">
         <v>45824</v>
       </c>
       <c r="B592" t="inlineStr">
@@ -21766,7 +21766,7 @@
       </c>
     </row>
     <row r="593">
-      <c r="A593" s="2" t="n">
+      <c r="A593" s="3" t="n">
         <v>45824</v>
       </c>
       <c r="B593" t="inlineStr">
@@ -21802,7 +21802,7 @@
       </c>
     </row>
     <row r="594">
-      <c r="A594" s="2" t="n">
+      <c r="A594" s="3" t="n">
         <v>45824</v>
       </c>
       <c r="B594" t="inlineStr">
@@ -21838,7 +21838,7 @@
       </c>
     </row>
     <row r="595">
-      <c r="A595" s="2" t="n">
+      <c r="A595" s="3" t="n">
         <v>45825</v>
       </c>
       <c r="B595" t="inlineStr">
@@ -21874,7 +21874,7 @@
       </c>
     </row>
     <row r="596">
-      <c r="A596" s="2" t="n">
+      <c r="A596" s="3" t="n">
         <v>45826</v>
       </c>
       <c r="B596" t="inlineStr">
@@ -21887,20 +21887,17 @@
           <t>Padaria</t>
         </is>
       </c>
-      <c r="D596" t="inlineStr"/>
       <c r="E596" t="inlineStr">
         <is>
           <t>CC-Banco Bradesco</t>
         </is>
       </c>
-      <c r="F596" t="inlineStr"/>
       <c r="G596" t="n">
         <v>-12</v>
       </c>
-      <c r="H596" t="inlineStr"/>
     </row>
     <row r="597">
-      <c r="A597" s="2" t="n">
+      <c r="A597" s="3" t="n">
         <v>45826</v>
       </c>
       <c r="B597" t="inlineStr">
@@ -21923,7 +21920,6 @@
           <t>CC-Banco Bradesco</t>
         </is>
       </c>
-      <c r="F597" t="inlineStr"/>
       <c r="G597" t="n">
         <v>-15</v>
       </c>
@@ -21932,7 +21928,7 @@
       </c>
     </row>
     <row r="598">
-      <c r="A598" s="2" t="n">
+      <c r="A598" s="3" t="n">
         <v>45826</v>
       </c>
       <c r="B598" t="inlineStr">
@@ -22034,7 +22030,7 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="3" t="n">
         <v>45306</v>
       </c>
       <c r="B2" t="inlineStr">
@@ -22066,12 +22062,12 @@
           <t>Pendente</t>
         </is>
       </c>
-      <c r="I2" s="2" t="n">
+      <c r="I2" s="3" t="n">
         <v>45337</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="n">
+      <c r="A3" s="3" t="n">
         <v>45311</v>
       </c>
       <c r="B3" t="inlineStr">
@@ -22103,12 +22099,12 @@
           <t>Pendente</t>
         </is>
       </c>
-      <c r="I3" s="2" t="n">
+      <c r="I3" s="3" t="n">
         <v>45337</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="n">
+      <c r="A4" s="3" t="n">
         <v>45327</v>
       </c>
       <c r="B4" t="inlineStr">
@@ -22140,12 +22136,12 @@
           <t>Pendente</t>
         </is>
       </c>
-      <c r="I4" s="2" t="n">
+      <c r="I4" s="3" t="n">
         <v>45366</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="n">
+      <c r="A5" s="3" t="n">
         <v>45332</v>
       </c>
       <c r="B5" t="inlineStr">
@@ -22177,12 +22173,12 @@
           <t>Pendente</t>
         </is>
       </c>
-      <c r="I5" s="2" t="n">
+      <c r="I5" s="3" t="n">
         <v>45366</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="2" t="n">
+      <c r="A6" s="3" t="n">
         <v>45363</v>
       </c>
       <c r="B6" t="inlineStr">
@@ -22214,12 +22210,12 @@
           <t>Pendente</t>
         </is>
       </c>
-      <c r="I6" s="2" t="n">
+      <c r="I6" s="3" t="n">
         <v>45397</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="2" t="n">
+      <c r="A7" s="3" t="n">
         <v>45369</v>
       </c>
       <c r="B7" t="inlineStr">
@@ -22251,12 +22247,12 @@
           <t>Pendente</t>
         </is>
       </c>
-      <c r="I7" s="2" t="n">
+      <c r="I7" s="3" t="n">
         <v>45397</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="2" t="n">
+      <c r="A8" s="3" t="n">
         <v>45402</v>
       </c>
       <c r="B8" t="inlineStr">
@@ -22288,12 +22284,12 @@
           <t>Pendente</t>
         </is>
       </c>
-      <c r="I8" s="2" t="n">
+      <c r="I8" s="3" t="n">
         <v>45427</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="2" t="n">
+      <c r="A9" s="3" t="n">
         <v>45407</v>
       </c>
       <c r="B9" t="inlineStr">
@@ -22325,12 +22321,12 @@
           <t>Pendente</t>
         </is>
       </c>
-      <c r="I9" s="2" t="n">
+      <c r="I9" s="3" t="n">
         <v>45427</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="2" t="n">
+      <c r="A10" s="3" t="n">
         <v>45417</v>
       </c>
       <c r="B10" t="inlineStr">
@@ -22362,12 +22358,12 @@
           <t>Pendente</t>
         </is>
       </c>
-      <c r="I10" s="2" t="n">
+      <c r="I10" s="3" t="n">
         <v>45458</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="2" t="n">
+      <c r="A11" s="3" t="n">
         <v>45442</v>
       </c>
       <c r="B11" t="inlineStr">
@@ -22399,12 +22395,12 @@
           <t>Pendente</t>
         </is>
       </c>
-      <c r="I11" s="2" t="n">
+      <c r="I11" s="3" t="n">
         <v>45458</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="2" t="n">
+      <c r="A12" s="3" t="n">
         <v>45444</v>
       </c>
       <c r="B12" t="inlineStr">
@@ -22436,12 +22432,12 @@
           <t>Pendente</t>
         </is>
       </c>
-      <c r="I12" s="2" t="n">
+      <c r="I12" s="3" t="n">
         <v>45488</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="2" t="n">
+      <c r="A13" s="3" t="n">
         <v>45453</v>
       </c>
       <c r="B13" t="inlineStr">
@@ -22473,12 +22469,12 @@
           <t>Pendente</t>
         </is>
       </c>
-      <c r="I13" s="2" t="n">
+      <c r="I13" s="3" t="n">
         <v>45488</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="2" t="n">
+      <c r="A14" s="3" t="n">
         <v>45319</v>
       </c>
       <c r="B14" t="inlineStr">
@@ -22510,12 +22506,12 @@
           <t>Pendente</t>
         </is>
       </c>
-      <c r="I14" s="2" t="n">
+      <c r="I14" s="3" t="n">
         <v>45337</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="2" t="n">
+      <c r="A15" s="3" t="n">
         <v>45350</v>
       </c>
       <c r="B15" t="inlineStr">
@@ -22547,12 +22543,12 @@
           <t>Pendente</t>
         </is>
       </c>
-      <c r="I15" s="2" t="n">
+      <c r="I15" s="3" t="n">
         <v>45366</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="2" t="n">
+      <c r="A16" s="3" t="n">
         <v>45379</v>
       </c>
       <c r="B16" t="inlineStr">
@@ -22584,12 +22580,12 @@
           <t>Pendente</t>
         </is>
       </c>
-      <c r="I16" s="2" t="n">
+      <c r="I16" s="3" t="n">
         <v>45397</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="2" t="n">
+      <c r="A17" s="3" t="n">
         <v>45410</v>
       </c>
       <c r="B17" t="inlineStr">
@@ -22621,12 +22617,12 @@
           <t>Pendente</t>
         </is>
       </c>
-      <c r="I17" s="2" t="n">
+      <c r="I17" s="3" t="n">
         <v>45427</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="2" t="n">
+      <c r="A18" s="3" t="n">
         <v>45440</v>
       </c>
       <c r="B18" t="inlineStr">
@@ -22658,12 +22654,12 @@
           <t>Pendente</t>
         </is>
       </c>
-      <c r="I18" s="2" t="n">
+      <c r="I18" s="3" t="n">
         <v>45458</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="2" t="n">
+      <c r="A19" s="3" t="n">
         <v>45471</v>
       </c>
       <c r="B19" t="inlineStr">
@@ -22695,7 +22691,7 @@
           <t>Pendente</t>
         </is>
       </c>
-      <c r="I19" s="2" t="n">
+      <c r="I19" s="3" t="n">
         <v>45488</v>
       </c>
     </row>
@@ -23061,7 +23057,6 @@
           <t xml:space="preserve">Energia Elétrica </t>
         </is>
       </c>
-      <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr">
         <is>
           <t>Consultas</t>
@@ -23084,13 +23079,11 @@
           <t>Doceria</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr"/>
       <c r="C5" t="inlineStr">
         <is>
           <t>Embalagens</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr">
         <is>
           <t>Futebol</t>
@@ -23101,7 +23094,6 @@
           <t>Manutenções Hidráulicas</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr">
         <is>
           <t>Exames</t>
@@ -23124,9 +23116,6 @@
           <t>Feira</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr"/>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr">
         <is>
           <t>Streams de Vídeo</t>
@@ -23137,8 +23126,6 @@
           <t>Sabesp</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr"/>
-      <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr">
         <is>
           <t>Van Escolar</t>
@@ -23156,9 +23143,6 @@
           <t>Lanchonete</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr"/>
-      <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr">
         <is>
           <t>Armazenamento Nuvem</t>
@@ -23169,10 +23153,6 @@
           <t>Gás</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr"/>
-      <c r="H7" t="inlineStr"/>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -23180,19 +23160,11 @@
           <t>Mercearia</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr"/>
-      <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr">
         <is>
           <t>Serviços Manutenção</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr"/>
-      <c r="H8" t="inlineStr"/>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -23200,19 +23172,11 @@
           <t>Padaria</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr"/>
-      <c r="C9" t="inlineStr"/>
-      <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr">
         <is>
           <t>Manutenções Alvenaria</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr"/>
-      <c r="H9" t="inlineStr"/>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -23220,19 +23184,11 @@
           <t>Pets</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr"/>
-      <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr">
         <is>
           <t>Água</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr"/>
-      <c r="H10" t="inlineStr"/>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -23240,19 +23196,11 @@
           <t>Restaurantes</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr"/>
-      <c r="C11" t="inlineStr"/>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr">
         <is>
           <t>Aquisições</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr"/>
-      <c r="H11" t="inlineStr"/>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -23260,19 +23208,11 @@
           <t>Sacolão</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr"/>
-      <c r="C12" t="inlineStr"/>
-      <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr">
         <is>
           <t>IPTU</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr"/>
-      <c r="H12" t="inlineStr"/>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -23280,35 +23220,18 @@
           <t>Ovos</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr"/>
-      <c r="C13" t="inlineStr"/>
-      <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr">
         <is>
           <t>Internet</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr"/>
-      <c r="H13" t="inlineStr"/>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr"/>
-      <c r="B14" t="inlineStr"/>
-      <c r="C14" t="inlineStr"/>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr"/>
       <c r="F14" t="inlineStr">
         <is>
           <t>Seguro</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr"/>
-      <c r="H14" t="inlineStr"/>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -23321,7 +23244,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G98"/>
+  <dimension ref="A1:H98"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23365,9 +23288,14 @@
           <t>PAGO</t>
         </is>
       </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>FAVORECIDO</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="3" t="n">
         <v>45658</v>
       </c>
       <c r="B2" t="inlineStr">
@@ -23396,9 +23324,14 @@
       <c r="G2" t="n">
         <v>1</v>
       </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="n">
+      <c r="A3" s="3" t="n">
         <v>45659</v>
       </c>
       <c r="B3" t="inlineStr">
@@ -23427,9 +23360,14 @@
       <c r="G3" t="n">
         <v>1</v>
       </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="n">
+      <c r="A4" s="3" t="n">
         <v>45659</v>
       </c>
       <c r="B4" t="inlineStr">
@@ -23458,9 +23396,14 @@
       <c r="G4" t="n">
         <v>1</v>
       </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="n">
+      <c r="A5" s="3" t="n">
         <v>45659</v>
       </c>
       <c r="B5" t="inlineStr">
@@ -23489,9 +23432,14 @@
       <c r="G5" t="n">
         <v>1</v>
       </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
     </row>
     <row r="6">
-      <c r="A6" s="2" t="n">
+      <c r="A6" s="3" t="n">
         <v>45660</v>
       </c>
       <c r="B6" t="inlineStr">
@@ -23520,9 +23468,14 @@
       <c r="G6" t="n">
         <v>1</v>
       </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
     </row>
     <row r="7">
-      <c r="A7" s="2" t="n">
+      <c r="A7" s="3" t="n">
         <v>45660</v>
       </c>
       <c r="B7" t="inlineStr">
@@ -23551,9 +23504,14 @@
       <c r="G7" t="n">
         <v>1</v>
       </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
     </row>
     <row r="8">
-      <c r="A8" s="2" t="n">
+      <c r="A8" s="3" t="n">
         <v>45663</v>
       </c>
       <c r="B8" t="inlineStr">
@@ -23582,9 +23540,14 @@
       <c r="G8" t="n">
         <v>1</v>
       </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
     </row>
     <row r="9">
-      <c r="A9" s="2" t="n">
+      <c r="A9" s="3" t="n">
         <v>45664</v>
       </c>
       <c r="B9" t="inlineStr">
@@ -23613,9 +23576,14 @@
       <c r="G9" t="n">
         <v>1</v>
       </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
     </row>
     <row r="10">
-      <c r="A10" s="2" t="n">
+      <c r="A10" s="3" t="n">
         <v>45666</v>
       </c>
       <c r="B10" t="inlineStr">
@@ -23644,9 +23612,14 @@
       <c r="G10" t="n">
         <v>1</v>
       </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
     </row>
     <row r="11">
-      <c r="A11" s="2" t="n">
+      <c r="A11" s="3" t="n">
         <v>45672</v>
       </c>
       <c r="B11" t="inlineStr">
@@ -23675,9 +23648,14 @@
       <c r="G11" t="n">
         <v>1</v>
       </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
     </row>
     <row r="12">
-      <c r="A12" s="2" t="n">
+      <c r="A12" s="3" t="n">
         <v>45677</v>
       </c>
       <c r="B12" t="inlineStr">
@@ -23706,9 +23684,14 @@
       <c r="G12" t="n">
         <v>1</v>
       </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
     </row>
     <row r="13">
-      <c r="A13" s="2" t="n">
+      <c r="A13" s="3" t="n">
         <v>45677</v>
       </c>
       <c r="B13" t="inlineStr">
@@ -23737,9 +23720,14 @@
       <c r="G13" t="n">
         <v>1</v>
       </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
     </row>
     <row r="14">
-      <c r="A14" s="2" t="n">
+      <c r="A14" s="3" t="n">
         <v>45681</v>
       </c>
       <c r="B14" t="inlineStr">
@@ -23768,9 +23756,14 @@
       <c r="G14" t="n">
         <v>1</v>
       </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
     </row>
     <row r="15">
-      <c r="A15" s="2" t="n">
+      <c r="A15" s="3" t="n">
         <v>45681</v>
       </c>
       <c r="B15" t="inlineStr">
@@ -23799,9 +23792,14 @@
       <c r="G15" t="n">
         <v>1</v>
       </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
     </row>
     <row r="16">
-      <c r="A16" s="2" t="n">
+      <c r="A16" s="3" t="n">
         <v>45684</v>
       </c>
       <c r="B16" t="inlineStr">
@@ -23830,9 +23828,14 @@
       <c r="G16" t="n">
         <v>1</v>
       </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
     </row>
     <row r="17">
-      <c r="A17" s="2" t="n">
+      <c r="A17" s="3" t="n">
         <v>45684</v>
       </c>
       <c r="B17" t="inlineStr">
@@ -23861,9 +23864,14 @@
       <c r="G17" t="n">
         <v>1</v>
       </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
     </row>
     <row r="18">
-      <c r="A18" s="2" t="n">
+      <c r="A18" s="3" t="n">
         <v>45687</v>
       </c>
       <c r="B18" t="inlineStr">
@@ -23892,9 +23900,14 @@
       <c r="G18" t="n">
         <v>1</v>
       </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
     </row>
     <row r="19">
-      <c r="A19" s="2" t="n">
+      <c r="A19" s="3" t="n">
         <v>45688</v>
       </c>
       <c r="B19" t="inlineStr">
@@ -23923,9 +23936,14 @@
       <c r="G19" t="n">
         <v>1</v>
       </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
     </row>
     <row r="20">
-      <c r="A20" s="2" t="n">
+      <c r="A20" s="3" t="n">
         <v>45688</v>
       </c>
       <c r="B20" t="inlineStr">
@@ -23954,9 +23972,14 @@
       <c r="G20" t="n">
         <v>1</v>
       </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
     </row>
     <row r="21">
-      <c r="A21" s="2" t="n">
+      <c r="A21" s="3" t="n">
         <v>45689</v>
       </c>
       <c r="B21" t="inlineStr">
@@ -23985,9 +24008,14 @@
       <c r="G21" t="n">
         <v>1</v>
       </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
     </row>
     <row r="22">
-      <c r="A22" s="2" t="n">
+      <c r="A22" s="3" t="n">
         <v>45691</v>
       </c>
       <c r="B22" t="inlineStr">
@@ -24016,9 +24044,14 @@
       <c r="G22" t="n">
         <v>1</v>
       </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
     </row>
     <row r="23">
-      <c r="A23" s="2" t="n">
+      <c r="A23" s="3" t="n">
         <v>45691</v>
       </c>
       <c r="B23" t="inlineStr">
@@ -24047,9 +24080,14 @@
       <c r="G23" t="n">
         <v>1</v>
       </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
     </row>
     <row r="24">
-      <c r="A24" s="2" t="n">
+      <c r="A24" s="3" t="n">
         <v>45693</v>
       </c>
       <c r="B24" t="inlineStr">
@@ -24078,9 +24116,14 @@
       <c r="G24" t="n">
         <v>1</v>
       </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
     </row>
     <row r="25">
-      <c r="A25" s="2" t="n">
+      <c r="A25" s="3" t="n">
         <v>45693</v>
       </c>
       <c r="B25" t="inlineStr">
@@ -24109,9 +24152,14 @@
       <c r="G25" t="n">
         <v>1</v>
       </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
     </row>
     <row r="26">
-      <c r="A26" s="2" t="n">
+      <c r="A26" s="3" t="n">
         <v>45693</v>
       </c>
       <c r="B26" t="inlineStr">
@@ -24140,9 +24188,14 @@
       <c r="G26" t="n">
         <v>1</v>
       </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
     </row>
     <row r="27">
-      <c r="A27" s="2" t="n">
+      <c r="A27" s="3" t="n">
         <v>45695</v>
       </c>
       <c r="B27" t="inlineStr">
@@ -24171,9 +24224,14 @@
       <c r="G27" t="n">
         <v>1</v>
       </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
     </row>
     <row r="28">
-      <c r="A28" s="2" t="n">
+      <c r="A28" s="3" t="n">
         <v>45698</v>
       </c>
       <c r="B28" t="inlineStr">
@@ -24202,9 +24260,14 @@
       <c r="G28" t="n">
         <v>1</v>
       </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
     </row>
     <row r="29">
-      <c r="A29" s="2" t="n">
+      <c r="A29" s="3" t="n">
         <v>45698</v>
       </c>
       <c r="B29" t="inlineStr">
@@ -24233,9 +24296,14 @@
       <c r="G29" t="n">
         <v>1</v>
       </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
     </row>
     <row r="30">
-      <c r="A30" s="2" t="n">
+      <c r="A30" s="3" t="n">
         <v>45698</v>
       </c>
       <c r="B30" t="inlineStr">
@@ -24264,9 +24332,14 @@
       <c r="G30" t="n">
         <v>1</v>
       </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
     </row>
     <row r="31">
-      <c r="A31" s="2" t="n">
+      <c r="A31" s="3" t="n">
         <v>45698</v>
       </c>
       <c r="B31" t="inlineStr">
@@ -24295,9 +24368,14 @@
       <c r="G31" t="n">
         <v>1</v>
       </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
     </row>
     <row r="32">
-      <c r="A32" s="2" t="n">
+      <c r="A32" s="3" t="n">
         <v>45699</v>
       </c>
       <c r="B32" t="inlineStr">
@@ -24326,9 +24404,14 @@
       <c r="G32" t="n">
         <v>1</v>
       </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
     </row>
     <row r="33">
-      <c r="A33" s="2" t="n">
+      <c r="A33" s="3" t="n">
         <v>45705</v>
       </c>
       <c r="B33" t="inlineStr">
@@ -24357,9 +24440,14 @@
       <c r="G33" t="n">
         <v>1</v>
       </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
     </row>
     <row r="34">
-      <c r="A34" s="2" t="n">
+      <c r="A34" s="3" t="n">
         <v>45709</v>
       </c>
       <c r="B34" t="inlineStr">
@@ -24388,9 +24476,14 @@
       <c r="G34" t="n">
         <v>1</v>
       </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
     </row>
     <row r="35">
-      <c r="A35" s="2" t="n">
+      <c r="A35" s="3" t="n">
         <v>45709</v>
       </c>
       <c r="B35" t="inlineStr">
@@ -24419,9 +24512,14 @@
       <c r="G35" t="n">
         <v>1</v>
       </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
     </row>
     <row r="36">
-      <c r="A36" s="2" t="n">
+      <c r="A36" s="3" t="n">
         <v>45709</v>
       </c>
       <c r="B36" t="inlineStr">
@@ -24450,9 +24548,14 @@
       <c r="G36" t="n">
         <v>1</v>
       </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
     </row>
     <row r="37">
-      <c r="A37" s="2" t="n">
+      <c r="A37" s="3" t="n">
         <v>45712</v>
       </c>
       <c r="B37" t="inlineStr">
@@ -24481,9 +24584,14 @@
       <c r="G37" t="n">
         <v>1</v>
       </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
     </row>
     <row r="38">
-      <c r="A38" s="2" t="n">
+      <c r="A38" s="3" t="n">
         <v>45712</v>
       </c>
       <c r="B38" t="inlineStr">
@@ -24512,9 +24620,14 @@
       <c r="G38" t="n">
         <v>1</v>
       </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
     </row>
     <row r="39">
-      <c r="A39" s="2" t="n">
+      <c r="A39" s="3" t="n">
         <v>45714</v>
       </c>
       <c r="B39" t="inlineStr">
@@ -24543,9 +24656,14 @@
       <c r="G39" t="n">
         <v>1</v>
       </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
     </row>
     <row r="40">
-      <c r="A40" s="2" t="n">
+      <c r="A40" s="3" t="n">
         <v>45714</v>
       </c>
       <c r="B40" t="inlineStr">
@@ -24574,9 +24692,14 @@
       <c r="G40" t="n">
         <v>1</v>
       </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
     </row>
     <row r="41">
-      <c r="A41" s="2" t="n">
+      <c r="A41" s="3" t="n">
         <v>45715</v>
       </c>
       <c r="B41" t="inlineStr">
@@ -24605,9 +24728,14 @@
       <c r="G41" t="n">
         <v>1</v>
       </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
     </row>
     <row r="42">
-      <c r="A42" s="2" t="n">
+      <c r="A42" s="3" t="n">
         <v>45715</v>
       </c>
       <c r="B42" t="inlineStr">
@@ -24636,9 +24764,14 @@
       <c r="G42" t="n">
         <v>1</v>
       </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
     </row>
     <row r="43">
-      <c r="A43" s="2" t="n">
+      <c r="A43" s="3" t="n">
         <v>45717</v>
       </c>
       <c r="B43" t="inlineStr">
@@ -24667,9 +24800,14 @@
       <c r="G43" t="n">
         <v>1</v>
       </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
     </row>
     <row r="44">
-      <c r="A44" s="2" t="n">
+      <c r="A44" s="3" t="n">
         <v>45723</v>
       </c>
       <c r="B44" t="inlineStr">
@@ -24698,9 +24836,14 @@
       <c r="G44" t="n">
         <v>1</v>
       </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
     </row>
     <row r="45">
-      <c r="A45" s="2" t="n">
+      <c r="A45" s="3" t="n">
         <v>45723</v>
       </c>
       <c r="B45" t="inlineStr">
@@ -24729,9 +24872,14 @@
       <c r="G45" t="n">
         <v>1</v>
       </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
     </row>
     <row r="46">
-      <c r="A46" s="2" t="n">
+      <c r="A46" s="3" t="n">
         <v>45727</v>
       </c>
       <c r="B46" t="inlineStr">
@@ -24760,9 +24908,14 @@
       <c r="G46" t="n">
         <v>1</v>
       </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
     </row>
     <row r="47">
-      <c r="A47" s="2" t="n">
+      <c r="A47" s="3" t="n">
         <v>45729</v>
       </c>
       <c r="B47" t="inlineStr">
@@ -24791,9 +24944,14 @@
       <c r="G47" t="n">
         <v>1</v>
       </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
     </row>
     <row r="48">
-      <c r="A48" s="2" t="n">
+      <c r="A48" s="3" t="n">
         <v>45730</v>
       </c>
       <c r="B48" t="inlineStr">
@@ -24822,9 +24980,14 @@
       <c r="G48" t="n">
         <v>1</v>
       </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
     </row>
     <row r="49">
-      <c r="A49" s="2" t="n">
+      <c r="A49" s="3" t="n">
         <v>45730</v>
       </c>
       <c r="B49" t="inlineStr">
@@ -24853,9 +25016,14 @@
       <c r="G49" t="n">
         <v>1</v>
       </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
     </row>
     <row r="50">
-      <c r="A50" s="2" t="n">
+      <c r="A50" s="3" t="n">
         <v>45734</v>
       </c>
       <c r="B50" t="inlineStr">
@@ -24884,9 +25052,14 @@
       <c r="G50" t="n">
         <v>1</v>
       </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
     </row>
     <row r="51">
-      <c r="A51" s="2" t="n">
+      <c r="A51" s="3" t="n">
         <v>45735</v>
       </c>
       <c r="B51" t="inlineStr">
@@ -24915,9 +25088,14 @@
       <c r="G51" t="n">
         <v>1</v>
       </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
     </row>
     <row r="52">
-      <c r="A52" s="2" t="n">
+      <c r="A52" s="3" t="n">
         <v>45736</v>
       </c>
       <c r="B52" t="inlineStr">
@@ -24946,9 +25124,14 @@
       <c r="G52" t="n">
         <v>1</v>
       </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
     </row>
     <row r="53">
-      <c r="A53" s="2" t="n">
+      <c r="A53" s="3" t="n">
         <v>45737</v>
       </c>
       <c r="B53" t="inlineStr">
@@ -24977,9 +25160,14 @@
       <c r="G53" t="n">
         <v>1</v>
       </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
     </row>
     <row r="54">
-      <c r="A54" s="2" t="n">
+      <c r="A54" s="3" t="n">
         <v>45740</v>
       </c>
       <c r="B54" t="inlineStr">
@@ -25008,9 +25196,14 @@
       <c r="G54" t="n">
         <v>1</v>
       </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
     </row>
     <row r="55">
-      <c r="A55" s="2" t="n">
+      <c r="A55" s="3" t="n">
         <v>45740</v>
       </c>
       <c r="B55" t="inlineStr">
@@ -25039,9 +25232,14 @@
       <c r="G55" t="n">
         <v>1</v>
       </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
     </row>
     <row r="56">
-      <c r="A56" s="2" t="n">
+      <c r="A56" s="3" t="n">
         <v>45740</v>
       </c>
       <c r="B56" t="inlineStr">
@@ -25070,9 +25268,14 @@
       <c r="G56" t="n">
         <v>1</v>
       </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
     </row>
     <row r="57">
-      <c r="A57" s="2" t="n">
+      <c r="A57" s="3" t="n">
         <v>45740</v>
       </c>
       <c r="B57" t="inlineStr">
@@ -25101,9 +25304,14 @@
       <c r="G57" t="n">
         <v>1</v>
       </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
     </row>
     <row r="58">
-      <c r="A58" s="2" t="n">
+      <c r="A58" s="3" t="n">
         <v>45742</v>
       </c>
       <c r="B58" t="inlineStr">
@@ -25132,9 +25340,14 @@
       <c r="G58" t="n">
         <v>1</v>
       </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
     </row>
     <row r="59">
-      <c r="A59" s="2" t="n">
+      <c r="A59" s="3" t="n">
         <v>45743</v>
       </c>
       <c r="B59" t="inlineStr">
@@ -25163,9 +25376,14 @@
       <c r="G59" t="n">
         <v>1</v>
       </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
     </row>
     <row r="60">
-      <c r="A60" s="2" t="n">
+      <c r="A60" s="3" t="n">
         <v>45743</v>
       </c>
       <c r="B60" t="inlineStr">
@@ -25194,9 +25412,14 @@
       <c r="G60" t="n">
         <v>1</v>
       </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
     </row>
     <row r="61">
-      <c r="A61" s="2" t="n">
+      <c r="A61" s="3" t="n">
         <v>45744</v>
       </c>
       <c r="B61" t="inlineStr">
@@ -25225,9 +25448,14 @@
       <c r="G61" t="n">
         <v>1</v>
       </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
     </row>
     <row r="62">
-      <c r="A62" s="2" t="n">
+      <c r="A62" s="3" t="n">
         <v>45747</v>
       </c>
       <c r="B62" t="inlineStr">
@@ -25256,9 +25484,14 @@
       <c r="G62" t="n">
         <v>1</v>
       </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
     </row>
     <row r="63">
-      <c r="A63" s="2" t="n">
+      <c r="A63" s="3" t="n">
         <v>45747</v>
       </c>
       <c r="B63" t="inlineStr">
@@ -25287,9 +25520,14 @@
       <c r="G63" t="n">
         <v>1</v>
       </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
     </row>
     <row r="64">
-      <c r="A64" s="2" t="n">
+      <c r="A64" s="3" t="n">
         <v>45748</v>
       </c>
       <c r="B64" t="inlineStr">
@@ -25318,9 +25556,14 @@
       <c r="G64" t="n">
         <v>1</v>
       </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
     </row>
     <row r="65">
-      <c r="A65" s="2" t="n">
+      <c r="A65" s="3" t="n">
         <v>45748</v>
       </c>
       <c r="B65" t="inlineStr">
@@ -25349,9 +25592,14 @@
       <c r="G65" t="n">
         <v>1</v>
       </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
     </row>
     <row r="66">
-      <c r="A66" s="2" t="n">
+      <c r="A66" s="3" t="n">
         <v>45748</v>
       </c>
       <c r="B66" t="inlineStr">
@@ -25380,9 +25628,14 @@
       <c r="G66" t="n">
         <v>1</v>
       </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
     </row>
     <row r="67">
-      <c r="A67" s="2" t="n">
+      <c r="A67" s="3" t="n">
         <v>45748</v>
       </c>
       <c r="B67" t="inlineStr">
@@ -25411,9 +25664,14 @@
       <c r="G67" t="n">
         <v>1</v>
       </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
     </row>
     <row r="68">
-      <c r="A68" s="2" t="n">
+      <c r="A68" s="3" t="n">
         <v>45749</v>
       </c>
       <c r="B68" t="inlineStr">
@@ -25442,9 +25700,14 @@
       <c r="G68" t="n">
         <v>1</v>
       </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
     </row>
     <row r="69">
-      <c r="A69" s="2" t="n">
+      <c r="A69" s="3" t="n">
         <v>45750</v>
       </c>
       <c r="B69" t="inlineStr">
@@ -25473,9 +25736,14 @@
       <c r="G69" t="n">
         <v>1</v>
       </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
     </row>
     <row r="70">
-      <c r="A70" s="2" t="n">
+      <c r="A70" s="3" t="n">
         <v>45751</v>
       </c>
       <c r="B70" t="inlineStr">
@@ -25504,9 +25772,14 @@
       <c r="G70" t="n">
         <v>1</v>
       </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
     </row>
     <row r="71">
-      <c r="A71" s="2" t="n">
+      <c r="A71" s="3" t="n">
         <v>45754</v>
       </c>
       <c r="B71" t="inlineStr">
@@ -25535,9 +25808,14 @@
       <c r="G71" t="n">
         <v>1</v>
       </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
     </row>
     <row r="72">
-      <c r="A72" s="2" t="n">
+      <c r="A72" s="3" t="n">
         <v>45755</v>
       </c>
       <c r="B72" t="inlineStr">
@@ -25566,9 +25844,14 @@
       <c r="G72" t="n">
         <v>1</v>
       </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
     </row>
     <row r="73">
-      <c r="A73" s="2" t="n">
+      <c r="A73" s="3" t="n">
         <v>45761</v>
       </c>
       <c r="B73" t="inlineStr">
@@ -25597,9 +25880,14 @@
       <c r="G73" t="n">
         <v>1</v>
       </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
     </row>
     <row r="74">
-      <c r="A74" s="2" t="n">
+      <c r="A74" s="3" t="n">
         <v>45762</v>
       </c>
       <c r="B74" t="inlineStr">
@@ -25628,9 +25916,14 @@
       <c r="G74" t="n">
         <v>1</v>
       </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
     </row>
     <row r="75">
-      <c r="A75" s="2" t="n">
+      <c r="A75" s="3" t="n">
         <v>45762</v>
       </c>
       <c r="B75" t="inlineStr">
@@ -25659,9 +25952,14 @@
       <c r="G75" t="n">
         <v>1</v>
       </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
     </row>
     <row r="76">
-      <c r="A76" s="2" t="n">
+      <c r="A76" s="3" t="n">
         <v>45769</v>
       </c>
       <c r="B76" t="inlineStr">
@@ -25690,9 +25988,14 @@
       <c r="G76" t="n">
         <v>1</v>
       </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
     </row>
     <row r="77">
-      <c r="A77" s="2" t="n">
+      <c r="A77" s="3" t="n">
         <v>45769</v>
       </c>
       <c r="B77" t="inlineStr">
@@ -25721,9 +26024,14 @@
       <c r="G77" t="n">
         <v>1</v>
       </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
     </row>
     <row r="78">
-      <c r="A78" s="2" t="n">
+      <c r="A78" s="3" t="n">
         <v>45769</v>
       </c>
       <c r="B78" t="inlineStr">
@@ -25752,9 +26060,14 @@
       <c r="G78" t="n">
         <v>1</v>
       </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
     </row>
     <row r="79">
-      <c r="A79" s="2" t="n">
+      <c r="A79" s="3" t="n">
         <v>45770</v>
       </c>
       <c r="B79" t="inlineStr">
@@ -25783,9 +26096,14 @@
       <c r="G79" t="n">
         <v>1</v>
       </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
     </row>
     <row r="80">
-      <c r="A80" s="2" t="n">
+      <c r="A80" s="3" t="n">
         <v>45775</v>
       </c>
       <c r="B80" t="inlineStr">
@@ -25814,9 +26132,14 @@
       <c r="G80" t="n">
         <v>1</v>
       </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
     </row>
     <row r="81">
-      <c r="A81" s="2" t="n">
+      <c r="A81" s="3" t="n">
         <v>45775</v>
       </c>
       <c r="B81" t="inlineStr">
@@ -25845,9 +26168,14 @@
       <c r="G81" t="n">
         <v>1</v>
       </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
     </row>
     <row r="82">
-      <c r="A82" s="2" t="n">
+      <c r="A82" s="3" t="n">
         <v>45778</v>
       </c>
       <c r="B82" t="inlineStr">
@@ -25876,9 +26204,14 @@
       <c r="G82" t="n">
         <v>1</v>
       </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
     </row>
     <row r="83">
-      <c r="A83" s="2" t="n">
+      <c r="A83" s="3" t="n">
         <v>45782</v>
       </c>
       <c r="B83" t="inlineStr">
@@ -25907,9 +26240,14 @@
       <c r="G83" t="n">
         <v>1</v>
       </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
     </row>
     <row r="84">
-      <c r="A84" s="2" t="n">
+      <c r="A84" s="3" t="n">
         <v>45784</v>
       </c>
       <c r="B84" t="inlineStr">
@@ -25938,9 +26276,14 @@
       <c r="G84" t="n">
         <v>1</v>
       </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
     </row>
     <row r="85">
-      <c r="A85" s="2" t="n">
+      <c r="A85" s="3" t="n">
         <v>45784</v>
       </c>
       <c r="B85" t="inlineStr">
@@ -25969,9 +26312,14 @@
       <c r="G85" t="n">
         <v>1</v>
       </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
     </row>
     <row r="86">
-      <c r="A86" s="2" t="n">
+      <c r="A86" s="3" t="n">
         <v>45796</v>
       </c>
       <c r="B86" t="inlineStr">
@@ -26000,9 +26348,14 @@
       <c r="G86" t="n">
         <v>1</v>
       </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
     </row>
     <row r="87">
-      <c r="A87" s="2" t="n">
+      <c r="A87" s="3" t="n">
         <v>45809</v>
       </c>
       <c r="B87" t="inlineStr">
@@ -26031,9 +26384,14 @@
       <c r="G87" t="n">
         <v>1</v>
       </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
     </row>
     <row r="88">
-      <c r="A88" s="2" t="n">
+      <c r="A88" s="3" t="n">
         <v>45809</v>
       </c>
       <c r="B88" t="inlineStr">
@@ -26062,9 +26420,14 @@
       <c r="G88" t="n">
         <v>1</v>
       </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
     </row>
     <row r="89">
-      <c r="A89" s="2" t="n">
+      <c r="A89" s="3" t="n">
         <v>45810</v>
       </c>
       <c r="B89" t="inlineStr">
@@ -26093,9 +26456,14 @@
       <c r="G89" t="n">
         <v>1</v>
       </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
     </row>
     <row r="90">
-      <c r="A90" s="2" t="n">
+      <c r="A90" s="3" t="n">
         <v>45810</v>
       </c>
       <c r="B90" t="inlineStr">
@@ -26124,9 +26492,14 @@
       <c r="G90" t="n">
         <v>1</v>
       </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
     </row>
     <row r="91">
-      <c r="A91" s="2" t="n">
+      <c r="A91" s="3" t="n">
         <v>45810</v>
       </c>
       <c r="B91" t="inlineStr">
@@ -26155,9 +26528,14 @@
       <c r="G91" t="n">
         <v>1</v>
       </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
     </row>
     <row r="92">
-      <c r="A92" s="2" t="n">
+      <c r="A92" s="3" t="n">
         <v>45813</v>
       </c>
       <c r="B92" t="inlineStr">
@@ -26186,9 +26564,14 @@
       <c r="G92" t="n">
         <v>1</v>
       </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
     </row>
     <row r="93">
-      <c r="A93" s="2" t="n">
+      <c r="A93" s="3" t="n">
         <v>45815</v>
       </c>
       <c r="B93" t="inlineStr">
@@ -26217,9 +26600,14 @@
       <c r="G93" t="n">
         <v>1</v>
       </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
     </row>
     <row r="94">
-      <c r="A94" s="2" t="n">
+      <c r="A94" s="3" t="n">
         <v>45815</v>
       </c>
       <c r="B94" t="inlineStr">
@@ -26248,9 +26636,14 @@
       <c r="G94" t="n">
         <v>1</v>
       </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
     </row>
     <row r="95">
-      <c r="A95" s="2" t="n">
+      <c r="A95" s="3" t="n">
         <v>45818</v>
       </c>
       <c r="B95" t="inlineStr">
@@ -26279,9 +26672,14 @@
       <c r="G95" t="n">
         <v>1</v>
       </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
     </row>
     <row r="96">
-      <c r="A96" s="2" t="n">
+      <c r="A96" s="3" t="n">
         <v>45824</v>
       </c>
       <c r="B96" t="inlineStr">
@@ -26310,9 +26708,14 @@
       <c r="G96" t="n">
         <v>1</v>
       </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
     </row>
     <row r="97">
-      <c r="A97" s="2" t="n">
+      <c r="A97" s="3" t="n">
         <v>45825</v>
       </c>
       <c r="B97" t="inlineStr">
@@ -26341,9 +26744,14 @@
       <c r="G97" t="n">
         <v>1</v>
       </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
     </row>
     <row r="98">
-      <c r="A98" s="2" t="n">
+      <c r="A98" s="3" t="n">
         <v>45825</v>
       </c>
       <c r="B98" t="inlineStr">
@@ -26371,6 +26779,11 @@
       </c>
       <c r="G98" t="n">
         <v>1</v>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
       </c>
     </row>
   </sheetData>
@@ -26551,7 +26964,6 @@
           <t>Boleto</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr"/>
       <c r="C2" t="inlineStr">
         <is>
           <t>Transferência Pix</t>
@@ -26564,7 +26976,6 @@
           <t>Cartão de Crédito</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr"/>
       <c r="C3" t="inlineStr">
         <is>
           <t>Transferência Salário</t>
@@ -26577,8 +26988,6 @@
           <t>Compra Elo Debito Vista</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -26586,8 +26995,6 @@
           <t>Débito Automático</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr"/>
-      <c r="C5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -26595,8 +27002,6 @@
           <t>Dinheiro</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr"/>
-      <c r="C6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -26604,8 +27009,6 @@
           <t>Pagto App</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr"/>
-      <c r="C7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -26613,8 +27016,6 @@
           <t>Pague Facil</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr"/>
-      <c r="C8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -26622,8 +27023,6 @@
           <t>Pix Qrcode/Link</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr"/>
-      <c r="C9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -26631,8 +27030,6 @@
           <t>Saque</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr"/>
-      <c r="C10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -26640,8 +27037,6 @@
           <t>Transferência Pix</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr"/>
-      <c r="C11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -26649,8 +27044,6 @@
           <t>Transferência Salário</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr"/>
-      <c r="C12" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -26704,7 +27097,7 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="3" t="n">
         <v>45659</v>
       </c>
       <c r="B2" t="inlineStr">
@@ -26730,7 +27123,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="n">
+      <c r="A3" s="3" t="n">
         <v>45659</v>
       </c>
       <c r="B3" t="inlineStr">
@@ -26756,7 +27149,7 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="n">
+      <c r="A4" s="3" t="n">
         <v>45659</v>
       </c>
       <c r="B4" t="inlineStr">
@@ -26782,7 +27175,7 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="n">
+      <c r="A5" s="3" t="n">
         <v>45660</v>
       </c>
       <c r="B5" t="inlineStr">
@@ -26808,7 +27201,7 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="2" t="n">
+      <c r="A6" s="3" t="n">
         <v>45660</v>
       </c>
       <c r="B6" t="inlineStr">
@@ -26834,7 +27227,7 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="2" t="n">
+      <c r="A7" s="3" t="n">
         <v>45663</v>
       </c>
       <c r="B7" t="inlineStr">
@@ -26860,7 +27253,7 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="2" t="n">
+      <c r="A8" s="3" t="n">
         <v>45664</v>
       </c>
       <c r="B8" t="inlineStr">
@@ -26886,7 +27279,7 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="2" t="n">
+      <c r="A9" s="3" t="n">
         <v>45666</v>
       </c>
       <c r="B9" t="inlineStr">
@@ -26912,7 +27305,7 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="2" t="n">
+      <c r="A10" s="3" t="n">
         <v>45672</v>
       </c>
       <c r="B10" t="inlineStr">
@@ -26938,7 +27331,7 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="2" t="n">
+      <c r="A11" s="3" t="n">
         <v>45677</v>
       </c>
       <c r="B11" t="inlineStr">
@@ -26964,7 +27357,7 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="2" t="n">
+      <c r="A12" s="3" t="n">
         <v>45677</v>
       </c>
       <c r="B12" t="inlineStr">
@@ -26990,7 +27383,7 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="2" t="n">
+      <c r="A13" s="3" t="n">
         <v>45681</v>
       </c>
       <c r="B13" t="inlineStr">
@@ -27016,7 +27409,7 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="2" t="n">
+      <c r="A14" s="3" t="n">
         <v>45681</v>
       </c>
       <c r="B14" t="inlineStr">
@@ -27042,7 +27435,7 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="2" t="n">
+      <c r="A15" s="3" t="n">
         <v>45684</v>
       </c>
       <c r="B15" t="inlineStr">
@@ -27068,7 +27461,7 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="2" t="n">
+      <c r="A16" s="3" t="n">
         <v>45684</v>
       </c>
       <c r="B16" t="inlineStr">
@@ -27094,7 +27487,7 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="2" t="n">
+      <c r="A17" s="3" t="n">
         <v>45687</v>
       </c>
       <c r="B17" t="inlineStr">
@@ -27120,7 +27513,7 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="2" t="n">
+      <c r="A18" s="3" t="n">
         <v>45688</v>
       </c>
       <c r="B18" t="inlineStr">
@@ -27146,7 +27539,7 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="2" t="n">
+      <c r="A19" s="3" t="n">
         <v>45688</v>
       </c>
       <c r="B19" t="inlineStr">
@@ -27172,7 +27565,7 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="2" t="n">
+      <c r="A20" s="3" t="n">
         <v>45691</v>
       </c>
       <c r="B20" t="inlineStr">
@@ -27198,7 +27591,7 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="2" t="n">
+      <c r="A21" s="3" t="n">
         <v>45691</v>
       </c>
       <c r="B21" t="inlineStr">
@@ -27224,7 +27617,7 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="2" t="n">
+      <c r="A22" s="3" t="n">
         <v>45693</v>
       </c>
       <c r="B22" t="inlineStr">
@@ -27250,7 +27643,7 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="2" t="n">
+      <c r="A23" s="3" t="n">
         <v>45693</v>
       </c>
       <c r="B23" t="inlineStr">
@@ -27276,7 +27669,7 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="2" t="n">
+      <c r="A24" s="3" t="n">
         <v>45693</v>
       </c>
       <c r="B24" t="inlineStr">
@@ -27302,7 +27695,7 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="2" t="n">
+      <c r="A25" s="3" t="n">
         <v>45695</v>
       </c>
       <c r="B25" t="inlineStr">
@@ -27328,7 +27721,7 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="2" t="n">
+      <c r="A26" s="3" t="n">
         <v>45698</v>
       </c>
       <c r="B26" t="inlineStr">
@@ -27354,7 +27747,7 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="2" t="n">
+      <c r="A27" s="3" t="n">
         <v>45698</v>
       </c>
       <c r="B27" t="inlineStr">
@@ -27380,7 +27773,7 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="2" t="n">
+      <c r="A28" s="3" t="n">
         <v>45698</v>
       </c>
       <c r="B28" t="inlineStr">
@@ -27406,7 +27799,7 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="2" t="n">
+      <c r="A29" s="3" t="n">
         <v>45698</v>
       </c>
       <c r="B29" t="inlineStr">
@@ -27432,7 +27825,7 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="2" t="n">
+      <c r="A30" s="3" t="n">
         <v>45699</v>
       </c>
       <c r="B30" t="inlineStr">
@@ -27458,7 +27851,7 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="2" t="n">
+      <c r="A31" s="3" t="n">
         <v>45705</v>
       </c>
       <c r="B31" t="inlineStr">
@@ -27484,7 +27877,7 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="2" t="n">
+      <c r="A32" s="3" t="n">
         <v>45709</v>
       </c>
       <c r="B32" t="inlineStr">
@@ -27510,7 +27903,7 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="2" t="n">
+      <c r="A33" s="3" t="n">
         <v>45709</v>
       </c>
       <c r="B33" t="inlineStr">
@@ -27536,7 +27929,7 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="2" t="n">
+      <c r="A34" s="3" t="n">
         <v>45709</v>
       </c>
       <c r="B34" t="inlineStr">
@@ -27562,7 +27955,7 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="2" t="n">
+      <c r="A35" s="3" t="n">
         <v>45712</v>
       </c>
       <c r="B35" t="inlineStr">
@@ -27588,7 +27981,7 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="2" t="n">
+      <c r="A36" s="3" t="n">
         <v>45712</v>
       </c>
       <c r="B36" t="inlineStr">
@@ -27614,7 +28007,7 @@
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="2" t="n">
+      <c r="A37" s="3" t="n">
         <v>45714</v>
       </c>
       <c r="B37" t="inlineStr">
@@ -27640,7 +28033,7 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="2" t="n">
+      <c r="A38" s="3" t="n">
         <v>45714</v>
       </c>
       <c r="B38" t="inlineStr">
@@ -27666,7 +28059,7 @@
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="2" t="n">
+      <c r="A39" s="3" t="n">
         <v>45715</v>
       </c>
       <c r="B39" t="inlineStr">
@@ -27692,7 +28085,7 @@
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="2" t="n">
+      <c r="A40" s="3" t="n">
         <v>45715</v>
       </c>
       <c r="B40" t="inlineStr">
@@ -27718,7 +28111,7 @@
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="2" t="n">
+      <c r="A41" s="3" t="n">
         <v>45723</v>
       </c>
       <c r="B41" t="inlineStr">
@@ -27744,7 +28137,7 @@
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="2" t="n">
+      <c r="A42" s="3" t="n">
         <v>45723</v>
       </c>
       <c r="B42" t="inlineStr">
@@ -27770,7 +28163,7 @@
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="2" t="n">
+      <c r="A43" s="3" t="n">
         <v>45727</v>
       </c>
       <c r="B43" t="inlineStr">
@@ -27796,7 +28189,7 @@
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="2" t="n">
+      <c r="A44" s="3" t="n">
         <v>45729</v>
       </c>
       <c r="B44" t="inlineStr">
@@ -27822,7 +28215,7 @@
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="2" t="n">
+      <c r="A45" s="3" t="n">
         <v>45730</v>
       </c>
       <c r="B45" t="inlineStr">
@@ -27848,7 +28241,7 @@
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="2" t="n">
+      <c r="A46" s="3" t="n">
         <v>45730</v>
       </c>
       <c r="B46" t="inlineStr">
@@ -27874,7 +28267,7 @@
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="2" t="n">
+      <c r="A47" s="3" t="n">
         <v>45734</v>
       </c>
       <c r="B47" t="inlineStr">
@@ -27900,7 +28293,7 @@
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="2" t="n">
+      <c r="A48" s="3" t="n">
         <v>45735</v>
       </c>
       <c r="B48" t="inlineStr">
@@ -27926,7 +28319,7 @@
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="2" t="n">
+      <c r="A49" s="3" t="n">
         <v>45736</v>
       </c>
       <c r="B49" t="inlineStr">
@@ -27952,7 +28345,7 @@
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="2" t="n">
+      <c r="A50" s="3" t="n">
         <v>45737</v>
       </c>
       <c r="B50" t="inlineStr">
@@ -27978,7 +28371,7 @@
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="2" t="n">
+      <c r="A51" s="3" t="n">
         <v>45740</v>
       </c>
       <c r="B51" t="inlineStr">
@@ -28004,7 +28397,7 @@
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="2" t="n">
+      <c r="A52" s="3" t="n">
         <v>45740</v>
       </c>
       <c r="B52" t="inlineStr">
@@ -28030,7 +28423,7 @@
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="2" t="n">
+      <c r="A53" s="3" t="n">
         <v>45740</v>
       </c>
       <c r="B53" t="inlineStr">
@@ -28056,7 +28449,7 @@
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="2" t="n">
+      <c r="A54" s="3" t="n">
         <v>45740</v>
       </c>
       <c r="B54" t="inlineStr">
@@ -28082,7 +28475,7 @@
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="2" t="n">
+      <c r="A55" s="3" t="n">
         <v>45742</v>
       </c>
       <c r="B55" t="inlineStr">
@@ -28108,7 +28501,7 @@
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="2" t="n">
+      <c r="A56" s="3" t="n">
         <v>45743</v>
       </c>
       <c r="B56" t="inlineStr">
@@ -28134,7 +28527,7 @@
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="2" t="n">
+      <c r="A57" s="3" t="n">
         <v>45743</v>
       </c>
       <c r="B57" t="inlineStr">
@@ -28160,7 +28553,7 @@
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="2" t="n">
+      <c r="A58" s="3" t="n">
         <v>45744</v>
       </c>
       <c r="B58" t="inlineStr">
@@ -28186,7 +28579,7 @@
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="2" t="n">
+      <c r="A59" s="3" t="n">
         <v>45747</v>
       </c>
       <c r="B59" t="inlineStr">
@@ -28212,7 +28605,7 @@
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="2" t="n">
+      <c r="A60" s="3" t="n">
         <v>45747</v>
       </c>
       <c r="B60" t="inlineStr">
@@ -28238,7 +28631,7 @@
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="2" t="n">
+      <c r="A61" s="3" t="n">
         <v>45748</v>
       </c>
       <c r="B61" t="inlineStr">
@@ -28264,7 +28657,7 @@
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="2" t="n">
+      <c r="A62" s="3" t="n">
         <v>45748</v>
       </c>
       <c r="B62" t="inlineStr">
@@ -28290,7 +28683,7 @@
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="2" t="n">
+      <c r="A63" s="3" t="n">
         <v>45748</v>
       </c>
       <c r="B63" t="inlineStr">
@@ -28316,7 +28709,7 @@
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="2" t="n">
+      <c r="A64" s="3" t="n">
         <v>45749</v>
       </c>
       <c r="B64" t="inlineStr">
@@ -28342,7 +28735,7 @@
       </c>
     </row>
     <row r="65">
-      <c r="A65" s="2" t="n">
+      <c r="A65" s="3" t="n">
         <v>45750</v>
       </c>
       <c r="B65" t="inlineStr">
@@ -28368,7 +28761,7 @@
       </c>
     </row>
     <row r="66">
-      <c r="A66" s="2" t="n">
+      <c r="A66" s="3" t="n">
         <v>45751</v>
       </c>
       <c r="B66" t="inlineStr">
@@ -28394,7 +28787,7 @@
       </c>
     </row>
     <row r="67">
-      <c r="A67" s="2" t="n">
+      <c r="A67" s="3" t="n">
         <v>45754</v>
       </c>
       <c r="B67" t="inlineStr">
@@ -28420,7 +28813,7 @@
       </c>
     </row>
     <row r="68">
-      <c r="A68" s="2" t="n">
+      <c r="A68" s="3" t="n">
         <v>45755</v>
       </c>
       <c r="B68" t="inlineStr">
@@ -28446,7 +28839,7 @@
       </c>
     </row>
     <row r="69">
-      <c r="A69" s="2" t="n">
+      <c r="A69" s="3" t="n">
         <v>45761</v>
       </c>
       <c r="B69" t="inlineStr">
@@ -28472,7 +28865,7 @@
       </c>
     </row>
     <row r="70">
-      <c r="A70" s="2" t="n">
+      <c r="A70" s="3" t="n">
         <v>45762</v>
       </c>
       <c r="B70" t="inlineStr">
@@ -28498,7 +28891,7 @@
       </c>
     </row>
     <row r="71">
-      <c r="A71" s="2" t="n">
+      <c r="A71" s="3" t="n">
         <v>45762</v>
       </c>
       <c r="B71" t="inlineStr">
@@ -28524,7 +28917,7 @@
       </c>
     </row>
     <row r="72">
-      <c r="A72" s="2" t="n">
+      <c r="A72" s="3" t="n">
         <v>45769</v>
       </c>
       <c r="B72" t="inlineStr">
@@ -28550,7 +28943,7 @@
       </c>
     </row>
     <row r="73">
-      <c r="A73" s="2" t="n">
+      <c r="A73" s="3" t="n">
         <v>45769</v>
       </c>
       <c r="B73" t="inlineStr">
@@ -28576,7 +28969,7 @@
       </c>
     </row>
     <row r="74">
-      <c r="A74" s="2" t="n">
+      <c r="A74" s="3" t="n">
         <v>45769</v>
       </c>
       <c r="B74" t="inlineStr">
@@ -28602,7 +28995,7 @@
       </c>
     </row>
     <row r="75">
-      <c r="A75" s="2" t="n">
+      <c r="A75" s="3" t="n">
         <v>45770</v>
       </c>
       <c r="B75" t="inlineStr">
@@ -28628,7 +29021,7 @@
       </c>
     </row>
     <row r="76">
-      <c r="A76" s="2" t="n">
+      <c r="A76" s="3" t="n">
         <v>45775</v>
       </c>
       <c r="B76" t="inlineStr">
@@ -28654,7 +29047,7 @@
       </c>
     </row>
     <row r="77">
-      <c r="A77" s="2" t="n">
+      <c r="A77" s="3" t="n">
         <v>45775</v>
       </c>
       <c r="B77" t="inlineStr">
@@ -28680,7 +29073,7 @@
       </c>
     </row>
     <row r="78">
-      <c r="A78" s="2" t="n">
+      <c r="A78" s="3" t="n">
         <v>45782</v>
       </c>
       <c r="B78" t="inlineStr">
@@ -28706,7 +29099,7 @@
       </c>
     </row>
     <row r="79">
-      <c r="A79" s="2" t="n">
+      <c r="A79" s="3" t="n">
         <v>45784</v>
       </c>
       <c r="B79" t="inlineStr">
@@ -28732,7 +29125,7 @@
       </c>
     </row>
     <row r="80">
-      <c r="A80" s="2" t="n">
+      <c r="A80" s="3" t="n">
         <v>45784</v>
       </c>
       <c r="B80" t="inlineStr">
@@ -28758,7 +29151,7 @@
       </c>
     </row>
     <row r="81">
-      <c r="A81" s="2" t="n">
+      <c r="A81" s="3" t="n">
         <v>45796</v>
       </c>
       <c r="B81" t="inlineStr">
@@ -28784,7 +29177,7 @@
       </c>
     </row>
     <row r="82">
-      <c r="A82" s="2" t="n">
+      <c r="A82" s="3" t="n">
         <v>45810</v>
       </c>
       <c r="B82" t="inlineStr">
@@ -28810,7 +29203,7 @@
       </c>
     </row>
     <row r="83">
-      <c r="A83" s="2" t="n">
+      <c r="A83" s="3" t="n">
         <v>45810</v>
       </c>
       <c r="B83" t="inlineStr">
@@ -28836,7 +29229,7 @@
       </c>
     </row>
     <row r="84">
-      <c r="A84" s="2" t="n">
+      <c r="A84" s="3" t="n">
         <v>45810</v>
       </c>
       <c r="B84" t="inlineStr">
@@ -28862,7 +29255,7 @@
       </c>
     </row>
     <row r="85">
-      <c r="A85" s="2" t="n">
+      <c r="A85" s="3" t="n">
         <v>45813</v>
       </c>
       <c r="B85" t="inlineStr">
@@ -28888,7 +29281,7 @@
       </c>
     </row>
     <row r="86">
-      <c r="A86" s="2" t="n">
+      <c r="A86" s="3" t="n">
         <v>45815</v>
       </c>
       <c r="B86" t="inlineStr">
@@ -28914,7 +29307,7 @@
       </c>
     </row>
     <row r="87">
-      <c r="A87" s="2" t="n">
+      <c r="A87" s="3" t="n">
         <v>45815</v>
       </c>
       <c r="B87" t="inlineStr">
@@ -28940,7 +29333,7 @@
       </c>
     </row>
     <row r="88">
-      <c r="A88" s="2" t="n">
+      <c r="A88" s="3" t="n">
         <v>45818</v>
       </c>
       <c r="B88" t="inlineStr">
@@ -28966,7 +29359,7 @@
       </c>
     </row>
     <row r="89">
-      <c r="A89" s="2" t="n">
+      <c r="A89" s="3" t="n">
         <v>45824</v>
       </c>
       <c r="B89" t="inlineStr">
@@ -28992,7 +29385,7 @@
       </c>
     </row>
     <row r="90">
-      <c r="A90" s="2" t="n">
+      <c r="A90" s="3" t="n">
         <v>45825</v>
       </c>
       <c r="B90" t="inlineStr">
@@ -29018,7 +29411,7 @@
       </c>
     </row>
     <row r="91">
-      <c r="A91" s="2" t="n">
+      <c r="A91" s="3" t="n">
         <v>45825</v>
       </c>
       <c r="B91" t="inlineStr">

--- a/Base_financas.xlsx
+++ b/Base_financas.xlsx
@@ -1090,7 +1090,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J603"/>
+  <dimension ref="A1:J600"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26293,132 +26293,6 @@
         <v/>
       </c>
       <c r="J600" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="601">
-      <c r="A601" s="19" t="n">
-        <v>45831</v>
-      </c>
-      <c r="B601" t="inlineStr">
-        <is>
-          <t>Confeitaria</t>
-        </is>
-      </c>
-      <c r="C601" t="inlineStr">
-        <is>
-          <t>Material</t>
-        </is>
-      </c>
-      <c r="D601" t="inlineStr">
-        <is>
-          <t>--- Digitar Novo Favorecido ---</t>
-        </is>
-      </c>
-      <c r="E601" t="inlineStr">
-        <is>
-          <t>CCR-Itaú Marisa</t>
-        </is>
-      </c>
-      <c r="F601" t="inlineStr">
-        <is>
-          <t>Cartão de Crédito</t>
-        </is>
-      </c>
-      <c r="G601" t="n">
-        <v>-0.01</v>
-      </c>
-      <c r="H601" t="n">
-        <v>1</v>
-      </c>
-      <c r="I601" t="n">
-        <v/>
-      </c>
-      <c r="J601" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="602">
-      <c r="A602" s="19" t="n">
-        <v>45831</v>
-      </c>
-      <c r="B602" t="inlineStr">
-        <is>
-          <t>Confeitaria</t>
-        </is>
-      </c>
-      <c r="C602" t="inlineStr">
-        <is>
-          <t>Material</t>
-        </is>
-      </c>
-      <c r="D602" t="inlineStr">
-        <is>
-          <t>--- Digitar Novo Favorecido ---</t>
-        </is>
-      </c>
-      <c r="E602" t="inlineStr">
-        <is>
-          <t>CC-Banco Bradesco</t>
-        </is>
-      </c>
-      <c r="F602" t="inlineStr">
-        <is>
-          <t>Pagto App</t>
-        </is>
-      </c>
-      <c r="G602" t="n">
-        <v>-0.01</v>
-      </c>
-      <c r="H602" t="n">
-        <v>1</v>
-      </c>
-      <c r="I602" t="n">
-        <v/>
-      </c>
-      <c r="J602" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="603">
-      <c r="A603" s="19" t="n">
-        <v>45831</v>
-      </c>
-      <c r="B603" t="inlineStr">
-        <is>
-          <t>Educação</t>
-        </is>
-      </c>
-      <c r="C603" t="inlineStr">
-        <is>
-          <t>Mensalidade Escolar</t>
-        </is>
-      </c>
-      <c r="D603" t="inlineStr">
-        <is>
-          <t>59233899 Edson Olive</t>
-        </is>
-      </c>
-      <c r="E603" t="inlineStr">
-        <is>
-          <t>CCR-Itaú Marisa</t>
-        </is>
-      </c>
-      <c r="F603" t="inlineStr">
-        <is>
-          <t>Boleto</t>
-        </is>
-      </c>
-      <c r="G603" t="n">
-        <v>-10</v>
-      </c>
-      <c r="H603" t="n">
-        <v>1</v>
-      </c>
-      <c r="I603" t="n">
-        <v/>
-      </c>
-      <c r="J603" t="n">
         <v/>
       </c>
     </row>
